--- a/Lit review data/lit review master COMBINED.xlsx
+++ b/Lit review data/lit review master COMBINED.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8075" uniqueCount="2589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15714" uniqueCount="2591">
   <si>
     <t>Latin name</t>
   </si>
@@ -30854,15 +30854,28 @@
   </si>
   <si>
     <t>prevalence modelling, risk mapping, cluster analysis</t>
+  </si>
+  <si>
+    <t>cjc flag - also "helminthiasis"</t>
+  </si>
+  <si>
+    <t>cjc flag - nice summary of WHO guidelines for intervention</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31091,92 +31104,95 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -31496,9 +31512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="93" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -38492,6 +38508,12 @@
       <c r="C128" s="25">
         <v>2009</v>
       </c>
+      <c r="D128" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E128" s="39" t="s">
+        <v>2570</v>
+      </c>
       <c r="F128" t="s">
         <v>1083</v>
       </c>
@@ -38536,6 +38558,12 @@
       <c r="C129" s="25">
         <v>2018</v>
       </c>
+      <c r="D129" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E129" s="39" t="s">
+        <v>2586</v>
+      </c>
       <c r="F129" s="25" t="s">
         <v>699</v>
       </c>
@@ -38586,6 +38614,12 @@
       <c r="C130" s="25">
         <v>2006</v>
       </c>
+      <c r="D130" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E130" s="39" t="s">
+        <v>2571</v>
+      </c>
       <c r="F130" t="s">
         <v>701</v>
       </c>
@@ -38645,6 +38679,12 @@
       <c r="C131" s="25">
         <v>2007</v>
       </c>
+      <c r="D131" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E131" s="39" t="s">
+        <v>2571</v>
+      </c>
       <c r="F131" t="s">
         <v>700</v>
       </c>
@@ -38695,6 +38735,12 @@
       <c r="C132" s="25">
         <v>2008</v>
       </c>
+      <c r="D132" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E132" s="39" t="s">
+        <v>2570</v>
+      </c>
       <c r="F132" s="25" t="s">
         <v>704</v>
       </c>
@@ -38748,6 +38794,12 @@
       <c r="C133" s="25">
         <v>2015</v>
       </c>
+      <c r="D133" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E133" s="39" t="s">
+        <v>2566</v>
+      </c>
       <c r="F133" s="25" t="s">
         <v>681</v>
       </c>
@@ -38804,6 +38856,12 @@
       <c r="C134" s="25">
         <v>2013</v>
       </c>
+      <c r="D134" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E134" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F134" s="25" t="s">
         <v>724</v>
       </c>
@@ -38860,6 +38918,12 @@
       <c r="C135" s="25">
         <v>2018</v>
       </c>
+      <c r="D135" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E135" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F135" s="25" t="s">
         <v>735</v>
       </c>
@@ -38913,6 +38977,12 @@
       <c r="C136" s="25">
         <v>2014</v>
       </c>
+      <c r="D136" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E136" s="39" t="s">
+        <v>2581</v>
+      </c>
       <c r="F136" t="s">
         <v>740</v>
       </c>
@@ -38963,6 +39033,12 @@
       <c r="C137" s="25">
         <v>2018</v>
       </c>
+      <c r="D137" s="38" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E137" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F137" t="s">
         <v>745</v>
       </c>
@@ -39010,6 +39086,12 @@
       <c r="C138" s="25">
         <v>2011</v>
       </c>
+      <c r="D138" s="38" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E138" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F138" t="s">
         <v>781</v>
       </c>
@@ -39063,6 +39145,12 @@
       <c r="C139" s="25">
         <v>2014</v>
       </c>
+      <c r="D139" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E139" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F139" s="25" t="s">
         <v>787</v>
       </c>
@@ -39116,7 +39204,13 @@
       <c r="C140" s="25">
         <v>2014</v>
       </c>
-      <c r="F140" t="s">
+      <c r="D140" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E140" s="39" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>797</v>
       </c>
       <c r="G140" s="25" t="s">
@@ -39169,6 +39263,12 @@
       <c r="C141" s="25">
         <v>2017</v>
       </c>
+      <c r="D141" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E141" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F141" s="25" t="s">
         <v>789</v>
       </c>
@@ -39222,6 +39322,12 @@
       <c r="C142" s="25">
         <v>2014</v>
       </c>
+      <c r="D142" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E142" s="39" t="s">
+        <v>2581</v>
+      </c>
       <c r="F142" s="25" t="s">
         <v>806</v>
       </c>
@@ -39272,6 +39378,12 @@
       <c r="C143" s="25">
         <v>2012</v>
       </c>
+      <c r="D143" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E143" s="39" t="s">
+        <v>2566</v>
+      </c>
       <c r="F143" s="25" t="s">
         <v>829</v>
       </c>
@@ -39328,6 +39440,12 @@
       <c r="C144" s="25">
         <v>2010</v>
       </c>
+      <c r="D144" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E144" s="39" t="s">
+        <v>2582</v>
+      </c>
       <c r="F144" s="25" t="s">
         <v>826</v>
       </c>
@@ -39381,6 +39499,12 @@
       <c r="C145" s="25">
         <v>2012</v>
       </c>
+      <c r="D145" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E145" s="39" t="s">
+        <v>2572</v>
+      </c>
       <c r="F145" s="25" t="s">
         <v>831</v>
       </c>
@@ -39431,6 +39555,12 @@
       <c r="C146" s="25">
         <v>2015</v>
       </c>
+      <c r="D146" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E146" s="39" t="s">
+        <v>2574</v>
+      </c>
       <c r="F146" s="25" t="s">
         <v>834</v>
       </c>
@@ -39481,6 +39611,12 @@
       <c r="C147" s="25">
         <v>2017</v>
       </c>
+      <c r="D147" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E147" s="39" t="s">
+        <v>2566</v>
+      </c>
       <c r="F147" s="25" t="s">
         <v>843</v>
       </c>
@@ -39531,6 +39667,12 @@
       <c r="C148" s="25">
         <v>2017</v>
       </c>
+      <c r="D148" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E148" s="39" t="s">
+        <v>2572</v>
+      </c>
       <c r="F148" s="25" t="s">
         <v>846</v>
       </c>
@@ -39584,6 +39726,12 @@
       <c r="C149" s="25">
         <v>2018</v>
       </c>
+      <c r="D149" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E149" s="39" t="s">
+        <v>2569</v>
+      </c>
       <c r="F149" s="25" t="s">
         <v>851</v>
       </c>
@@ -39634,6 +39782,12 @@
       <c r="C150" s="25">
         <v>2012</v>
       </c>
+      <c r="D150" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E150" s="39" t="s">
+        <v>2568</v>
+      </c>
       <c r="F150" s="25" t="s">
         <v>856</v>
       </c>
@@ -39681,6 +39835,12 @@
       <c r="C151" s="25">
         <v>2016</v>
       </c>
+      <c r="D151" s="39" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E151" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F151" t="s">
         <v>859</v>
       </c>
@@ -39737,6 +39897,12 @@
       <c r="C152" s="25">
         <v>2017</v>
       </c>
+      <c r="D152" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E152" s="39" t="s">
+        <v>2570</v>
+      </c>
       <c r="F152" s="25" t="s">
         <v>861</v>
       </c>
@@ -39787,6 +39953,12 @@
       <c r="C153" s="25">
         <v>2013</v>
       </c>
+      <c r="D153" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E153" s="39" t="s">
+        <v>2585</v>
+      </c>
       <c r="F153" s="25" t="s">
         <v>862</v>
       </c>
@@ -39837,6 +40009,12 @@
       <c r="C154" s="25">
         <v>2004</v>
       </c>
+      <c r="D154" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E154" s="39" t="s">
+        <v>2570</v>
+      </c>
       <c r="F154" t="s">
         <v>1110</v>
       </c>
@@ -39887,6 +40065,12 @@
       <c r="C155" s="25">
         <v>2015</v>
       </c>
+      <c r="D155" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E155" s="39" t="s">
+        <v>2568</v>
+      </c>
       <c r="F155" t="s">
         <v>915</v>
       </c>
@@ -39937,6 +40121,12 @@
       <c r="C156" s="25">
         <v>2012</v>
       </c>
+      <c r="D156" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E156" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F156" t="s">
         <v>923</v>
       </c>
@@ -39990,6 +40180,12 @@
       <c r="C157" s="25">
         <v>2012</v>
       </c>
+      <c r="D157" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E157" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F157" t="s">
         <v>925</v>
       </c>
@@ -40043,6 +40239,12 @@
       <c r="C158" s="25">
         <v>2012</v>
       </c>
+      <c r="D158" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E158" s="39" t="s">
+        <v>2573</v>
+      </c>
       <c r="F158" t="s">
         <v>926</v>
       </c>
@@ -40096,6 +40298,12 @@
       <c r="C159" s="25">
         <v>2017</v>
       </c>
+      <c r="D159" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E159" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F159" t="s">
         <v>909</v>
       </c>
@@ -40143,6 +40351,12 @@
       <c r="C160" s="25">
         <v>2018</v>
       </c>
+      <c r="D160" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E160" s="39" t="s">
+        <v>2568</v>
+      </c>
       <c r="F160" s="25" t="s">
         <v>892</v>
       </c>
@@ -40196,6 +40410,12 @@
       <c r="C161" s="25">
         <v>2018</v>
       </c>
+      <c r="D161" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E161" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F161" s="30" t="s">
         <v>945</v>
       </c>
@@ -40249,6 +40469,12 @@
       <c r="C162" s="25">
         <v>2004</v>
       </c>
+      <c r="D162" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E162" s="39" t="s">
+        <v>2573</v>
+      </c>
       <c r="F162" t="s">
         <v>939</v>
       </c>
@@ -40299,6 +40525,12 @@
       <c r="C163" s="25">
         <v>2006</v>
       </c>
+      <c r="D163" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E163" s="39" t="s">
+        <v>2159</v>
+      </c>
       <c r="F163" t="s">
         <v>930</v>
       </c>
@@ -40349,6 +40581,9 @@
       <c r="C164" s="25">
         <v>2010</v>
       </c>
+      <c r="D164" s="38" t="s">
+        <v>2576</v>
+      </c>
       <c r="F164" t="s">
         <v>928</v>
       </c>
@@ -40399,6 +40634,12 @@
       <c r="C165" s="25">
         <v>2011</v>
       </c>
+      <c r="D165" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E165" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F165" s="25" t="s">
         <v>868</v>
       </c>
@@ -40452,6 +40693,12 @@
       <c r="C166" s="25">
         <v>2011</v>
       </c>
+      <c r="D166" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E166" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F166" t="s">
         <v>870</v>
       </c>
@@ -40502,6 +40749,12 @@
       <c r="C167" s="25">
         <v>2011</v>
       </c>
+      <c r="D167" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E167" s="39" t="s">
+        <v>2566</v>
+      </c>
       <c r="F167" t="s">
         <v>1118</v>
       </c>
@@ -40552,6 +40805,12 @@
       <c r="C168" s="25">
         <v>2014</v>
       </c>
+      <c r="D168" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E168" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F168" s="25" t="s">
         <v>876</v>
       </c>
@@ -40602,6 +40861,9 @@
       <c r="C169" s="25">
         <v>2016</v>
       </c>
+      <c r="D169" s="38" t="s">
+        <v>2576</v>
+      </c>
       <c r="F169" t="s">
         <v>898</v>
       </c>
@@ -40655,6 +40917,12 @@
       <c r="C170" s="25">
         <v>2017</v>
       </c>
+      <c r="D170" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E170" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F170" s="25" t="s">
         <v>884</v>
       </c>
@@ -40708,6 +40976,12 @@
       <c r="C171" s="25">
         <v>2017</v>
       </c>
+      <c r="D171" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E171" s="39" t="s">
+        <v>2568</v>
+      </c>
       <c r="F171" t="s">
         <v>897</v>
       </c>
@@ -40761,6 +41035,12 @@
       <c r="C172" s="25">
         <v>2017</v>
       </c>
+      <c r="D172" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E172" s="39" t="s">
+        <v>2568</v>
+      </c>
       <c r="F172" t="s">
         <v>911</v>
       </c>
@@ -40808,6 +41088,12 @@
       <c r="C173" s="25">
         <v>2018</v>
       </c>
+      <c r="D173" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E173" s="39" t="s">
+        <v>2568</v>
+      </c>
       <c r="F173" t="s">
         <v>896</v>
       </c>
@@ -40861,6 +41147,12 @@
       <c r="C174" s="25">
         <v>2018</v>
       </c>
+      <c r="D174" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E174" s="39" t="s">
+        <v>2151</v>
+      </c>
       <c r="F174" t="s">
         <v>903</v>
       </c>
@@ -40907,6 +41199,12 @@
       </c>
       <c r="C175" s="25">
         <v>2019</v>
+      </c>
+      <c r="D175" s="39" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E175" s="39" t="s">
+        <v>2570</v>
       </c>
       <c r="F175" t="s">
         <v>902</v>
@@ -57234,9 +57532,10 @@
     <hyperlink ref="W472" r:id="rId3" display="https://data.mendeley.com/datasets/vch6n3pd8f/1"/>
     <hyperlink ref="F83" r:id="rId4"/>
     <hyperlink ref="F96" r:id="rId5"/>
+    <hyperlink ref="F140" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -58494,8 +58793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.75"/>

--- a/Lit review data/lit review master COMBINED.xlsx
+++ b/Lit review data/lit review master COMBINED.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15714" uniqueCount="2591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8249" uniqueCount="2603">
   <si>
     <t>Latin name</t>
   </si>
@@ -30860,15 +30860,58 @@
   </si>
   <si>
     <t>cjc flag - nice summary of WHO guidelines for intervention</t>
+  </si>
+  <si>
+    <t>cjc flag - not a primary source</t>
+  </si>
+  <si>
+    <t>cjc flag - not a primary source?</t>
+  </si>
+  <si>
+    <t>grey data, prevalence modelling, risk mapping</t>
+  </si>
+  <si>
+    <t>grey data, risk mapping</t>
+  </si>
+  <si>
+    <t>grey data, endemicity mapping, ecological niche modelling</t>
+  </si>
+  <si>
+    <t>cjc flag - this is an erratum</t>
+  </si>
+  <si>
+    <t>cjc flag - maybe drop</t>
+  </si>
+  <si>
+    <t>cjc flag - maybe misc</t>
+  </si>
+  <si>
+    <t>cjc flag - no actual mapping</t>
+  </si>
+  <si>
+    <t>cjc flag - no original</t>
+  </si>
+  <si>
+    <t>prevalence mapping, risk mapping, endemicity mapping</t>
+  </si>
+  <si>
+    <t>prevalence mapping, prevalence modelling, risk mapping, endemicity mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31104,95 +31147,101 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -31512,9 +31561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A481" zoomScale="93" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D176" sqref="D176"/>
+      <selection pane="topRight" activeCell="G494" sqref="G494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -41291,6 +41340,12 @@
       <c r="C177" s="25">
         <v>2011</v>
       </c>
+      <c r="D177" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E177" s="40" t="s">
+        <v>2151</v>
+      </c>
       <c r="F177" t="s">
         <v>1109</v>
       </c>
@@ -41370,6 +41425,9 @@
       <c r="C179" s="25">
         <v>2003</v>
       </c>
+      <c r="D179" s="38" t="s">
+        <v>2576</v>
+      </c>
       <c r="F179" t="s">
         <v>1108</v>
       </c>
@@ -41411,6 +41469,12 @@
       <c r="C180" s="25">
         <v>2017</v>
       </c>
+      <c r="D180" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E180" s="40" t="s">
+        <v>2151</v>
+      </c>
       <c r="F180" s="25" t="s">
         <v>940</v>
       </c>
@@ -41461,6 +41525,12 @@
       <c r="C181" s="25">
         <v>2017</v>
       </c>
+      <c r="D181" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E181" s="40" t="s">
+        <v>2151</v>
+      </c>
       <c r="F181" s="25" t="s">
         <v>943</v>
       </c>
@@ -41514,6 +41584,12 @@
       <c r="C182" s="25">
         <v>2003</v>
       </c>
+      <c r="D182" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E182" s="40" t="s">
+        <v>2571</v>
+      </c>
       <c r="F182" t="s">
         <v>964</v>
       </c>
@@ -41546,6 +41622,12 @@
       <c r="C183" s="25">
         <v>2015</v>
       </c>
+      <c r="D183" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E183" s="40" t="s">
+        <v>2571</v>
+      </c>
       <c r="F183" t="s">
         <v>965</v>
       </c>
@@ -41593,6 +41675,12 @@
       <c r="C184" s="25">
         <v>2010</v>
       </c>
+      <c r="D184" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E184" s="40" t="s">
+        <v>2571</v>
+      </c>
       <c r="F184" s="25" t="s">
         <v>91</v>
       </c>
@@ -41646,6 +41734,12 @@
       <c r="C185" s="25">
         <v>2009</v>
       </c>
+      <c r="D185" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E185" s="40" t="s">
+        <v>2151</v>
+      </c>
       <c r="F185" s="25" t="s">
         <v>99</v>
       </c>
@@ -41693,6 +41787,12 @@
       <c r="C186" s="25">
         <v>2013</v>
       </c>
+      <c r="D186" s="38" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E186" s="40" t="s">
+        <v>2166</v>
+      </c>
       <c r="F186" s="25" t="s">
         <v>138</v>
       </c>
@@ -41743,6 +41843,9 @@
       <c r="C187" s="25">
         <v>2013</v>
       </c>
+      <c r="D187" s="38" t="s">
+        <v>2591</v>
+      </c>
       <c r="F187" s="25" t="s">
         <v>150</v>
       </c>
@@ -41790,6 +41893,12 @@
       <c r="C188" s="25">
         <v>2017</v>
       </c>
+      <c r="D188" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E188" s="40" t="s">
+        <v>2568</v>
+      </c>
       <c r="F188" s="25" t="s">
         <v>146</v>
       </c>
@@ -41840,6 +41949,12 @@
       <c r="C189" s="25">
         <v>2014</v>
       </c>
+      <c r="D189" s="40" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E189" s="40" t="s">
+        <v>2194</v>
+      </c>
       <c r="F189" s="25" t="s">
         <v>155</v>
       </c>
@@ -41893,6 +42008,12 @@
       <c r="C190" s="25">
         <v>2002</v>
       </c>
+      <c r="D190" s="38" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E190" s="40" t="s">
+        <v>2166</v>
+      </c>
       <c r="F190" t="s">
         <v>160</v>
       </c>
@@ -41940,6 +42061,12 @@
       <c r="C191" s="25">
         <v>2016</v>
       </c>
+      <c r="D191" s="38" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E191" s="40" t="s">
+        <v>2166</v>
+      </c>
       <c r="F191" t="s">
         <v>174</v>
       </c>
@@ -41987,6 +42114,12 @@
       <c r="C192" s="25">
         <v>2013</v>
       </c>
+      <c r="D192" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E192" s="40" t="s">
+        <v>2151</v>
+      </c>
       <c r="F192" s="25" t="s">
         <v>199</v>
       </c>
@@ -42028,6 +42161,12 @@
       <c r="C193" s="25">
         <v>2015</v>
       </c>
+      <c r="D193" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E193" s="40" t="s">
+        <v>2593</v>
+      </c>
       <c r="F193" t="s">
         <v>1001</v>
       </c>
@@ -42075,6 +42214,12 @@
       <c r="C194" s="25">
         <v>2015</v>
       </c>
+      <c r="D194" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E194" s="40" t="s">
+        <v>2159</v>
+      </c>
       <c r="F194" t="s">
         <v>1003</v>
       </c>
@@ -42116,6 +42261,12 @@
       <c r="C195" s="25">
         <v>2015</v>
       </c>
+      <c r="D195" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E195" s="40" t="s">
+        <v>2594</v>
+      </c>
       <c r="F195" t="s">
         <v>1006</v>
       </c>
@@ -42163,6 +42314,12 @@
       <c r="C196" s="25">
         <v>2015</v>
       </c>
+      <c r="D196" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E196" s="40" t="s">
+        <v>2571</v>
+      </c>
       <c r="F196" t="s">
         <v>1008</v>
       </c>
@@ -42210,6 +42367,12 @@
       <c r="C197" s="25">
         <v>2011</v>
       </c>
+      <c r="D197" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E197" s="40" t="s">
+        <v>2594</v>
+      </c>
       <c r="F197" t="s">
         <v>1017</v>
       </c>
@@ -42251,6 +42414,12 @@
       <c r="C198" s="25">
         <v>2006</v>
       </c>
+      <c r="D198" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E198" s="40" t="s">
+        <v>2571</v>
+      </c>
       <c r="F198" s="25" t="s">
         <v>283</v>
       </c>
@@ -42304,6 +42473,12 @@
       <c r="C199" s="25">
         <v>2017</v>
       </c>
+      <c r="D199" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E199" s="40" t="s">
+        <v>2166</v>
+      </c>
       <c r="F199" s="25" t="s">
         <v>952</v>
       </c>
@@ -42354,6 +42529,12 @@
       <c r="C200" s="25">
         <v>2014</v>
       </c>
+      <c r="D200" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E200" s="40" t="s">
+        <v>2595</v>
+      </c>
       <c r="F200" s="25" t="s">
         <v>950</v>
       </c>
@@ -42401,6 +42582,9 @@
       <c r="C201" s="25">
         <v>2000</v>
       </c>
+      <c r="D201" s="38" t="s">
+        <v>2596</v>
+      </c>
       <c r="F201" t="s">
         <v>1027</v>
       </c>
@@ -42442,6 +42626,12 @@
       <c r="C202" s="25">
         <v>2011</v>
       </c>
+      <c r="D202" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E202" s="40" t="s">
+        <v>2571</v>
+      </c>
       <c r="F202" t="s">
         <v>364</v>
       </c>
@@ -42490,6 +42680,12 @@
       <c r="C203" s="25">
         <v>2012</v>
       </c>
+      <c r="D203" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E203" s="40" t="s">
+        <v>2571</v>
+      </c>
       <c r="F203" s="25" t="s">
         <v>348</v>
       </c>
@@ -42540,6 +42736,12 @@
       <c r="C204" s="25">
         <v>2018</v>
       </c>
+      <c r="D204" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E204" s="40" t="s">
+        <v>2166</v>
+      </c>
       <c r="F204" s="25" t="s">
         <v>359</v>
       </c>
@@ -42584,6 +42786,12 @@
       <c r="C205" s="25">
         <v>2018</v>
       </c>
+      <c r="D205" s="38" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E205" s="40" t="s">
+        <v>2166</v>
+      </c>
       <c r="F205" t="s">
         <v>361</v>
       </c>
@@ -42634,6 +42842,12 @@
       <c r="C206" s="25">
         <v>2014</v>
       </c>
+      <c r="D206" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E206" s="40" t="s">
+        <v>2151</v>
+      </c>
       <c r="F206" s="25" t="s">
         <v>371</v>
       </c>
@@ -42684,6 +42898,12 @@
       <c r="C207" s="25">
         <v>2015</v>
       </c>
+      <c r="D207" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E207" s="40" t="s">
+        <v>2152</v>
+      </c>
       <c r="F207" s="25" t="s">
         <v>379</v>
       </c>
@@ -42737,6 +42957,12 @@
       <c r="C208" s="25">
         <v>2013</v>
       </c>
+      <c r="D208" s="38" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E208" s="40" t="s">
+        <v>2166</v>
+      </c>
       <c r="F208" s="25" t="s">
         <v>352</v>
       </c>
@@ -42777,7 +43003,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="209" spans="1:24">
+    <row r="209" spans="1:24" ht="15.75">
       <c r="A209" s="24" t="s">
         <v>2548</v>
       </c>
@@ -42787,7 +43013,10 @@
       <c r="C209" s="25">
         <v>2017</v>
       </c>
-      <c r="F209" s="25" t="s">
+      <c r="D209" s="38" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F209" s="41" t="s">
         <v>356</v>
       </c>
       <c r="G209" s="25" t="s">
@@ -42837,6 +43066,12 @@
       <c r="C210" s="25">
         <v>2018</v>
       </c>
+      <c r="D210" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E210" s="40" t="s">
+        <v>2166</v>
+      </c>
       <c r="F210" t="s">
         <v>388</v>
       </c>
@@ -42884,6 +43119,12 @@
       <c r="C211" s="25">
         <v>2018</v>
       </c>
+      <c r="D211" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E211" s="40" t="s">
+        <v>2166</v>
+      </c>
       <c r="F211" t="s">
         <v>398</v>
       </c>
@@ -42928,6 +43169,12 @@
       <c r="C212" s="25">
         <v>2012</v>
       </c>
+      <c r="D212" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E212" s="40" t="s">
+        <v>2570</v>
+      </c>
       <c r="F212" s="25" t="s">
         <v>400</v>
       </c>
@@ -42987,6 +43234,12 @@
       <c r="C213" s="25">
         <v>2011</v>
       </c>
+      <c r="D213" s="38" t="s">
+        <v>2600</v>
+      </c>
+      <c r="E213" s="40" t="s">
+        <v>2166</v>
+      </c>
       <c r="F213" t="s">
         <v>408</v>
       </c>
@@ -43031,6 +43284,12 @@
       <c r="C214" s="25">
         <v>2011</v>
       </c>
+      <c r="D214" s="40" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E214" s="40" t="s">
+        <v>2166</v>
+      </c>
       <c r="F214" t="s">
         <v>461</v>
       </c>
@@ -43072,6 +43331,12 @@
       <c r="C215" s="25">
         <v>2014</v>
       </c>
+      <c r="D215" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E215" s="40" t="s">
+        <v>2601</v>
+      </c>
       <c r="F215" t="s">
         <v>414</v>
       </c>
@@ -43119,6 +43384,12 @@
       <c r="C216" s="25">
         <v>2014</v>
       </c>
+      <c r="D216" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E216" s="40" t="s">
+        <v>2571</v>
+      </c>
       <c r="F216" t="s">
         <v>453</v>
       </c>
@@ -43163,6 +43434,12 @@
       <c r="C217" s="25">
         <v>2015</v>
       </c>
+      <c r="D217" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E217" s="40" t="s">
+        <v>2151</v>
+      </c>
       <c r="F217" s="25" t="s">
         <v>420</v>
       </c>
@@ -43207,6 +43484,12 @@
       <c r="C218" s="25">
         <v>2016</v>
       </c>
+      <c r="D218" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E218" s="40" t="s">
+        <v>2602</v>
+      </c>
       <c r="F218" t="s">
         <v>426</v>
       </c>
@@ -43254,7 +43537,13 @@
       <c r="C219" s="25">
         <v>2006</v>
       </c>
-      <c r="F219" t="s">
+      <c r="D219" s="40" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E219" s="40" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F219" s="4" t="s">
         <v>406</v>
       </c>
       <c r="G219" s="25" t="s">
@@ -57533,9 +57822,11 @@
     <hyperlink ref="F83" r:id="rId4"/>
     <hyperlink ref="F96" r:id="rId5"/>
     <hyperlink ref="F140" r:id="rId6"/>
+    <hyperlink ref="F209" r:id="rId7"/>
+    <hyperlink ref="F219" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/Lit review data/lit review master COMBINED.xlsx
+++ b/Lit review data/lit review master COMBINED.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/Lit review data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjcar\Documents\GitHub\humanhelminths\Lit review data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4D905CA-3672-4645-95F4-CD27FDBC280F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="460" windowWidth="26640" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1523" yWindow="458" windowWidth="26640" windowHeight="16043"/>
   </bookViews>
   <sheets>
     <sheet name="Lit review" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8249" uniqueCount="2589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15659" uniqueCount="2611">
   <si>
     <t>Latin name</t>
   </si>
@@ -28567,15 +28566,88 @@
   </si>
   <si>
     <t>Wuchereria bancrofti, Onchocerca volvulus, Loa loa</t>
+  </si>
+  <si>
+    <t>prevalence mapping, grey data</t>
+  </si>
+  <si>
+    <t>cjc flag - no original (ish)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cjc flag - no original </t>
+  </si>
+  <si>
+    <t>cjc flag - this is relevant to syndemic mapping</t>
+  </si>
+  <si>
+    <t>prevalence mapping, prevalence modelling, risk mapping, cluster analysis</t>
+  </si>
+  <si>
+    <t>cjc flag - this is similar to ours but also not really original</t>
+  </si>
+  <si>
+    <t>cjc flag - vector, not parasite</t>
+  </si>
+  <si>
+    <t>grey data, ecological niche modeling</t>
+  </si>
+  <si>
+    <t>prevalence mapping, prevalence modelling, risk mapping, ecological niche modeling</t>
+  </si>
+  <si>
+    <t>endemicity mapping, prevalence modelling</t>
+  </si>
+  <si>
+    <t>Dracunculus medinensis, Onchocerciasis, Trachoma</t>
+  </si>
+  <si>
+    <t>endemicity mapping, prevalence mapping</t>
+  </si>
+  <si>
+    <t>grey data, prevalence mapping, prevalence modelling, cluster analysis</t>
+  </si>
+  <si>
+    <t>grey data, prevalence modelling, risk mapping, cluster analysis</t>
+  </si>
+  <si>
+    <t>risk mapping, ecological niche modeling</t>
+  </si>
+  <si>
+    <t>prevalence mapping, risk mapping, cluster analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalence mapping, prevalence modelling, </t>
+  </si>
+  <si>
+    <t>endemicity mapping, grey data</t>
+  </si>
+  <si>
+    <t>prevalence mapping, risk modelling</t>
+  </si>
+  <si>
+    <t>prevalence modelling, endemicity mapping</t>
+  </si>
+  <si>
+    <t>cjc flag - not relevant</t>
+  </si>
+  <si>
+    <t>miscellaneous?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="35">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28798,6 +28870,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -28818,98 +28906,107 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -29226,33 +29323,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X525"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="93" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A525" sqref="A525"/>
+      <selection pane="topRight" activeCell="D401" sqref="D401"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="38" style="38" customWidth="1"/>
     <col min="2" max="2" width="11" style="32"/>
     <col min="3" max="4" width="11" style="24"/>
-    <col min="5" max="5" width="44.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="44.6875" style="24" customWidth="1"/>
     <col min="6" max="6" width="11" style="24"/>
-    <col min="7" max="7" width="45.6640625" style="24" customWidth="1"/>
-    <col min="8" max="9" width="18.33203125" style="24" customWidth="1"/>
-    <col min="10" max="11" width="25.33203125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" style="24" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="45.6875" style="24" customWidth="1"/>
+    <col min="8" max="9" width="18.3125" style="24" customWidth="1"/>
+    <col min="10" max="11" width="25.3125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="28.3125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="7.3125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="5.8125" style="24" customWidth="1"/>
+    <col min="15" max="15" width="8.3125" style="24" customWidth="1"/>
     <col min="16" max="17" width="30" style="24" customWidth="1"/>
-    <col min="18" max="18" width="40.83203125" style="24" customWidth="1"/>
-    <col min="19" max="19" width="22.6640625" style="24" customWidth="1"/>
-    <col min="20" max="22" width="10.33203125" style="24" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="24" customWidth="1"/>
+    <col min="18" max="18" width="40.8125" style="24" customWidth="1"/>
+    <col min="19" max="19" width="22.6875" style="24" customWidth="1"/>
+    <col min="20" max="22" width="10.3125" style="24" customWidth="1"/>
+    <col min="23" max="23" width="26.6875" style="24" customWidth="1"/>
     <col min="24" max="24" width="33" style="24" customWidth="1"/>
     <col min="25" max="16384" width="11" style="24"/>
   </cols>
@@ -29331,7 +29428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16">
+    <row r="2" spans="1:24" ht="15.75">
       <c r="A2" s="38" t="s">
         <v>16</v>
       </c>
@@ -29390,7 +29487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16">
+    <row r="3" spans="1:24" ht="15.75">
       <c r="A3" s="38" t="s">
         <v>28</v>
       </c>
@@ -29440,7 +29537,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16">
+    <row r="4" spans="1:24" ht="15.75">
       <c r="A4" s="38" t="s">
         <v>28</v>
       </c>
@@ -29552,7 +29649,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16">
+    <row r="6" spans="1:24" ht="15.75">
       <c r="A6" s="38" t="s">
         <v>2559</v>
       </c>
@@ -29611,7 +29708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16">
+    <row r="7" spans="1:24" ht="15.75">
       <c r="A7" s="38" t="s">
         <v>958</v>
       </c>
@@ -29652,7 +29749,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16">
+    <row r="8" spans="1:24" ht="15.75">
       <c r="A8" s="38" t="s">
         <v>96</v>
       </c>
@@ -29717,7 +29814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16">
+    <row r="9" spans="1:24" ht="15.75">
       <c r="A9" s="38" t="s">
         <v>103</v>
       </c>
@@ -30044,7 +30141,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16">
+    <row r="15" spans="1:24" ht="15.75">
       <c r="A15" s="38" t="s">
         <v>176</v>
       </c>
@@ -30147,7 +30244,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16">
+    <row r="17" spans="1:24" ht="15.75">
       <c r="A17" s="38" t="s">
         <v>192</v>
       </c>
@@ -30315,7 +30412,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16">
+    <row r="20" spans="1:24" ht="15.75">
       <c r="A20" s="38" t="s">
         <v>192</v>
       </c>
@@ -30465,7 +30562,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16">
+    <row r="23" spans="1:24" ht="15.75">
       <c r="A23" s="38" t="s">
         <v>217</v>
       </c>
@@ -30577,7 +30674,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16">
+    <row r="25" spans="1:24" ht="15.75">
       <c r="A25" s="38" t="s">
         <v>231</v>
       </c>
@@ -30681,7 +30778,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16">
+    <row r="27" spans="1:24" ht="15.75">
       <c r="A27" s="38" t="s">
         <v>231</v>
       </c>
@@ -30737,7 +30834,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16">
+    <row r="28" spans="1:24" ht="15.75">
       <c r="A28" s="38" t="s">
         <v>231</v>
       </c>
@@ -30790,7 +30887,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16">
+    <row r="29" spans="1:24" ht="15.75">
       <c r="A29" s="38" t="s">
         <v>231</v>
       </c>
@@ -30846,7 +30943,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16">
+    <row r="30" spans="1:24" ht="15.75">
       <c r="A30" s="38" t="s">
         <v>231</v>
       </c>
@@ -30899,7 +30996,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16">
+    <row r="31" spans="1:24" ht="15.75">
       <c r="A31" s="38" t="s">
         <v>231</v>
       </c>
@@ -30937,7 +31034,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16">
+    <row r="32" spans="1:24" ht="15.75">
       <c r="A32" s="38" t="s">
         <v>231</v>
       </c>
@@ -30984,7 +31081,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16">
+    <row r="33" spans="1:24" ht="15.75">
       <c r="A33" s="38" t="s">
         <v>1018</v>
       </c>
@@ -31202,7 +31299,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16">
+    <row r="37" spans="1:24" ht="15.75">
       <c r="A37" s="38" t="s">
         <v>2560</v>
       </c>
@@ -31258,7 +31355,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16">
+    <row r="38" spans="1:24" ht="15.75">
       <c r="A38" s="38" t="s">
         <v>2560</v>
       </c>
@@ -31376,7 +31473,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16">
+    <row r="40" spans="1:24" ht="15.75">
       <c r="A40" s="38" t="s">
         <v>2573</v>
       </c>
@@ -31488,7 +31585,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16">
+    <row r="42" spans="1:24" ht="15.75">
       <c r="A42" s="38" t="s">
         <v>391</v>
       </c>
@@ -31544,7 +31641,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16">
+    <row r="43" spans="1:24" ht="15.75">
       <c r="A43" s="38" t="s">
         <v>1026</v>
       </c>
@@ -31633,7 +31730,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16">
+    <row r="45" spans="1:24" ht="15.75">
       <c r="A45" s="38" t="s">
         <v>403</v>
       </c>
@@ -31686,7 +31783,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16">
+    <row r="46" spans="1:24" ht="15.75">
       <c r="A46" s="38" t="s">
         <v>403</v>
       </c>
@@ -31742,7 +31839,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16">
+    <row r="47" spans="1:24" ht="15.75">
       <c r="A47" s="38" t="s">
         <v>403</v>
       </c>
@@ -31798,7 +31895,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16">
+    <row r="48" spans="1:24" ht="15.75">
       <c r="A48" s="38" t="s">
         <v>403</v>
       </c>
@@ -31910,7 +32007,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16">
+    <row r="50" spans="1:24" ht="15.75">
       <c r="A50" s="38" t="s">
         <v>403</v>
       </c>
@@ -32028,7 +32125,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16">
+    <row r="52" spans="1:24" ht="15.75">
       <c r="A52" s="38" t="s">
         <v>403</v>
       </c>
@@ -32084,7 +32181,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="16">
+    <row r="53" spans="1:24" ht="15.75">
       <c r="A53" s="38" t="s">
         <v>403</v>
       </c>
@@ -32205,7 +32302,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16">
+    <row r="55" spans="1:24" ht="15.75">
       <c r="A55" s="38" t="s">
         <v>463</v>
       </c>
@@ -32320,7 +32417,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16">
+    <row r="57" spans="1:24" ht="15.75">
       <c r="A57" s="38" t="s">
         <v>467</v>
       </c>
@@ -32370,7 +32467,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="16">
+    <row r="58" spans="1:24" ht="15.75">
       <c r="A58" s="38" t="s">
         <v>467</v>
       </c>
@@ -32541,7 +32638,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16">
+    <row r="61" spans="1:24" ht="15.75">
       <c r="A61" s="38" t="s">
         <v>484</v>
       </c>
@@ -32638,7 +32735,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="16">
+    <row r="63" spans="1:24" ht="15.75">
       <c r="A63" s="38" t="s">
         <v>484</v>
       </c>
@@ -32694,7 +32791,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="16">
+    <row r="64" spans="1:24" ht="15.75">
       <c r="A64" s="38" t="s">
         <v>484</v>
       </c>
@@ -32750,7 +32847,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16">
+    <row r="65" spans="1:24" ht="15.75">
       <c r="A65" s="38" t="s">
         <v>484</v>
       </c>
@@ -32806,7 +32903,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="16">
+    <row r="66" spans="1:24" ht="15.75">
       <c r="A66" s="38" t="s">
         <v>484</v>
       </c>
@@ -32862,7 +32959,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16">
+    <row r="67" spans="1:24" ht="15.75">
       <c r="A67" s="38" t="s">
         <v>484</v>
       </c>
@@ -32974,7 +33071,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16">
+    <row r="69" spans="1:24" ht="15.75">
       <c r="A69" s="38" t="s">
         <v>484</v>
       </c>
@@ -33030,7 +33127,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16">
+    <row r="70" spans="1:24" ht="15.75">
       <c r="A70" s="38" t="s">
         <v>484</v>
       </c>
@@ -33086,7 +33183,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16">
+    <row r="71" spans="1:24" ht="15.75">
       <c r="A71" s="38" t="s">
         <v>484</v>
       </c>
@@ -33142,7 +33239,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="16">
+    <row r="72" spans="1:24" ht="15.75">
       <c r="A72" s="38" t="s">
         <v>484</v>
       </c>
@@ -33198,7 +33295,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="16">
+    <row r="73" spans="1:24" ht="15.75">
       <c r="A73" s="38" t="s">
         <v>484</v>
       </c>
@@ -33257,7 +33354,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16">
+    <row r="74" spans="1:24" ht="15.75">
       <c r="A74" s="38" t="s">
         <v>484</v>
       </c>
@@ -33313,7 +33410,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="16">
+    <row r="75" spans="1:24" ht="15.75">
       <c r="A75" s="38" t="s">
         <v>484</v>
       </c>
@@ -33369,7 +33466,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="16">
+    <row r="76" spans="1:24" ht="15.75">
       <c r="A76" s="38" t="s">
         <v>484</v>
       </c>
@@ -33413,7 +33510,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16">
+    <row r="77" spans="1:24" ht="15.75">
       <c r="A77" s="38" t="s">
         <v>484</v>
       </c>
@@ -33457,7 +33554,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16">
+    <row r="78" spans="1:24" ht="15.75">
       <c r="A78" s="38" t="s">
         <v>2546</v>
       </c>
@@ -33569,7 +33666,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16">
+    <row r="80" spans="1:24" ht="15.75">
       <c r="A80" s="38" t="s">
         <v>561</v>
       </c>
@@ -33625,7 +33722,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16">
+    <row r="81" spans="1:24" ht="15.75">
       <c r="A81" s="38" t="s">
         <v>561</v>
       </c>
@@ -33681,7 +33778,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16">
+    <row r="82" spans="1:24" ht="15.75">
       <c r="A82" s="38" t="s">
         <v>561</v>
       </c>
@@ -33737,7 +33834,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16">
+    <row r="83" spans="1:24" ht="15.75">
       <c r="A83" s="38" t="s">
         <v>561</v>
       </c>
@@ -33793,7 +33890,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16">
+    <row r="84" spans="1:24" ht="15.75">
       <c r="A84" s="38" t="s">
         <v>561</v>
       </c>
@@ -33852,7 +33949,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16">
+    <row r="85" spans="1:24" ht="15.75">
       <c r="A85" s="38" t="s">
         <v>561</v>
       </c>
@@ -33908,7 +34005,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="16">
+    <row r="86" spans="1:24" ht="15.75">
       <c r="A86" s="38" t="s">
         <v>561</v>
       </c>
@@ -33961,7 +34058,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16">
+    <row r="87" spans="1:24" ht="15.75">
       <c r="A87" s="38" t="s">
         <v>561</v>
       </c>
@@ -34014,7 +34111,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="16">
+    <row r="88" spans="1:24" ht="15.75">
       <c r="A88" s="38" t="s">
         <v>561</v>
       </c>
@@ -34067,7 +34164,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="16">
+    <row r="89" spans="1:24" ht="15.75">
       <c r="A89" s="38" t="s">
         <v>561</v>
       </c>
@@ -34117,7 +34214,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="16">
+    <row r="90" spans="1:24" ht="15.75">
       <c r="A90" s="38" t="s">
         <v>561</v>
       </c>
@@ -34170,7 +34267,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="16">
+    <row r="91" spans="1:24" ht="15.75">
       <c r="A91" s="38" t="s">
         <v>561</v>
       </c>
@@ -34223,7 +34320,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16">
+    <row r="92" spans="1:24" ht="15.75">
       <c r="A92" s="38" t="s">
         <v>561</v>
       </c>
@@ -34276,7 +34373,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="16">
+    <row r="93" spans="1:24" ht="15.75">
       <c r="A93" s="38" t="s">
         <v>561</v>
       </c>
@@ -34332,7 +34429,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16">
+    <row r="94" spans="1:24" ht="15.75">
       <c r="A94" s="38" t="s">
         <v>2562</v>
       </c>
@@ -34388,7 +34485,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16">
+    <row r="95" spans="1:24" ht="15.75">
       <c r="A95" s="38" t="s">
         <v>613</v>
       </c>
@@ -34444,7 +34541,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16">
+    <row r="96" spans="1:24" ht="15.75">
       <c r="A96" s="38" t="s">
         <v>613</v>
       </c>
@@ -34509,7 +34606,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16">
+    <row r="97" spans="1:24" ht="15.75">
       <c r="A97" s="38" t="s">
         <v>613</v>
       </c>
@@ -34565,7 +34662,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16">
+    <row r="98" spans="1:24" ht="15.75">
       <c r="A98" s="38" t="s">
         <v>613</v>
       </c>
@@ -34621,7 +34718,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16">
+    <row r="99" spans="1:24" ht="15.75">
       <c r="A99" s="38" t="s">
         <v>613</v>
       </c>
@@ -34674,7 +34771,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="16">
+    <row r="100" spans="1:24" ht="15.75">
       <c r="A100" s="38" t="s">
         <v>613</v>
       </c>
@@ -34730,7 +34827,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="16">
+    <row r="101" spans="1:24" ht="15.75">
       <c r="A101" s="38" t="s">
         <v>613</v>
       </c>
@@ -34786,7 +34883,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16">
+    <row r="102" spans="1:24" ht="15.75">
       <c r="A102" s="38" t="s">
         <v>613</v>
       </c>
@@ -34842,7 +34939,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="16">
+    <row r="103" spans="1:24" ht="15.75">
       <c r="A103" s="38" t="s">
         <v>613</v>
       </c>
@@ -34898,7 +34995,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16">
+    <row r="104" spans="1:24" ht="15.75">
       <c r="A104" s="38" t="s">
         <v>613</v>
       </c>
@@ -34954,7 +35051,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="16">
+    <row r="105" spans="1:24" ht="15.75">
       <c r="A105" s="38" t="s">
         <v>613</v>
       </c>
@@ -35010,7 +35107,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="16">
+    <row r="106" spans="1:24" ht="15.75">
       <c r="A106" s="38" t="s">
         <v>613</v>
       </c>
@@ -35069,7 +35166,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="16">
+    <row r="107" spans="1:24" ht="15.75">
       <c r="A107" s="38" t="s">
         <v>613</v>
       </c>
@@ -35125,7 +35222,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="16">
+    <row r="108" spans="1:24" ht="15.75">
       <c r="A108" s="38" t="s">
         <v>613</v>
       </c>
@@ -35175,7 +35272,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="16">
+    <row r="109" spans="1:24" ht="15.75">
       <c r="A109" s="38" t="s">
         <v>613</v>
       </c>
@@ -35343,7 +35440,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16">
+    <row r="112" spans="1:24" ht="15.75">
       <c r="A112" s="38" t="s">
         <v>613</v>
       </c>
@@ -35402,7 +35499,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="16">
+    <row r="113" spans="1:24" ht="15.75">
       <c r="A113" s="38" t="s">
         <v>613</v>
       </c>
@@ -35455,7 +35552,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16">
+    <row r="114" spans="1:24" ht="15.75">
       <c r="A114" s="38" t="s">
         <v>613</v>
       </c>
@@ -35511,7 +35608,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="16">
+    <row r="115" spans="1:24" ht="15.75">
       <c r="A115" s="38" t="s">
         <v>613</v>
       </c>
@@ -35564,7 +35661,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="16">
+    <row r="116" spans="1:24" ht="15.75">
       <c r="A116" s="38" t="s">
         <v>613</v>
       </c>
@@ -35623,7 +35720,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="16">
+    <row r="117" spans="1:24" ht="15.75">
       <c r="A117" s="38" t="s">
         <v>613</v>
       </c>
@@ -35679,7 +35776,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="16">
+    <row r="118" spans="1:24" ht="15.75">
       <c r="A118" s="38" t="s">
         <v>613</v>
       </c>
@@ -35717,7 +35814,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="16">
+    <row r="119" spans="1:24" ht="15.75">
       <c r="A119" s="38" t="s">
         <v>613</v>
       </c>
@@ -35764,7 +35861,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="16">
+    <row r="120" spans="1:24" ht="15.75">
       <c r="A120" s="38" t="s">
         <v>613</v>
       </c>
@@ -35808,7 +35905,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16">
+    <row r="121" spans="1:24" ht="15.75">
       <c r="A121" s="38" t="s">
         <v>2547</v>
       </c>
@@ -35864,7 +35961,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16">
+    <row r="122" spans="1:24" ht="15.75">
       <c r="A122" s="38" t="s">
         <v>2547</v>
       </c>
@@ -35923,7 +36020,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="16">
+    <row r="123" spans="1:24" ht="15.75">
       <c r="A123" s="38" t="s">
         <v>2547</v>
       </c>
@@ -35988,7 +36085,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="16">
+    <row r="124" spans="1:24" ht="15.75">
       <c r="A124" s="38" t="s">
         <v>2547</v>
       </c>
@@ -36047,7 +36144,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="16">
+    <row r="125" spans="1:24" ht="15.75">
       <c r="A125" s="38" t="s">
         <v>2547</v>
       </c>
@@ -36106,7 +36203,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="16">
+    <row r="126" spans="1:24" ht="15.75">
       <c r="A126" s="38" t="s">
         <v>2547</v>
       </c>
@@ -36218,7 +36315,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="16">
+    <row r="128" spans="1:24" ht="15.75">
       <c r="A128" s="38" t="s">
         <v>2563</v>
       </c>
@@ -36321,7 +36418,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="16">
+    <row r="130" spans="1:24" ht="15.75">
       <c r="A130" s="38" t="s">
         <v>2551</v>
       </c>
@@ -36386,7 +36483,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="16">
+    <row r="131" spans="1:24" ht="15.75">
       <c r="A131" s="38" t="s">
         <v>2551</v>
       </c>
@@ -36684,7 +36781,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="16">
+    <row r="136" spans="1:24" ht="15.75">
       <c r="A136" s="38" t="s">
         <v>2526</v>
       </c>
@@ -36740,7 +36837,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="16">
+    <row r="137" spans="1:24" ht="15.75">
       <c r="A137" s="38" t="s">
         <v>2526</v>
       </c>
@@ -36793,7 +36890,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="16">
+    <row r="138" spans="1:24" ht="15.75">
       <c r="A138" s="38" t="s">
         <v>2527</v>
       </c>
@@ -36911,7 +37008,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="16">
+    <row r="140" spans="1:24" ht="15.75">
       <c r="A140" s="38" t="s">
         <v>2537</v>
       </c>
@@ -37542,7 +37639,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="16">
+    <row r="151" spans="1:24" ht="15.75">
       <c r="A151" s="38" t="s">
         <v>2574</v>
       </c>
@@ -37719,7 +37816,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="16">
+    <row r="154" spans="1:24" ht="15.75">
       <c r="A154" s="38" t="s">
         <v>862</v>
       </c>
@@ -37772,7 +37869,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="16">
+    <row r="155" spans="1:24" ht="15.75">
       <c r="A155" s="38" t="s">
         <v>862</v>
       </c>
@@ -37828,7 +37925,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="16">
+    <row r="156" spans="1:24" ht="15.75">
       <c r="A156" s="38" t="s">
         <v>862</v>
       </c>
@@ -37887,7 +37984,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="16">
+    <row r="157" spans="1:24" ht="15.75">
       <c r="A157" s="38" t="s">
         <v>862</v>
       </c>
@@ -37946,7 +38043,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="16">
+    <row r="158" spans="1:24" ht="15.75">
       <c r="A158" s="38" t="s">
         <v>862</v>
       </c>
@@ -38005,7 +38102,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="16">
+    <row r="159" spans="1:24" ht="15.75">
       <c r="A159" s="38" t="s">
         <v>862</v>
       </c>
@@ -38176,7 +38273,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="16">
+    <row r="162" spans="1:24" ht="15.75">
       <c r="A162" s="38" t="s">
         <v>862</v>
       </c>
@@ -38232,7 +38329,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="16">
+    <row r="163" spans="1:24" ht="15.75">
       <c r="A163" s="38" t="s">
         <v>862</v>
       </c>
@@ -38288,7 +38385,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="16">
+    <row r="164" spans="1:24" ht="15.75">
       <c r="A164" s="38" t="s">
         <v>862</v>
       </c>
@@ -38400,7 +38497,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="16">
+    <row r="166" spans="1:24" ht="15.75">
       <c r="A166" s="38" t="s">
         <v>862</v>
       </c>
@@ -38459,7 +38556,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="16">
+    <row r="167" spans="1:24" ht="15.75">
       <c r="A167" s="38" t="s">
         <v>862</v>
       </c>
@@ -38568,7 +38665,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="16">
+    <row r="169" spans="1:24" ht="15.75">
       <c r="A169" s="38" t="s">
         <v>862</v>
       </c>
@@ -38683,7 +38780,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="16">
+    <row r="171" spans="1:24" ht="15.75">
       <c r="A171" s="38" t="s">
         <v>862</v>
       </c>
@@ -38742,7 +38839,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="16">
+    <row r="172" spans="1:24" ht="15.75">
       <c r="A172" s="38" t="s">
         <v>862</v>
       </c>
@@ -38795,7 +38892,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="16">
+    <row r="173" spans="1:24" ht="15.75">
       <c r="A173" s="38" t="s">
         <v>862</v>
       </c>
@@ -38854,7 +38951,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="16">
+    <row r="174" spans="1:24" ht="15.75">
       <c r="A174" s="38" t="s">
         <v>862</v>
       </c>
@@ -38907,7 +39004,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="16">
+    <row r="175" spans="1:24" ht="15.75">
       <c r="A175" s="38" t="s">
         <v>862</v>
       </c>
@@ -38963,7 +39060,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="16">
+    <row r="176" spans="1:24" ht="15.75">
       <c r="A176" s="38" t="s">
         <v>862</v>
       </c>
@@ -39001,7 +39098,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="16">
+    <row r="177" spans="1:24" ht="15.75">
       <c r="A177" s="38" t="s">
         <v>862</v>
       </c>
@@ -39045,7 +39142,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="16">
+    <row r="178" spans="1:24" ht="15.75">
       <c r="A178" s="38" t="s">
         <v>862</v>
       </c>
@@ -39086,7 +39183,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="16">
+    <row r="179" spans="1:24" ht="15.75">
       <c r="A179" s="38" t="s">
         <v>862</v>
       </c>
@@ -39245,7 +39342,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="16">
+    <row r="182" spans="1:24" ht="15.75">
       <c r="A182" s="38" t="s">
         <v>958</v>
       </c>
@@ -39283,7 +39380,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="16">
+    <row r="183" spans="1:24" ht="15.75">
       <c r="A183" s="38" t="s">
         <v>2565</v>
       </c>
@@ -39666,7 +39763,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="16">
+    <row r="190" spans="1:24" ht="15.75">
       <c r="A190" s="38" t="s">
         <v>158</v>
       </c>
@@ -39719,7 +39816,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="16">
+    <row r="191" spans="1:24" ht="15.75">
       <c r="A191" s="38" t="s">
         <v>158</v>
       </c>
@@ -39822,7 +39919,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="16">
+    <row r="193" spans="1:24" ht="15.75">
       <c r="A193" s="38" t="s">
         <v>231</v>
       </c>
@@ -39875,7 +39972,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="16">
+    <row r="194" spans="1:24" ht="15.75">
       <c r="A194" s="38" t="s">
         <v>231</v>
       </c>
@@ -39922,7 +40019,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="16">
+    <row r="195" spans="1:24" ht="15.75">
       <c r="A195" s="38" t="s">
         <v>231</v>
       </c>
@@ -39975,7 +40072,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="16">
+    <row r="196" spans="1:24" ht="15.75">
       <c r="A196" s="38" t="s">
         <v>231</v>
       </c>
@@ -40028,7 +40125,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="16">
+    <row r="197" spans="1:24" ht="15.75">
       <c r="A197" s="38" t="s">
         <v>231</v>
       </c>
@@ -40243,7 +40340,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="16">
+    <row r="201" spans="1:24" ht="15.75">
       <c r="A201" s="38" t="s">
         <v>343</v>
       </c>
@@ -40284,7 +40381,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="16">
+    <row r="202" spans="1:24" ht="15.75">
       <c r="A202" s="38" t="s">
         <v>343</v>
       </c>
@@ -40444,7 +40541,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="16">
+    <row r="205" spans="1:24" ht="15.75">
       <c r="A205" s="38" t="s">
         <v>343</v>
       </c>
@@ -40671,7 +40768,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="16">
+    <row r="209" spans="1:24" ht="15.75">
       <c r="A209" s="38" t="s">
         <v>2577</v>
       </c>
@@ -40724,7 +40821,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="16">
+    <row r="210" spans="1:24" ht="15.75">
       <c r="A210" s="38" t="s">
         <v>1382</v>
       </c>
@@ -40777,7 +40874,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="16">
+    <row r="211" spans="1:24" ht="15.75">
       <c r="A211" s="38" t="s">
         <v>2578</v>
       </c>
@@ -40892,7 +40989,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="16">
+    <row r="213" spans="1:24" ht="15.75">
       <c r="A213" s="38" t="s">
         <v>403</v>
       </c>
@@ -40942,7 +41039,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="16">
+    <row r="214" spans="1:24" ht="15.75">
       <c r="A214" s="38" t="s">
         <v>403</v>
       </c>
@@ -40989,7 +41086,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="16">
+    <row r="215" spans="1:24" ht="15.75">
       <c r="A215" s="38" t="s">
         <v>403</v>
       </c>
@@ -41042,7 +41139,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="16">
+    <row r="216" spans="1:24" ht="15.75">
       <c r="A216" s="38" t="s">
         <v>403</v>
       </c>
@@ -41142,7 +41239,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="16">
+    <row r="218" spans="1:24" ht="15.75">
       <c r="A218" s="38" t="s">
         <v>403</v>
       </c>
@@ -41195,7 +41292,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="16">
+    <row r="219" spans="1:24" ht="15.75">
       <c r="A219" s="38" t="s">
         <v>403</v>
       </c>
@@ -41242,7 +41339,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="16">
+    <row r="220" spans="1:24" ht="15.75">
       <c r="A220" s="38" t="s">
         <v>403</v>
       </c>
@@ -41252,6 +41349,12 @@
       <c r="C220" s="24">
         <v>2018</v>
       </c>
+      <c r="D220" s="36" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E220" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F220" t="s">
         <v>438</v>
       </c>
@@ -41289,7 +41392,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="16">
+    <row r="221" spans="1:24" ht="15.75">
       <c r="A221" s="38" t="s">
         <v>403</v>
       </c>
@@ -41298,6 +41401,12 @@
       </c>
       <c r="C221" s="24">
         <v>2018</v>
+      </c>
+      <c r="D221" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E221" s="41" t="s">
+        <v>2589</v>
       </c>
       <c r="F221" t="s">
         <v>440</v>
@@ -41343,6 +41452,12 @@
       <c r="C222" s="24">
         <v>2017</v>
       </c>
+      <c r="D222" s="36" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E222" s="41" t="s">
+        <v>2492</v>
+      </c>
       <c r="F222" s="24" t="s">
         <v>475</v>
       </c>
@@ -41377,7 +41492,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="16">
+    <row r="223" spans="1:24" ht="15.75">
       <c r="A223" s="38" t="s">
         <v>484</v>
       </c>
@@ -41387,6 +41502,12 @@
       <c r="C223" s="24">
         <v>2009</v>
       </c>
+      <c r="D223" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E223" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F223" t="s">
         <v>501</v>
       </c>
@@ -41427,7 +41548,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="16">
+    <row r="224" spans="1:24" ht="15.75">
       <c r="A224" s="38" t="s">
         <v>484</v>
       </c>
@@ -41437,7 +41558,13 @@
       <c r="C224" s="24">
         <v>2002</v>
       </c>
-      <c r="F224" t="s">
+      <c r="D224" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E224" s="41" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F224" s="4" t="s">
         <v>540</v>
       </c>
       <c r="G224" s="24" t="s">
@@ -41474,7 +41601,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="16">
+    <row r="225" spans="1:24" ht="15.75">
       <c r="A225" s="38" t="s">
         <v>484</v>
       </c>
@@ -41484,6 +41611,12 @@
       <c r="C225" s="24">
         <v>2008</v>
       </c>
+      <c r="D225" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E225" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F225" t="s">
         <v>533</v>
       </c>
@@ -41524,7 +41657,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="16">
+    <row r="226" spans="1:24" ht="15.75">
       <c r="A226" s="38" t="s">
         <v>484</v>
       </c>
@@ -41534,6 +41667,12 @@
       <c r="C226" s="24">
         <v>2011</v>
       </c>
+      <c r="D226" s="36" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E226" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F226" t="s">
         <v>526</v>
       </c>
@@ -41571,7 +41710,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="16">
+    <row r="227" spans="1:24" ht="15.75">
       <c r="A227" s="38" t="s">
         <v>610</v>
       </c>
@@ -41581,6 +41720,12 @@
       <c r="C227" s="24">
         <v>2019</v>
       </c>
+      <c r="D227" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E227" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F227" t="s">
         <v>611</v>
       </c>
@@ -41615,7 +41760,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="16">
+    <row r="228" spans="1:24" ht="15.75">
       <c r="A228" s="38" t="s">
         <v>613</v>
       </c>
@@ -41625,6 +41770,12 @@
       <c r="C228" s="24">
         <v>2006</v>
       </c>
+      <c r="D228" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E228" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F228" t="s">
         <v>614</v>
       </c>
@@ -41668,7 +41819,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="16">
+    <row r="229" spans="1:24" ht="15.75">
       <c r="A229" s="38" t="s">
         <v>613</v>
       </c>
@@ -41678,6 +41829,12 @@
       <c r="C229" s="24">
         <v>2007</v>
       </c>
+      <c r="D229" s="36" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E229" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F229" t="s">
         <v>650</v>
       </c>
@@ -41712,7 +41869,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="16">
+    <row r="230" spans="1:24" ht="15.75">
       <c r="A230" s="38" t="s">
         <v>613</v>
       </c>
@@ -41722,6 +41879,12 @@
       <c r="C230" s="24">
         <v>2015</v>
       </c>
+      <c r="D230" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E230" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F230" t="s">
         <v>647</v>
       </c>
@@ -41756,7 +41919,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="16">
+    <row r="231" spans="1:24" ht="15.75">
       <c r="A231" s="38" t="s">
         <v>613</v>
       </c>
@@ -41765,6 +41928,12 @@
       </c>
       <c r="C231" s="24">
         <v>2016</v>
+      </c>
+      <c r="D231" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E231" s="41" t="s">
+        <v>2074</v>
       </c>
       <c r="F231" t="s">
         <v>645</v>
@@ -41817,6 +41986,12 @@
       <c r="C232" s="24">
         <v>2009</v>
       </c>
+      <c r="D232" s="42" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E232" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F232" s="24" t="s">
         <v>677</v>
       </c>
@@ -41873,6 +42048,12 @@
       <c r="C233" s="24">
         <v>2015</v>
       </c>
+      <c r="D233" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E233" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F233" s="24" t="s">
         <v>709</v>
       </c>
@@ -41913,7 +42094,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="16">
+    <row r="234" spans="1:24" ht="15.75">
       <c r="A234" s="38" t="s">
         <v>2547</v>
       </c>
@@ -41923,6 +42104,9 @@
       <c r="C234" s="24">
         <v>2011</v>
       </c>
+      <c r="D234" s="36" t="s">
+        <v>2591</v>
+      </c>
       <c r="F234" t="s">
         <v>691</v>
       </c>
@@ -41963,7 +42147,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="16">
+    <row r="235" spans="1:24" ht="15.75">
       <c r="A235" s="38" t="s">
         <v>2547</v>
       </c>
@@ -41972,6 +42156,12 @@
       </c>
       <c r="C235" s="24">
         <v>2018</v>
+      </c>
+      <c r="D235" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E235" s="41" t="s">
+        <v>2593</v>
       </c>
       <c r="F235" t="s">
         <v>685</v>
@@ -42026,6 +42216,12 @@
       <c r="C236" s="24">
         <v>2011</v>
       </c>
+      <c r="D236" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E236" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F236" s="24" t="s">
         <v>707</v>
       </c>
@@ -42066,7 +42262,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="16">
+    <row r="237" spans="1:24" ht="15.75">
       <c r="A237" s="38" t="s">
         <v>2547</v>
       </c>
@@ -42076,6 +42272,12 @@
       <c r="C237" s="24">
         <v>2011</v>
       </c>
+      <c r="D237" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E237" s="41" t="s">
+        <v>2492</v>
+      </c>
       <c r="F237" t="s">
         <v>693</v>
       </c>
@@ -42110,12 +42312,18 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="16">
+    <row r="238" spans="1:24" ht="15.75">
       <c r="A238" s="38" t="s">
         <v>2547</v>
       </c>
       <c r="C238" s="24">
         <v>2013</v>
+      </c>
+      <c r="D238" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E238" s="41" t="s">
+        <v>2493</v>
       </c>
       <c r="F238" t="s">
         <v>1082</v>
@@ -42158,6 +42366,12 @@
       <c r="C239" s="24">
         <v>2011</v>
       </c>
+      <c r="D239" s="43" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E239" s="41" t="s">
+        <v>2524</v>
+      </c>
       <c r="F239" s="24" t="s">
         <v>714</v>
       </c>
@@ -42195,7 +42409,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="16">
+    <row r="240" spans="1:24" ht="15.75">
       <c r="A240" s="38" t="s">
         <v>1403</v>
       </c>
@@ -42205,6 +42419,12 @@
       <c r="C240" s="24">
         <v>2011</v>
       </c>
+      <c r="D240" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E240" s="41" t="s">
+        <v>2503</v>
+      </c>
       <c r="F240" t="s">
         <v>716</v>
       </c>
@@ -42239,7 +42459,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="16">
+    <row r="241" spans="1:24" ht="15.75">
       <c r="A241" s="38" t="s">
         <v>725</v>
       </c>
@@ -42249,6 +42469,9 @@
       <c r="C241" s="24">
         <v>2018</v>
       </c>
+      <c r="D241" s="36" t="s">
+        <v>2591</v>
+      </c>
       <c r="F241" t="s">
         <v>728</v>
       </c>
@@ -42283,7 +42506,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="16">
+    <row r="242" spans="1:24" ht="15.75">
       <c r="A242" s="38" t="s">
         <v>2526</v>
       </c>
@@ -42293,6 +42516,12 @@
       <c r="C242" s="24">
         <v>2018</v>
       </c>
+      <c r="D242" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E242" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F242" t="s">
         <v>746</v>
       </c>
@@ -42330,7 +42559,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="16">
+    <row r="243" spans="1:24" ht="15.75">
       <c r="A243" s="38" t="s">
         <v>2526</v>
       </c>
@@ -42339,6 +42568,12 @@
       </c>
       <c r="C243" s="24">
         <v>2012</v>
+      </c>
+      <c r="D243" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E243" s="41" t="s">
+        <v>2089</v>
       </c>
       <c r="F243" t="s">
         <v>759</v>
@@ -42384,6 +42619,12 @@
       <c r="C244" s="24">
         <v>2009</v>
       </c>
+      <c r="D244" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E244" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F244" s="24" t="s">
         <v>765</v>
       </c>
@@ -42427,7 +42668,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="16">
+    <row r="245" spans="1:24" ht="15.75">
       <c r="A245" s="38" t="s">
         <v>2529</v>
       </c>
@@ -42437,6 +42678,9 @@
       <c r="C245" s="24">
         <v>2009</v>
       </c>
+      <c r="D245" s="36" t="s">
+        <v>2522</v>
+      </c>
       <c r="F245" t="s">
         <v>768</v>
       </c>
@@ -42474,7 +42718,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="246" spans="1:24">
+    <row r="246" spans="1:24" ht="15.75">
       <c r="A246" s="38" t="s">
         <v>2537</v>
       </c>
@@ -42484,7 +42728,13 @@
       <c r="C246" s="24">
         <v>2013</v>
       </c>
-      <c r="F246" s="24" t="s">
+      <c r="D246" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E246" s="41" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F246" s="39" t="s">
         <v>781</v>
       </c>
       <c r="G246" s="24" t="s">
@@ -42537,6 +42787,12 @@
       <c r="C247" s="24">
         <v>2011</v>
       </c>
+      <c r="D247" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E247" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F247" s="24" t="s">
         <v>797</v>
       </c>
@@ -42587,6 +42843,9 @@
       <c r="C248" s="24">
         <v>2012</v>
       </c>
+      <c r="D248" s="36" t="s">
+        <v>2522</v>
+      </c>
       <c r="F248" s="24" t="s">
         <v>800</v>
       </c>
@@ -42639,6 +42898,12 @@
       </c>
       <c r="C249" s="24">
         <v>2014</v>
+      </c>
+      <c r="D249" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E249" s="41" t="s">
+        <v>2089</v>
       </c>
       <c r="F249" s="24" t="s">
         <v>805</v>
@@ -42676,7 +42941,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="16">
+    <row r="250" spans="1:24" ht="15.75">
       <c r="A250" s="38" t="s">
         <v>2552</v>
       </c>
@@ -42685,6 +42950,12 @@
       </c>
       <c r="C250" s="24">
         <v>2018</v>
+      </c>
+      <c r="D250" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E250" s="41" t="s">
+        <v>2089</v>
       </c>
       <c r="F250" t="s">
         <v>806</v>
@@ -42739,6 +43010,12 @@
       <c r="C251" s="24">
         <v>2018</v>
       </c>
+      <c r="D251" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E251" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F251" s="24" t="s">
         <v>816</v>
       </c>
@@ -42789,6 +43066,12 @@
       <c r="C252" s="24">
         <v>2015</v>
       </c>
+      <c r="D252" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E252" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F252" s="24" t="s">
         <v>830</v>
       </c>
@@ -42836,6 +43119,12 @@
       <c r="C253" s="24">
         <v>2017</v>
       </c>
+      <c r="D253" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E253" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F253" s="24" t="s">
         <v>841</v>
       </c>
@@ -42873,13 +43162,19 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="16">
+    <row r="254" spans="1:24" ht="15.75">
       <c r="A254" s="38" t="s">
         <v>1091</v>
       </c>
       <c r="C254" s="24">
         <v>2006</v>
       </c>
+      <c r="D254" s="36" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E254" s="41" t="s">
+        <v>2088</v>
+      </c>
       <c r="F254" t="s">
         <v>1092</v>
       </c>
@@ -42911,7 +43206,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="16">
+    <row r="255" spans="1:24" ht="15.75">
       <c r="A255" s="38" t="s">
         <v>2580</v>
       </c>
@@ -42921,6 +43216,12 @@
       <c r="C255" s="24">
         <v>2013</v>
       </c>
+      <c r="D255" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E255" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F255" t="s">
         <v>138</v>
       </c>
@@ -42958,13 +43259,19 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="16">
+    <row r="256" spans="1:24" ht="15.75">
       <c r="A256" s="38" t="s">
         <v>862</v>
       </c>
       <c r="C256" s="24">
         <v>2000</v>
       </c>
+      <c r="D256" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E256" s="41" t="s">
+        <v>2082</v>
+      </c>
       <c r="F256" t="s">
         <v>1113</v>
       </c>
@@ -42999,7 +43306,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="16">
+    <row r="257" spans="1:24" ht="15.75">
       <c r="A257" s="38" t="s">
         <v>862</v>
       </c>
@@ -43009,6 +43316,12 @@
       <c r="C257" s="24">
         <v>2012</v>
       </c>
+      <c r="D257" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E257" s="41" t="s">
+        <v>2596</v>
+      </c>
       <c r="F257" t="s">
         <v>924</v>
       </c>
@@ -43043,7 +43356,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="16">
+    <row r="258" spans="1:24" ht="15.75">
       <c r="A258" s="38" t="s">
         <v>862</v>
       </c>
@@ -43053,6 +43366,12 @@
       <c r="C258" s="24">
         <v>2013</v>
       </c>
+      <c r="D258" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E258" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F258" t="s">
         <v>916</v>
       </c>
@@ -43087,7 +43406,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="16">
+    <row r="259" spans="1:24" ht="15.75">
       <c r="A259" s="38" t="s">
         <v>862</v>
       </c>
@@ -43097,6 +43416,12 @@
       <c r="C259" s="24">
         <v>2015</v>
       </c>
+      <c r="D259" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E259" s="41" t="s">
+        <v>2597</v>
+      </c>
       <c r="F259" t="s">
         <v>877</v>
       </c>
@@ -43137,7 +43462,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="16">
+    <row r="260" spans="1:24" ht="15.75">
       <c r="A260" s="38" t="s">
         <v>862</v>
       </c>
@@ -43147,6 +43472,12 @@
       <c r="C260" s="24">
         <v>2017</v>
       </c>
+      <c r="D260" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E260" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F260" t="s">
         <v>326</v>
       </c>
@@ -43187,7 +43518,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="16">
+    <row r="261" spans="1:24" ht="15.75">
       <c r="A261" s="38" t="s">
         <v>862</v>
       </c>
@@ -43197,6 +43528,12 @@
       <c r="C261" s="24">
         <v>2017</v>
       </c>
+      <c r="D261" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E261" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F261" t="s">
         <v>903</v>
       </c>
@@ -43228,7 +43565,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="16">
+    <row r="262" spans="1:24" ht="15.75">
       <c r="A262" s="38" t="s">
         <v>862</v>
       </c>
@@ -43238,6 +43575,12 @@
       <c r="C262" s="24">
         <v>2017</v>
       </c>
+      <c r="D262" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E262" s="41" t="s">
+        <v>2598</v>
+      </c>
       <c r="F262" t="s">
         <v>929</v>
       </c>
@@ -43275,13 +43618,19 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="16">
+    <row r="263" spans="1:24" ht="15.75">
       <c r="A263" s="38" t="s">
         <v>862</v>
       </c>
       <c r="C263" s="24">
         <v>2002</v>
       </c>
+      <c r="D263" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E263" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F263" t="s">
         <v>1108</v>
       </c>
@@ -43313,13 +43662,19 @@
         <v>960</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="16">
+    <row r="264" spans="1:24" ht="15.75">
       <c r="A264" s="38" t="s">
         <v>1120</v>
       </c>
       <c r="C264" s="24">
         <v>2013</v>
       </c>
+      <c r="D264" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E264" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F264" t="s">
         <v>1121</v>
       </c>
@@ -43342,7 +43697,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="16">
+    <row r="265" spans="1:24" ht="15.75">
       <c r="A265" s="38" t="s">
         <v>28</v>
       </c>
@@ -43351,6 +43706,12 @@
       </c>
       <c r="C265" s="24">
         <v>2015</v>
+      </c>
+      <c r="D265" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E265" s="41" t="s">
+        <v>2492</v>
       </c>
       <c r="F265" t="s">
         <v>29</v>
@@ -43402,6 +43763,12 @@
       <c r="C266" s="24">
         <v>2018</v>
       </c>
+      <c r="D266" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E266" s="41" t="s">
+        <v>2596</v>
+      </c>
       <c r="F266" s="24" t="s">
         <v>36</v>
       </c>
@@ -43442,7 +43809,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="16">
+    <row r="267" spans="1:24" ht="15.75">
       <c r="A267" s="38" t="s">
         <v>958</v>
       </c>
@@ -43452,6 +43819,12 @@
       <c r="C267" s="24">
         <v>2018</v>
       </c>
+      <c r="D267" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E267" s="41" t="s">
+        <v>2503</v>
+      </c>
       <c r="F267" t="s">
         <v>39</v>
       </c>
@@ -43498,12 +43871,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="16">
+    <row r="268" spans="1:24" ht="15.75">
       <c r="A268" s="38" t="s">
         <v>2568</v>
       </c>
       <c r="C268" s="24">
         <v>2018</v>
+      </c>
+      <c r="D268" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E268" s="41" t="s">
+        <v>2596</v>
       </c>
       <c r="F268" t="s">
         <v>956</v>
@@ -43540,6 +43919,12 @@
       <c r="C269" s="24">
         <v>2011</v>
       </c>
+      <c r="D269" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E269" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F269" s="24" t="s">
         <v>54</v>
       </c>
@@ -43586,7 +43971,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="16">
+    <row r="270" spans="1:24" ht="15.75">
       <c r="A270" s="38" t="s">
         <v>2565</v>
       </c>
@@ -43596,7 +43981,13 @@
       <c r="C270" s="24">
         <v>2016</v>
       </c>
-      <c r="F270" t="s">
+      <c r="D270" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E270" s="41" t="s">
+        <v>2524</v>
+      </c>
+      <c r="F270" s="4" t="s">
         <v>789</v>
       </c>
       <c r="G270" s="24" t="s">
@@ -43649,6 +44040,12 @@
       <c r="C271" s="24">
         <v>2014</v>
       </c>
+      <c r="D271" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E271" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F271" s="24" t="s">
         <v>62</v>
       </c>
@@ -43692,7 +44089,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="16">
+    <row r="272" spans="1:24" ht="15.75">
       <c r="A272" s="38" t="s">
         <v>2565</v>
       </c>
@@ -43701,6 +44098,12 @@
       </c>
       <c r="C272" s="24">
         <v>2015</v>
+      </c>
+      <c r="D272" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E272" s="41" t="s">
+        <v>2074</v>
       </c>
       <c r="F272" t="s">
         <v>90</v>
@@ -43755,6 +44158,12 @@
       <c r="C273" s="24">
         <v>2014</v>
       </c>
+      <c r="D273" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E273" s="41" t="s">
+        <v>2524</v>
+      </c>
       <c r="F273" s="24" t="s">
         <v>65</v>
       </c>
@@ -43805,6 +44214,12 @@
       <c r="C274" s="24">
         <v>2015</v>
       </c>
+      <c r="D274" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E274" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F274" s="24" t="s">
         <v>71</v>
       </c>
@@ -43845,7 +44260,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="16">
+    <row r="275" spans="1:24" ht="15.75">
       <c r="A275" s="38" t="s">
         <v>2565</v>
       </c>
@@ -43854,6 +44269,12 @@
       </c>
       <c r="C275" s="24">
         <v>2017</v>
+      </c>
+      <c r="D275" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E275" s="41" t="s">
+        <v>2503</v>
       </c>
       <c r="F275" t="s">
         <v>80</v>
@@ -43908,6 +44329,12 @@
       <c r="C276" s="24">
         <v>2004</v>
       </c>
+      <c r="D276" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E276" s="41" t="s">
+        <v>2492</v>
+      </c>
       <c r="F276" s="24" t="s">
         <v>52</v>
       </c>
@@ -43948,7 +44375,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="16">
+    <row r="277" spans="1:24" ht="15.75">
       <c r="A277" s="38" t="s">
         <v>2565</v>
       </c>
@@ -43958,6 +44385,12 @@
       <c r="C277" s="24">
         <v>2013</v>
       </c>
+      <c r="D277" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E277" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F277" t="s">
         <v>59</v>
       </c>
@@ -43998,7 +44431,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="16">
+    <row r="278" spans="1:24" ht="15.75">
       <c r="A278" s="38" t="s">
         <v>2565</v>
       </c>
@@ -44008,6 +44441,12 @@
       <c r="C278" s="24">
         <v>2013</v>
       </c>
+      <c r="D278" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E278" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F278" t="s">
         <v>83</v>
       </c>
@@ -44045,12 +44484,18 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="16">
+    <row r="279" spans="1:24" ht="15.75">
       <c r="A279" s="38" t="s">
         <v>2565</v>
       </c>
       <c r="C279" s="24">
         <v>2013</v>
+      </c>
+      <c r="D279" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E279" s="41" t="s">
+        <v>2493</v>
       </c>
       <c r="F279" t="s">
         <v>966</v>
@@ -44102,6 +44547,12 @@
       <c r="C280" s="24">
         <v>2015</v>
       </c>
+      <c r="D280" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E280" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F280" s="24" t="s">
         <v>74</v>
       </c>
@@ -44152,6 +44603,12 @@
       <c r="C281" s="24">
         <v>2017</v>
       </c>
+      <c r="D281" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E281" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F281" s="24" t="s">
         <v>75</v>
       </c>
@@ -44189,7 +44646,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="16">
+    <row r="282" spans="1:24" ht="15.75">
       <c r="A282" s="38" t="s">
         <v>2565</v>
       </c>
@@ -44199,6 +44656,12 @@
       <c r="C282" s="24">
         <v>2018</v>
       </c>
+      <c r="D282" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E282" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F282" t="s">
         <v>86</v>
       </c>
@@ -44242,12 +44705,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="16">
+    <row r="283" spans="1:24" ht="15.75">
       <c r="A283" s="38" t="s">
         <v>2565</v>
       </c>
       <c r="C283" s="24">
         <v>2015</v>
+      </c>
+      <c r="D283" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E283" s="41" t="s">
+        <v>2493</v>
       </c>
       <c r="F283" t="s">
         <v>964</v>
@@ -44296,6 +44765,12 @@
       <c r="C284" s="24">
         <v>2016</v>
       </c>
+      <c r="D284" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E284" s="41" t="s">
+        <v>2490</v>
+      </c>
       <c r="F284" s="24" t="s">
         <v>93</v>
       </c>
@@ -44336,7 +44811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="16">
+    <row r="285" spans="1:24" ht="15.75">
       <c r="A285" s="38" t="s">
         <v>2567</v>
       </c>
@@ -44346,6 +44821,12 @@
       <c r="C285" s="24">
         <v>2013</v>
       </c>
+      <c r="D285" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E285" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F285" t="s">
         <v>102</v>
       </c>
@@ -44386,7 +44867,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="16">
+    <row r="286" spans="1:24" ht="15.75">
       <c r="A286" s="38" t="s">
         <v>103</v>
       </c>
@@ -44395,6 +44876,12 @@
       </c>
       <c r="C286" s="24">
         <v>2019</v>
+      </c>
+      <c r="D286" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E286" s="41" t="s">
+        <v>2074</v>
       </c>
       <c r="F286" t="s">
         <v>107</v>
@@ -44446,6 +44933,12 @@
       <c r="C287" s="24">
         <v>2017</v>
       </c>
+      <c r="D287" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E287" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F287" s="24" t="s">
         <v>110</v>
       </c>
@@ -44496,6 +44989,12 @@
       <c r="C288" s="24">
         <v>2012</v>
       </c>
+      <c r="D288" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E288" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F288" s="24" t="s">
         <v>113</v>
       </c>
@@ -44543,6 +45042,12 @@
       <c r="C289" s="24">
         <v>2014</v>
       </c>
+      <c r="D289" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E289" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F289" s="24" t="s">
         <v>118</v>
       </c>
@@ -44593,6 +45098,12 @@
       <c r="C290" s="24">
         <v>2016</v>
       </c>
+      <c r="D290" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E290" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F290" s="24" t="s">
         <v>123</v>
       </c>
@@ -44640,6 +45151,12 @@
       <c r="C291" s="24">
         <v>2017</v>
       </c>
+      <c r="D291" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E291" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F291" s="24" t="s">
         <v>125</v>
       </c>
@@ -44681,14 +45198,20 @@
       </c>
     </row>
     <row r="292" spans="1:24">
-      <c r="A292" s="38" t="s">
-        <v>158</v>
+      <c r="A292" s="41" t="s">
+        <v>2599</v>
       </c>
       <c r="B292" s="31" t="s">
         <v>1737</v>
       </c>
       <c r="C292" s="24">
         <v>2009</v>
+      </c>
+      <c r="D292" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E292" s="41" t="s">
+        <v>2089</v>
       </c>
       <c r="F292" s="24" t="s">
         <v>162</v>
@@ -44734,6 +45257,12 @@
       <c r="C293" s="24">
         <v>2013</v>
       </c>
+      <c r="D293" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E293" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F293" s="24" t="s">
         <v>165</v>
       </c>
@@ -44781,6 +45310,12 @@
       <c r="C294" s="24">
         <v>2014</v>
       </c>
+      <c r="D294" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E294" s="41" t="s">
+        <v>2490</v>
+      </c>
       <c r="F294" s="24" t="s">
         <v>167</v>
       </c>
@@ -44828,6 +45363,12 @@
       <c r="C295" s="24">
         <v>2016</v>
       </c>
+      <c r="D295" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E295" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F295" s="24" t="s">
         <v>177</v>
       </c>
@@ -44878,6 +45419,12 @@
       <c r="C296" s="24">
         <v>2017</v>
       </c>
+      <c r="D296" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E296" s="41" t="s">
+        <v>2491</v>
+      </c>
       <c r="F296" s="24" t="s">
         <v>181</v>
       </c>
@@ -44925,6 +45472,12 @@
       <c r="C297" s="24">
         <v>2013</v>
       </c>
+      <c r="D297" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E297" s="41" t="s">
+        <v>2488</v>
+      </c>
       <c r="F297" s="24" t="s">
         <v>201</v>
       </c>
@@ -44962,13 +45515,19 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="16">
+    <row r="298" spans="1:24" ht="15.75">
       <c r="A298" s="38" t="s">
         <v>192</v>
       </c>
       <c r="C298" s="24">
         <v>2013</v>
       </c>
+      <c r="D298" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E298" s="41" t="s">
+        <v>2488</v>
+      </c>
       <c r="F298" t="s">
         <v>978</v>
       </c>
@@ -44997,7 +45556,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="16">
+    <row r="299" spans="1:24" ht="15.75">
       <c r="A299" s="38" t="s">
         <v>217</v>
       </c>
@@ -45007,6 +45566,12 @@
       <c r="C299" s="24">
         <v>2017</v>
       </c>
+      <c r="D299" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E299" s="41" t="s">
+        <v>2510</v>
+      </c>
       <c r="F299" t="s">
         <v>222</v>
       </c>
@@ -45044,12 +45609,18 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="16">
+    <row r="300" spans="1:24" ht="15.75">
       <c r="A300" s="38" t="s">
         <v>217</v>
       </c>
       <c r="C300" s="24">
         <v>2007</v>
+      </c>
+      <c r="D300" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E300" s="41" t="s">
+        <v>2082</v>
       </c>
       <c r="F300" t="s">
         <v>989</v>
@@ -45095,6 +45666,12 @@
       <c r="C301" s="24">
         <v>2014</v>
       </c>
+      <c r="D301" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E301" s="41" t="s">
+        <v>2088</v>
+      </c>
       <c r="F301" s="24" t="s">
         <v>229</v>
       </c>
@@ -45135,7 +45712,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="16">
+    <row r="302" spans="1:24" ht="15.75">
       <c r="A302" s="38" t="s">
         <v>231</v>
       </c>
@@ -45145,6 +45722,12 @@
       <c r="C302" s="24">
         <v>2018</v>
       </c>
+      <c r="D302" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E302" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F302" t="s">
         <v>277</v>
       </c>
@@ -45188,7 +45771,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="16">
+    <row r="303" spans="1:24" ht="15.75">
       <c r="A303" s="38" t="s">
         <v>231</v>
       </c>
@@ -45197,6 +45780,12 @@
       </c>
       <c r="C303" s="24">
         <v>2014</v>
+      </c>
+      <c r="D303" s="41" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E303" s="41" t="s">
+        <v>2600</v>
       </c>
       <c r="F303" t="s">
         <v>269</v>
@@ -45248,6 +45837,12 @@
       <c r="C304" s="24">
         <v>2011</v>
       </c>
+      <c r="D304" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E304" s="41" t="s">
+        <v>2082</v>
+      </c>
       <c r="F304" s="24" t="s">
         <v>232</v>
       </c>
@@ -45282,7 +45877,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="16">
+    <row r="305" spans="1:24" ht="15.75">
       <c r="A305" s="38" t="s">
         <v>231</v>
       </c>
@@ -45292,6 +45887,12 @@
       <c r="C305" s="24">
         <v>2011</v>
       </c>
+      <c r="D305" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E305" s="41" t="s">
+        <v>2490</v>
+      </c>
       <c r="F305" t="s">
         <v>275</v>
       </c>
@@ -45323,7 +45924,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="16">
+    <row r="306" spans="1:24" ht="15.75">
       <c r="A306" s="38" t="s">
         <v>231</v>
       </c>
@@ -45333,7 +45934,13 @@
       <c r="C306" s="24">
         <v>2015</v>
       </c>
-      <c r="F306" t="s">
+      <c r="D306" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E306" s="41" t="s">
+        <v>2601</v>
+      </c>
+      <c r="F306" s="4" t="s">
         <v>262</v>
       </c>
       <c r="G306" s="24" t="s">
@@ -45376,7 +45983,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="16">
+    <row r="307" spans="1:24" ht="15.75">
       <c r="A307" s="38" t="s">
         <v>231</v>
       </c>
@@ -45386,6 +45993,12 @@
       <c r="C307" s="24">
         <v>2015</v>
       </c>
+      <c r="D307" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E307" s="41" t="s">
+        <v>2593</v>
+      </c>
       <c r="F307" t="s">
         <v>265</v>
       </c>
@@ -45423,12 +46036,18 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="16">
+    <row r="308" spans="1:24" ht="15.75">
       <c r="A308" s="38" t="s">
         <v>231</v>
       </c>
       <c r="C308" s="24">
         <v>2016</v>
+      </c>
+      <c r="D308" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E308" s="41" t="s">
+        <v>2082</v>
       </c>
       <c r="F308" t="s">
         <v>995</v>
@@ -45477,6 +46096,12 @@
       <c r="C309" s="24">
         <v>2017</v>
       </c>
+      <c r="D309" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E309" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F309" s="24" t="s">
         <v>244</v>
       </c>
@@ -45511,13 +46136,19 @@
         <v>247</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="16">
+    <row r="310" spans="1:24" ht="15.75">
       <c r="A310" s="38" t="s">
         <v>231</v>
       </c>
       <c r="C310" s="24">
         <v>2018</v>
       </c>
+      <c r="D310" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E310" s="41" t="s">
+        <v>2602</v>
+      </c>
       <c r="F310" t="s">
         <v>992</v>
       </c>
@@ -45558,13 +46189,19 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="16">
+    <row r="311" spans="1:24" ht="15.75">
       <c r="A311" s="38" t="s">
         <v>231</v>
       </c>
       <c r="C311" s="24">
         <v>2010</v>
       </c>
+      <c r="D311" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E311" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F311" t="s">
         <v>1016</v>
       </c>
@@ -45593,13 +46230,19 @@
         <v>960</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="16">
+    <row r="312" spans="1:24" ht="15.75">
       <c r="A312" s="38" t="s">
         <v>231</v>
       </c>
       <c r="C312" s="24">
         <v>2012</v>
       </c>
+      <c r="D312" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E312" s="41" t="s">
+        <v>2603</v>
+      </c>
       <c r="F312" t="s">
         <v>1010</v>
       </c>
@@ -45634,13 +46277,19 @@
         <v>960</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="16">
+    <row r="313" spans="1:24" ht="15.75">
       <c r="A313" s="38" t="s">
         <v>231</v>
       </c>
       <c r="C313" s="24">
         <v>2013</v>
       </c>
+      <c r="D313" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E313" s="41" t="s">
+        <v>2496</v>
+      </c>
       <c r="F313" t="s">
         <v>1008</v>
       </c>
@@ -45672,13 +46321,19 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="16">
+    <row r="314" spans="1:24" ht="15.75">
       <c r="A314" s="38" t="s">
         <v>231</v>
       </c>
       <c r="C314" s="24">
         <v>2015</v>
       </c>
+      <c r="D314" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E314" s="41" t="s">
+        <v>2604</v>
+      </c>
       <c r="F314" t="s">
         <v>1006</v>
       </c>
@@ -45713,13 +46368,19 @@
         <v>960</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="16">
+    <row r="315" spans="1:24" ht="15.75">
       <c r="A315" s="38" t="s">
         <v>231</v>
       </c>
       <c r="C315" s="24">
         <v>2015</v>
       </c>
+      <c r="D315" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E315" s="41" t="s">
+        <v>2494</v>
+      </c>
       <c r="F315" t="s">
         <v>1007</v>
       </c>
@@ -45751,13 +46412,19 @@
         <v>960</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="16">
+    <row r="316" spans="1:24" ht="15.75">
       <c r="A316" s="38" t="s">
         <v>231</v>
       </c>
       <c r="C316" s="24">
         <v>2017</v>
       </c>
+      <c r="D316" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E316" s="41" t="s">
+        <v>2515</v>
+      </c>
       <c r="F316" t="s">
         <v>994</v>
       </c>
@@ -45786,12 +46453,18 @@
         <v>960</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="16">
+    <row r="317" spans="1:24" ht="15.75">
       <c r="A317" s="38" t="s">
         <v>1018</v>
       </c>
       <c r="C317" s="24">
         <v>2009</v>
+      </c>
+      <c r="D317" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E317" s="41" t="s">
+        <v>2490</v>
       </c>
       <c r="F317" t="s">
         <v>1021</v>
@@ -45837,6 +46510,12 @@
       <c r="C318" s="24">
         <v>2014</v>
       </c>
+      <c r="D318" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E318" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F318" s="24" t="s">
         <v>306</v>
       </c>
@@ -45877,7 +46556,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="16">
+    <row r="319" spans="1:24" ht="15.75">
       <c r="A319" s="38" t="s">
         <v>2573</v>
       </c>
@@ -45887,7 +46566,13 @@
       <c r="C319" s="24">
         <v>2016</v>
       </c>
-      <c r="F319" t="s">
+      <c r="D319" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E319" s="41" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F319" s="4" t="s">
         <v>309</v>
       </c>
       <c r="G319" s="24" t="s">
@@ -45943,6 +46628,12 @@
       <c r="C320" s="24">
         <v>2017</v>
       </c>
+      <c r="D320" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E320" s="41" t="s">
+        <v>2507</v>
+      </c>
       <c r="F320" s="24" t="s">
         <v>307</v>
       </c>
@@ -45980,7 +46671,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="16">
+    <row r="321" spans="1:24" ht="15.75">
       <c r="A321" s="38" t="s">
         <v>2573</v>
       </c>
@@ -45990,6 +46681,12 @@
       <c r="C321" s="24">
         <v>2019</v>
       </c>
+      <c r="D321" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E321" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F321" t="s">
         <v>311</v>
       </c>
@@ -46027,7 +46724,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="16">
+    <row r="322" spans="1:24" ht="15.75">
       <c r="A322" s="38" t="s">
         <v>315</v>
       </c>
@@ -46037,6 +46734,12 @@
       <c r="C322" s="24">
         <v>2011</v>
       </c>
+      <c r="D322" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E322" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F322" t="s">
         <v>338</v>
       </c>
@@ -46077,7 +46780,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="16">
+    <row r="323" spans="1:24" ht="15.75">
       <c r="A323" s="38" t="s">
         <v>315</v>
       </c>
@@ -46087,6 +46790,12 @@
       <c r="C323" s="24">
         <v>2013</v>
       </c>
+      <c r="D323" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E323" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F323" t="s">
         <v>336</v>
       </c>
@@ -46121,7 +46830,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="324" spans="1:24" ht="16">
+    <row r="324" spans="1:24" ht="15.75">
       <c r="A324" s="38" t="s">
         <v>315</v>
       </c>
@@ -46131,6 +46840,12 @@
       <c r="C324" s="24">
         <v>2014</v>
       </c>
+      <c r="D324" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E324" s="41" t="s">
+        <v>2490</v>
+      </c>
       <c r="F324" t="s">
         <v>316</v>
       </c>
@@ -46177,7 +46892,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="16">
+    <row r="325" spans="1:24" ht="15.75">
       <c r="A325" s="38" t="s">
         <v>315</v>
       </c>
@@ -46187,7 +46902,13 @@
       <c r="C325" s="24">
         <v>2018</v>
       </c>
-      <c r="F325" t="s">
+      <c r="D325" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E325" s="41" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F325" s="4" t="s">
         <v>318</v>
       </c>
       <c r="G325" s="24" t="s">
@@ -46227,7 +46948,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="326" spans="1:24" ht="16">
+    <row r="326" spans="1:24" ht="15.75">
       <c r="A326" s="38" t="s">
         <v>315</v>
       </c>
@@ -46237,6 +46958,12 @@
       <c r="C326" s="24">
         <v>2018</v>
       </c>
+      <c r="D326" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E326" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F326" t="s">
         <v>321</v>
       </c>
@@ -46274,7 +47001,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="327" spans="1:24" ht="16">
+    <row r="327" spans="1:24" ht="15.75">
       <c r="A327" s="38" t="s">
         <v>315</v>
       </c>
@@ -46283,6 +47010,12 @@
       </c>
       <c r="C327" s="24">
         <v>2018</v>
+      </c>
+      <c r="D327" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E327" s="41" t="s">
+        <v>2089</v>
       </c>
       <c r="F327" t="s">
         <v>324</v>
@@ -46328,6 +47061,12 @@
       <c r="C328" s="24">
         <v>2004</v>
       </c>
+      <c r="D328" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E328" s="41" t="s">
+        <v>2605</v>
+      </c>
       <c r="F328" s="24" t="s">
         <v>344</v>
       </c>
@@ -46368,13 +47107,19 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="329" spans="1:24" ht="16">
+    <row r="329" spans="1:24" ht="15.75">
       <c r="A329" s="38" t="s">
         <v>343</v>
       </c>
       <c r="C329" s="24">
         <v>2003</v>
       </c>
+      <c r="D329" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E329" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F329" t="s">
         <v>1023</v>
       </c>
@@ -46406,7 +47151,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="330" spans="1:24" ht="16">
+    <row r="330" spans="1:24" ht="15.75">
       <c r="A330" s="38" t="s">
         <v>2554</v>
       </c>
@@ -46415,6 +47160,12 @@
       </c>
       <c r="C330" s="24">
         <v>2011</v>
+      </c>
+      <c r="D330" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E330" s="41" t="s">
+        <v>2074</v>
       </c>
       <c r="F330" t="s">
         <v>365</v>
@@ -46469,6 +47220,12 @@
       <c r="C331" s="24">
         <v>2017</v>
       </c>
+      <c r="D331" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E331" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F331" s="24" t="s">
         <v>380</v>
       </c>
@@ -46525,6 +47282,12 @@
       <c r="C332" s="24">
         <v>2014</v>
       </c>
+      <c r="D332" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E332" s="41" t="s">
+        <v>2075</v>
+      </c>
       <c r="F332" s="24" t="s">
         <v>373</v>
       </c>
@@ -46575,6 +47338,12 @@
       <c r="C333" s="24">
         <v>2011</v>
       </c>
+      <c r="D333" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E333" s="41" t="s">
+        <v>2606</v>
+      </c>
       <c r="F333" s="24" t="s">
         <v>384</v>
       </c>
@@ -46618,7 +47387,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="334" spans="1:24" ht="16">
+    <row r="334" spans="1:24" ht="15.75">
       <c r="A334" s="38" t="s">
         <v>2581</v>
       </c>
@@ -46628,6 +47397,12 @@
       <c r="C334" s="24">
         <v>2016</v>
       </c>
+      <c r="D334" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E334" s="41" t="s">
+        <v>2524</v>
+      </c>
       <c r="F334" t="s">
         <v>394</v>
       </c>
@@ -46674,13 +47449,19 @@
         <v>395</v>
       </c>
     </row>
-    <row r="335" spans="1:24" ht="16">
+    <row r="335" spans="1:24" ht="15.75">
       <c r="A335" s="38" t="s">
         <v>1028</v>
       </c>
       <c r="C335" s="24">
         <v>2012</v>
       </c>
+      <c r="D335" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E335" s="41" t="s">
+        <v>2129</v>
+      </c>
       <c r="F335" t="s">
         <v>1029</v>
       </c>
@@ -46706,7 +47487,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="16">
+    <row r="336" spans="1:24" ht="15.75">
       <c r="A336" s="38" t="s">
         <v>403</v>
       </c>
@@ -46716,6 +47497,12 @@
       <c r="C336" s="24">
         <v>2016</v>
       </c>
+      <c r="D336" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E336" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F336" t="s">
         <v>445</v>
       </c>
@@ -46756,7 +47543,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="16">
+    <row r="337" spans="1:24" ht="15.75">
       <c r="A337" s="38" t="s">
         <v>403</v>
       </c>
@@ -46766,7 +47553,13 @@
       <c r="C337" s="24">
         <v>2017</v>
       </c>
-      <c r="F337" t="s">
+      <c r="D337" s="41" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E337" s="41" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F337" s="4" t="s">
         <v>444</v>
       </c>
       <c r="G337" s="24" t="s">
@@ -46803,7 +47596,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="16">
+    <row r="338" spans="1:24" ht="15.75">
       <c r="A338" s="38" t="s">
         <v>403</v>
       </c>
@@ -46813,6 +47606,12 @@
       <c r="C338" s="24">
         <v>2018</v>
       </c>
+      <c r="D338" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E338" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F338" t="s">
         <v>429</v>
       </c>
@@ -46856,12 +47655,18 @@
         <v>431</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="16">
+    <row r="339" spans="1:24" ht="15.75">
       <c r="A339" s="38" t="s">
         <v>1034</v>
       </c>
       <c r="C339" s="24">
         <v>2018</v>
+      </c>
+      <c r="D339" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E339" s="41" t="s">
+        <v>2075</v>
       </c>
       <c r="F339" t="s">
         <v>1035</v>
@@ -46904,6 +47709,12 @@
       <c r="C340" s="24">
         <v>2013</v>
       </c>
+      <c r="D340" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E340" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F340" s="24" t="s">
         <v>470</v>
       </c>
@@ -46951,6 +47762,12 @@
       <c r="C341" s="24">
         <v>2016</v>
       </c>
+      <c r="D341" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E341" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F341" s="24" t="s">
         <v>473</v>
       </c>
@@ -46991,13 +47808,19 @@
         <v>188</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="16">
+    <row r="342" spans="1:24" ht="15.75">
       <c r="A342" s="38" t="s">
         <v>467</v>
       </c>
       <c r="C342" s="24">
         <v>2017</v>
       </c>
+      <c r="D342" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E342" s="41" t="s">
+        <v>2596</v>
+      </c>
       <c r="F342" t="s">
         <v>1039</v>
       </c>
@@ -47023,13 +47846,19 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="16">
+    <row r="343" spans="1:24" ht="15.75">
       <c r="A343" s="38" t="s">
         <v>467</v>
       </c>
       <c r="C343" s="24">
         <v>2019</v>
       </c>
+      <c r="D343" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E343" s="41" t="s">
+        <v>2596</v>
+      </c>
       <c r="F343" t="s">
         <v>1037</v>
       </c>
@@ -47061,7 +47890,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="344" spans="1:24" ht="16">
+    <row r="344" spans="1:24" ht="15.75">
       <c r="A344" s="38" t="s">
         <v>484</v>
       </c>
@@ -47071,7 +47900,13 @@
       <c r="C344" s="24">
         <v>2001</v>
       </c>
-      <c r="F344" t="s">
+      <c r="D344" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E344" s="41" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F344" s="4" t="s">
         <v>543</v>
       </c>
       <c r="G344" s="24" t="s">
@@ -47108,7 +47943,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="16">
+    <row r="345" spans="1:24" ht="15.75">
       <c r="A345" s="38" t="s">
         <v>484</v>
       </c>
@@ -47118,6 +47953,12 @@
       <c r="C345" s="24">
         <v>2008</v>
       </c>
+      <c r="D345" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E345" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F345" t="s">
         <v>536</v>
       </c>
@@ -47155,7 +47996,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="346" spans="1:24" ht="16">
+    <row r="346" spans="1:24" ht="15.75">
       <c r="A346" s="38" t="s">
         <v>484</v>
       </c>
@@ -47165,6 +48006,12 @@
       <c r="C346" s="24">
         <v>2011</v>
       </c>
+      <c r="D346" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E346" s="41" t="s">
+        <v>2505</v>
+      </c>
       <c r="F346" t="s">
         <v>530</v>
       </c>
@@ -47205,7 +48052,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="16">
+    <row r="347" spans="1:24" ht="15.75">
       <c r="A347" s="38" t="s">
         <v>484</v>
       </c>
@@ -47215,6 +48062,12 @@
       <c r="C347" s="24">
         <v>2013</v>
       </c>
+      <c r="D347" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E347" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F347" t="s">
         <v>525</v>
       </c>
@@ -47249,7 +48102,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="348" spans="1:24" ht="16">
+    <row r="348" spans="1:24" ht="15.75">
       <c r="A348" s="38" t="s">
         <v>484</v>
       </c>
@@ -47258,6 +48111,12 @@
       </c>
       <c r="C348" s="24">
         <v>2015</v>
+      </c>
+      <c r="D348" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E348" s="41" t="s">
+        <v>2074</v>
       </c>
       <c r="F348" t="s">
         <v>520</v>
@@ -47309,6 +48168,12 @@
       <c r="C349" s="24">
         <v>2018</v>
       </c>
+      <c r="D349" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E349" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F349" s="24" t="s">
         <v>497</v>
       </c>
@@ -47352,7 +48217,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="350" spans="1:24" ht="16">
+    <row r="350" spans="1:24" ht="15.75">
       <c r="A350" s="38" t="s">
         <v>2546</v>
       </c>
@@ -47362,6 +48227,12 @@
       <c r="C350" s="24">
         <v>2011</v>
       </c>
+      <c r="D350" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E350" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F350" t="s">
         <v>548</v>
       </c>
@@ -47408,7 +48279,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="351" spans="1:24" ht="16">
+    <row r="351" spans="1:24" ht="15.75">
       <c r="A351" s="38" t="s">
         <v>2555</v>
       </c>
@@ -47417,6 +48288,12 @@
       </c>
       <c r="C351" s="24">
         <v>2017</v>
+      </c>
+      <c r="D351" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E351" s="41" t="s">
+        <v>2503</v>
       </c>
       <c r="F351" t="s">
         <v>748</v>
@@ -47465,6 +48342,12 @@
       <c r="C352" s="24">
         <v>2002</v>
       </c>
+      <c r="D352" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E352" s="41" t="s">
+        <v>2492</v>
+      </c>
       <c r="F352" s="24" t="s">
         <v>555</v>
       </c>
@@ -47508,7 +48391,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="16">
+    <row r="353" spans="1:24" ht="15.75">
       <c r="A353" s="38" t="s">
         <v>2525</v>
       </c>
@@ -47518,6 +48401,12 @@
       <c r="C353" s="24">
         <v>2017</v>
       </c>
+      <c r="D353" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E353" s="41" t="s">
+        <v>2075</v>
+      </c>
       <c r="F353" t="s">
         <v>558</v>
       </c>
@@ -47558,7 +48447,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="16">
+    <row r="354" spans="1:24" ht="15.75">
       <c r="A354" s="38" t="s">
         <v>561</v>
       </c>
@@ -47568,6 +48457,12 @@
       <c r="C354" s="24">
         <v>2001</v>
       </c>
+      <c r="D354" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E354" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F354" t="s">
         <v>579</v>
       </c>
@@ -47596,13 +48491,19 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="16">
+    <row r="355" spans="1:24" ht="15.75">
       <c r="A355" s="38" t="s">
         <v>561</v>
       </c>
       <c r="C355" s="24">
         <v>2008</v>
       </c>
+      <c r="D355" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E355" s="41" t="s">
+        <v>2082</v>
+      </c>
       <c r="F355" t="s">
         <v>1063</v>
       </c>
@@ -47637,7 +48538,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="16">
+    <row r="356" spans="1:24" ht="15.75">
       <c r="A356" s="38" t="s">
         <v>561</v>
       </c>
@@ -47647,6 +48548,12 @@
       <c r="C356" s="24">
         <v>2012</v>
       </c>
+      <c r="D356" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E356" s="41" t="s">
+        <v>2608</v>
+      </c>
       <c r="F356" t="s">
         <v>605</v>
       </c>
@@ -47681,7 +48588,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="16">
+    <row r="357" spans="1:24" ht="15.75">
       <c r="A357" s="38" t="s">
         <v>561</v>
       </c>
@@ -47690,6 +48597,12 @@
       </c>
       <c r="C357" s="24">
         <v>2014</v>
+      </c>
+      <c r="D357" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E357" s="41" t="s">
+        <v>2493</v>
       </c>
       <c r="F357" t="s">
         <v>570</v>
@@ -47741,6 +48654,12 @@
       <c r="C358" s="24">
         <v>2015</v>
       </c>
+      <c r="D358" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E358" s="41" t="s">
+        <v>2490</v>
+      </c>
       <c r="F358" s="24" t="s">
         <v>562</v>
       </c>
@@ -47769,7 +48688,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="359" spans="1:24" ht="16">
+    <row r="359" spans="1:24" ht="15.75">
       <c r="A359" s="38" t="s">
         <v>561</v>
       </c>
@@ -47779,6 +48698,12 @@
       <c r="C359" s="24">
         <v>2016</v>
       </c>
+      <c r="D359" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E359" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F359" t="s">
         <v>607</v>
       </c>
@@ -47819,7 +48744,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="16">
+    <row r="360" spans="1:24" ht="15.75">
       <c r="A360" s="38" t="s">
         <v>561</v>
       </c>
@@ -47829,6 +48754,12 @@
       <c r="C360" s="24">
         <v>2017</v>
       </c>
+      <c r="D360" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E360" s="41" t="s">
+        <v>2596</v>
+      </c>
       <c r="F360" t="s">
         <v>583</v>
       </c>
@@ -47863,7 +48794,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="16">
+    <row r="361" spans="1:24" ht="15.75">
       <c r="A361" s="38" t="s">
         <v>613</v>
       </c>
@@ -47873,6 +48804,9 @@
       <c r="C361" s="24">
         <v>2010</v>
       </c>
+      <c r="D361" s="36" t="s">
+        <v>2591</v>
+      </c>
       <c r="F361" t="s">
         <v>635</v>
       </c>
@@ -47907,7 +48841,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="16">
+    <row r="362" spans="1:24" ht="15.75">
       <c r="A362" s="38" t="s">
         <v>613</v>
       </c>
@@ -47917,6 +48851,12 @@
       <c r="C362" s="24">
         <v>2014</v>
       </c>
+      <c r="D362" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E362" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F362" t="s">
         <v>634</v>
       </c>
@@ -47957,7 +48897,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="16">
+    <row r="363" spans="1:24" ht="15.75">
       <c r="A363" s="38" t="s">
         <v>613</v>
       </c>
@@ -47967,6 +48907,12 @@
       <c r="C363" s="24">
         <v>2014</v>
       </c>
+      <c r="D363" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E363" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F363" t="s">
         <v>649</v>
       </c>
@@ -48007,7 +48953,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="16">
+    <row r="364" spans="1:24" ht="15.75">
       <c r="A364" s="38" t="s">
         <v>613</v>
       </c>
@@ -48017,6 +48963,9 @@
       <c r="C364" s="24">
         <v>2017</v>
       </c>
+      <c r="D364" s="36" t="s">
+        <v>2609</v>
+      </c>
       <c r="F364" t="s">
         <v>662</v>
       </c>
@@ -48057,7 +49006,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="16">
+    <row r="365" spans="1:24" ht="15.75">
       <c r="A365" s="38" t="s">
         <v>613</v>
       </c>
@@ -48067,6 +49016,12 @@
       <c r="C365" s="24">
         <v>2017</v>
       </c>
+      <c r="D365" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E365" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F365" t="s">
         <v>665</v>
       </c>
@@ -48101,7 +49056,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="16">
+    <row r="366" spans="1:24" ht="15.75">
       <c r="A366" s="38" t="s">
         <v>613</v>
       </c>
@@ -48111,7 +49066,13 @@
       <c r="C366" s="24">
         <v>2017</v>
       </c>
-      <c r="F366" t="s">
+      <c r="D366" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E366" s="41" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F366" s="4" t="s">
         <v>672</v>
       </c>
       <c r="G366" s="24" t="s">
@@ -48148,7 +49109,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="16">
+    <row r="367" spans="1:24" ht="15.75">
       <c r="A367" s="38" t="s">
         <v>613</v>
       </c>
@@ -48158,6 +49119,9 @@
       <c r="C367" s="24">
         <v>2018</v>
       </c>
+      <c r="D367" s="36" t="s">
+        <v>2609</v>
+      </c>
       <c r="F367" t="s">
         <v>639</v>
       </c>
@@ -48201,7 +49165,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="16">
+    <row r="368" spans="1:24" ht="15.75">
       <c r="A368" s="38" t="s">
         <v>613</v>
       </c>
@@ -48211,6 +49175,12 @@
       <c r="C368" s="24">
         <v>2019</v>
       </c>
+      <c r="D368" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E368" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F368" t="s">
         <v>638</v>
       </c>
@@ -48251,13 +49221,19 @@
         <v>95</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="16">
+    <row r="369" spans="1:24" ht="15.75">
       <c r="A369" s="38" t="s">
         <v>613</v>
       </c>
       <c r="C369" s="24">
         <v>2013</v>
       </c>
+      <c r="D369" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E369" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F369" t="s">
         <v>1072</v>
       </c>
@@ -48286,13 +49262,19 @@
         <v>960</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="16">
+    <row r="370" spans="1:24" ht="15.75">
       <c r="A370" s="38" t="s">
         <v>613</v>
       </c>
       <c r="C370" s="24">
         <v>2014</v>
       </c>
+      <c r="D370" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E370" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F370" t="s">
         <v>1070</v>
       </c>
@@ -48327,7 +49309,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="16">
+    <row r="371" spans="1:24" ht="15.75">
       <c r="A371" s="38" t="s">
         <v>2547</v>
       </c>
@@ -48337,6 +49319,12 @@
       <c r="C371" s="24">
         <v>2018</v>
       </c>
+      <c r="D371" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E371" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F371" t="s">
         <v>681</v>
       </c>
@@ -48377,7 +49365,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="16">
+    <row r="372" spans="1:24" ht="15.75">
       <c r="A372" s="38" t="s">
         <v>2547</v>
       </c>
@@ -48387,6 +49375,12 @@
       <c r="C372" s="24">
         <v>2009</v>
       </c>
+      <c r="D372" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E372" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F372" t="s">
         <v>705</v>
       </c>
@@ -48427,12 +49421,18 @@
         <v>706</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="16">
+    <row r="373" spans="1:24" ht="15.75">
       <c r="A373" s="38" t="s">
         <v>2547</v>
       </c>
       <c r="C373" s="24">
         <v>2019</v>
+      </c>
+      <c r="D373" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E373" s="41" t="s">
+        <v>2074</v>
       </c>
       <c r="F373" t="s">
         <v>1083</v>
@@ -48475,6 +49475,12 @@
       <c r="C374" s="24">
         <v>2010</v>
       </c>
+      <c r="D374" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E374" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F374" s="24" t="s">
         <v>764</v>
       </c>
@@ -48515,7 +49521,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="16">
+    <row r="375" spans="1:24" ht="15.75">
       <c r="A375" s="38" t="s">
         <v>2540</v>
       </c>
@@ -48524,6 +49530,12 @@
       </c>
       <c r="C375" s="24">
         <v>2014</v>
+      </c>
+      <c r="D375" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E375" s="41" t="s">
+        <v>2089</v>
       </c>
       <c r="F375" t="s">
         <v>703</v>
@@ -48572,6 +49584,12 @@
       <c r="C376" s="24">
         <v>2000</v>
       </c>
+      <c r="D376" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E376" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F376" s="24" t="s">
         <v>713</v>
       </c>
@@ -48609,7 +49627,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="16">
+    <row r="377" spans="1:24" ht="15.75">
       <c r="A377" s="38" t="s">
         <v>1403</v>
       </c>
@@ -48619,6 +49637,12 @@
       <c r="C377" s="24">
         <v>2012</v>
       </c>
+      <c r="D377" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E377" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F377" t="s">
         <v>710</v>
       </c>
@@ -48665,7 +49689,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="16">
+    <row r="378" spans="1:24" ht="15.75">
       <c r="A378" s="38" t="s">
         <v>2541</v>
       </c>
@@ -48675,6 +49699,12 @@
       <c r="C378" s="24">
         <v>2018</v>
       </c>
+      <c r="D378" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E378" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F378" t="s">
         <v>718</v>
       </c>
@@ -48718,7 +49748,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="379" spans="1:24">
+    <row r="379" spans="1:24" ht="15.75">
       <c r="A379" s="38" t="s">
         <v>2582</v>
       </c>
@@ -48728,7 +49758,13 @@
       <c r="C379" s="24">
         <v>2018</v>
       </c>
-      <c r="F379" s="24" t="s">
+      <c r="D379" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E379" s="41" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F379" s="39" t="s">
         <v>720</v>
       </c>
       <c r="G379" s="24" t="s">
@@ -48771,7 +49807,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="16">
+    <row r="380" spans="1:24" ht="15.75">
       <c r="A380" s="38" t="s">
         <v>2576</v>
       </c>
@@ -48780,6 +49816,12 @@
       </c>
       <c r="C380" s="24">
         <v>2012</v>
+      </c>
+      <c r="D380" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E380" s="41" t="s">
+        <v>2074</v>
       </c>
       <c r="F380" t="s">
         <v>724</v>
@@ -48837,6 +49879,12 @@
       <c r="C381" s="24">
         <v>2015</v>
       </c>
+      <c r="D381" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E381" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F381" s="24" t="s">
         <v>726</v>
       </c>
@@ -48880,13 +49928,19 @@
         <v>727</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="16">
+    <row r="382" spans="1:24" ht="15.75">
       <c r="A382" s="38" t="s">
         <v>725</v>
       </c>
       <c r="C382" s="24">
         <v>2013</v>
       </c>
+      <c r="D382" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E382" s="41" t="s">
+        <v>2509</v>
+      </c>
       <c r="F382" t="s">
         <v>1084</v>
       </c>
@@ -48927,7 +49981,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="16">
+    <row r="383" spans="1:24" ht="15.75">
       <c r="A383" s="38" t="s">
         <v>2536</v>
       </c>
@@ -48937,6 +49991,9 @@
       <c r="C383" s="24">
         <v>2018</v>
       </c>
+      <c r="D383" s="36" t="s">
+        <v>2522</v>
+      </c>
       <c r="F383" t="s">
         <v>734</v>
       </c>
@@ -48977,7 +50034,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="16">
+    <row r="384" spans="1:24" ht="15.75">
       <c r="A384" s="38" t="s">
         <v>2583</v>
       </c>
@@ -48987,7 +50044,13 @@
       <c r="C384" s="24">
         <v>2007</v>
       </c>
-      <c r="F384" t="s">
+      <c r="D384" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E384" s="41" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F384" s="4" t="s">
         <v>701</v>
       </c>
       <c r="G384" s="24" t="s">
@@ -49024,7 +50087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="385" spans="1:24" ht="16">
+    <row r="385" spans="1:24" ht="15.75">
       <c r="A385" s="38" t="s">
         <v>1408</v>
       </c>
@@ -49034,6 +50097,12 @@
       <c r="C385" s="24">
         <v>2014</v>
       </c>
+      <c r="D385" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E385" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F385" t="s">
         <v>736</v>
       </c>
@@ -49071,7 +50140,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="16">
+    <row r="386" spans="1:24" ht="15.75">
       <c r="A386" s="38" t="s">
         <v>2526</v>
       </c>
@@ -49081,6 +50150,12 @@
       <c r="C386" s="24">
         <v>2017</v>
       </c>
+      <c r="D386" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E386" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F386" t="s">
         <v>751</v>
       </c>
@@ -49115,7 +50190,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="387" spans="1:24" ht="16">
+    <row r="387" spans="1:24" ht="15.75">
       <c r="A387" s="38" t="s">
         <v>2526</v>
       </c>
@@ -49125,10 +50200,16 @@
       <c r="C387" s="24">
         <v>2018</v>
       </c>
+      <c r="D387" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E387" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F387" t="s">
         <v>740</v>
       </c>
-      <c r="G387" s="24" t="s">
+      <c r="G387" s="41" t="s">
         <v>2081</v>
       </c>
       <c r="H387" s="24" t="s">
@@ -49172,6 +50253,12 @@
       <c r="C388" s="24">
         <v>2011</v>
       </c>
+      <c r="D388" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E388" s="41" t="s">
+        <v>2490</v>
+      </c>
       <c r="F388" s="24" t="s">
         <v>762</v>
       </c>
@@ -49212,7 +50299,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="16">
+    <row r="389" spans="1:24" ht="15.75">
       <c r="A389" s="38" t="s">
         <v>2529</v>
       </c>
@@ -49221,6 +50308,12 @@
       </c>
       <c r="C389" s="24">
         <v>2014</v>
+      </c>
+      <c r="D389" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E389" s="41" t="s">
+        <v>2524</v>
       </c>
       <c r="F389" t="s">
         <v>769</v>
@@ -49281,6 +50374,9 @@
       <c r="C390" s="24">
         <v>2017</v>
       </c>
+      <c r="D390" s="36" t="s">
+        <v>2522</v>
+      </c>
       <c r="F390" s="24" t="s">
         <v>771</v>
       </c>
@@ -49318,7 +50414,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="391" spans="1:24" ht="16">
+    <row r="391" spans="1:24" ht="15.75">
       <c r="A391" s="38" t="s">
         <v>2531</v>
       </c>
@@ -49327,6 +50423,12 @@
       </c>
       <c r="C391" s="24">
         <v>2018</v>
+      </c>
+      <c r="D391" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E391" s="36" t="s">
+        <v>2610</v>
       </c>
       <c r="F391" t="s">
         <v>774</v>
@@ -49375,6 +50477,12 @@
       <c r="C392" s="24">
         <v>2012</v>
       </c>
+      <c r="D392" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E392" s="41" t="s">
+        <v>2075</v>
+      </c>
       <c r="F392" s="24" t="s">
         <v>776</v>
       </c>
@@ -49418,7 +50526,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="393" spans="1:24" ht="16">
+    <row r="393" spans="1:24" ht="15.75">
       <c r="A393" s="38" t="s">
         <v>2533</v>
       </c>
@@ -49428,6 +50536,12 @@
       <c r="C393" s="24">
         <v>2012</v>
       </c>
+      <c r="D393" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E393" s="41" t="s">
+        <v>2089</v>
+      </c>
       <c r="F393" t="s">
         <v>779</v>
       </c>
@@ -49462,7 +50576,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="394" spans="1:24" ht="16">
+    <row r="394" spans="1:24" ht="15.75">
       <c r="A394" s="38" t="s">
         <v>2537</v>
       </c>
@@ -49471,6 +50585,12 @@
       </c>
       <c r="C394" s="24">
         <v>2014</v>
+      </c>
+      <c r="D394" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E394" s="41" t="s">
+        <v>2074</v>
       </c>
       <c r="F394" t="s">
         <v>782</v>
@@ -49528,6 +50648,12 @@
       <c r="C395" s="24">
         <v>2016</v>
       </c>
+      <c r="D395" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E395" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F395" s="24" t="s">
         <v>785</v>
       </c>
@@ -49581,6 +50707,12 @@
       <c r="C396" s="24">
         <v>2015</v>
       </c>
+      <c r="D396" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E396" s="41" t="s">
+        <v>2488</v>
+      </c>
       <c r="F396" s="24" t="s">
         <v>811</v>
       </c>
@@ -49621,14 +50753,20 @@
         <v>813</v>
       </c>
     </row>
-    <row r="397" spans="1:24" ht="16">
+    <row r="397" spans="1:24" ht="15.75">
       <c r="A397" s="38" t="s">
         <v>810</v>
       </c>
       <c r="C397" s="24">
         <v>2017</v>
       </c>
-      <c r="F397" t="s">
+      <c r="D397" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E397" s="41" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F397" s="4" t="s">
         <v>1085</v>
       </c>
       <c r="G397" s="24" t="s">
@@ -49669,6 +50807,12 @@
       <c r="C398" s="24">
         <v>2015</v>
       </c>
+      <c r="D398" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E398" s="41" t="s">
+        <v>2488</v>
+      </c>
       <c r="F398" s="24" t="s">
         <v>832</v>
       </c>
@@ -49719,6 +50863,12 @@
       <c r="C399" s="24">
         <v>2015</v>
       </c>
+      <c r="D399" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E399" s="41" t="s">
+        <v>2489</v>
+      </c>
       <c r="F399" s="24" t="s">
         <v>833</v>
       </c>
@@ -49766,6 +50916,12 @@
       <c r="C400" s="24">
         <v>2018</v>
       </c>
+      <c r="D400" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E400" s="41" t="s">
+        <v>2074</v>
+      </c>
       <c r="F400" s="24" t="s">
         <v>846</v>
       </c>
@@ -49803,7 +50959,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="16">
+    <row r="401" spans="1:24" ht="15.75">
       <c r="A401" s="38" t="s">
         <v>852</v>
       </c>
@@ -49850,7 +51006,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="16">
+    <row r="402" spans="1:24" ht="15.75">
       <c r="A402" s="38" t="s">
         <v>1099</v>
       </c>
@@ -49882,7 +51038,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="16">
+    <row r="403" spans="1:24" ht="15.75">
       <c r="A403" s="38" t="s">
         <v>1099</v>
       </c>
@@ -49914,7 +51070,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="16">
+    <row r="404" spans="1:24" ht="15.75">
       <c r="A404" s="38" t="s">
         <v>862</v>
       </c>
@@ -49970,7 +51126,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="16">
+    <row r="405" spans="1:24" ht="15.75">
       <c r="A405" s="38" t="s">
         <v>862</v>
       </c>
@@ -50029,7 +51185,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="16">
+    <row r="406" spans="1:24" ht="15.75">
       <c r="A406" s="38" t="s">
         <v>862</v>
       </c>
@@ -50135,7 +51291,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="16">
+    <row r="408" spans="1:24" ht="15.75">
       <c r="A408" s="38" t="s">
         <v>862</v>
       </c>
@@ -50185,7 +51341,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="16">
+    <row r="409" spans="1:24" ht="15.75">
       <c r="A409" s="38" t="s">
         <v>862</v>
       </c>
@@ -50232,7 +51388,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="16">
+    <row r="410" spans="1:24" ht="15.75">
       <c r="A410" s="38" t="s">
         <v>862</v>
       </c>
@@ -50332,7 +51488,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="412" spans="1:24" ht="16">
+    <row r="412" spans="1:24" ht="15.75">
       <c r="A412" s="38" t="s">
         <v>862</v>
       </c>
@@ -50429,7 +51585,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="414" spans="1:24" ht="16">
+    <row r="414" spans="1:24" ht="15.75">
       <c r="A414" s="38" t="s">
         <v>862</v>
       </c>
@@ -50482,7 +51638,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="415" spans="1:24" ht="16">
+    <row r="415" spans="1:24" ht="15.75">
       <c r="A415" s="38" t="s">
         <v>862</v>
       </c>
@@ -50582,7 +51738,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="417" spans="1:24" ht="16">
+    <row r="417" spans="1:24" ht="15.75">
       <c r="A417" s="38" t="s">
         <v>862</v>
       </c>
@@ -50632,7 +51788,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="16">
+    <row r="418" spans="1:24" ht="15.75">
       <c r="A418" s="38" t="s">
         <v>862</v>
       </c>
@@ -50682,7 +51838,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="16">
+    <row r="419" spans="1:24" ht="15.75">
       <c r="A419" s="38" t="s">
         <v>862</v>
       </c>
@@ -50732,7 +51888,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="420" spans="1:24" ht="16">
+    <row r="420" spans="1:24" ht="15.75">
       <c r="A420" s="38" t="s">
         <v>862</v>
       </c>
@@ -50785,7 +51941,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="421" spans="1:24" ht="16">
+    <row r="421" spans="1:24" ht="15.75">
       <c r="A421" s="38" t="s">
         <v>862</v>
       </c>
@@ -50879,7 +52035,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="423" spans="1:24" ht="16">
+    <row r="423" spans="1:24" ht="15.75">
       <c r="A423" s="38" t="s">
         <v>862</v>
       </c>
@@ -50920,7 +52076,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="424" spans="1:24" ht="16">
+    <row r="424" spans="1:24" ht="15.75">
       <c r="A424" s="38" t="s">
         <v>862</v>
       </c>
@@ -51061,7 +52217,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="427" spans="1:24" ht="16">
+    <row r="427" spans="1:24" ht="15.75">
       <c r="A427" s="38" t="s">
         <v>862</v>
       </c>
@@ -51108,7 +52264,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="16">
+    <row r="428" spans="1:24" ht="15.75">
       <c r="A428" s="38" t="s">
         <v>862</v>
       </c>
@@ -51158,7 +52314,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="16">
+    <row r="429" spans="1:24" ht="15.75">
       <c r="A429" s="38" t="s">
         <v>862</v>
       </c>
@@ -51311,7 +52467,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="16">
+    <row r="432" spans="1:24" ht="15.75">
       <c r="A432" s="38" t="s">
         <v>862</v>
       </c>
@@ -51464,7 +52620,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="16">
+    <row r="435" spans="1:24" ht="15.75">
       <c r="A435" s="38" t="s">
         <v>862</v>
       </c>
@@ -51511,7 +52667,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="16">
+    <row r="436" spans="1:24" ht="15.75">
       <c r="A436" s="38" t="s">
         <v>862</v>
       </c>
@@ -51543,7 +52699,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="16">
+    <row r="437" spans="1:24" ht="15.75">
       <c r="A437" s="38" t="s">
         <v>862</v>
       </c>
@@ -51584,7 +52740,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="16">
+    <row r="438" spans="1:24" ht="15.75">
       <c r="A438" s="38" t="s">
         <v>862</v>
       </c>
@@ -51622,7 +52778,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="16">
+    <row r="439" spans="1:24" ht="15.75">
       <c r="A439" s="38" t="s">
         <v>941</v>
       </c>
@@ -51672,7 +52828,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="16">
+    <row r="440" spans="1:24" ht="15.75">
       <c r="A440" s="38" t="s">
         <v>2588</v>
       </c>
@@ -51725,7 +52881,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="16">
+    <row r="441" spans="1:24" ht="15.75">
       <c r="A441" s="38" t="s">
         <v>2565</v>
       </c>
@@ -51922,7 +53078,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="16">
+    <row r="445" spans="1:24" ht="15.75">
       <c r="A445" s="38" t="s">
         <v>192</v>
       </c>
@@ -52016,7 +53172,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="16">
+    <row r="447" spans="1:24" ht="15.75">
       <c r="A447" s="38" t="s">
         <v>231</v>
       </c>
@@ -52066,7 +53222,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="16">
+    <row r="448" spans="1:24" ht="15.75">
       <c r="A448" s="38" t="s">
         <v>231</v>
       </c>
@@ -52157,7 +53313,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="450" spans="1:24" ht="16">
+    <row r="450" spans="1:24" ht="15.75">
       <c r="A450" s="38" t="s">
         <v>231</v>
       </c>
@@ -52198,7 +53354,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="451" spans="1:24" ht="16">
+    <row r="451" spans="1:24" ht="15.75">
       <c r="A451" s="38" t="s">
         <v>231</v>
       </c>
@@ -52245,7 +53401,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="452" spans="1:24" ht="16">
+    <row r="452" spans="1:24" ht="15.75">
       <c r="A452" s="38" t="s">
         <v>231</v>
       </c>
@@ -52324,7 +53480,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="16">
+    <row r="454" spans="1:24" ht="15.75">
       <c r="A454" s="38" t="s">
         <v>403</v>
       </c>
@@ -52421,7 +53577,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="456" spans="1:24" ht="16">
+    <row r="456" spans="1:24" ht="15.75">
       <c r="A456" s="38" t="s">
         <v>484</v>
       </c>
@@ -52465,7 +53621,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="16">
+    <row r="457" spans="1:24" ht="15.75">
       <c r="A457" s="38" t="s">
         <v>484</v>
       </c>
@@ -52509,7 +53665,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="16">
+    <row r="458" spans="1:24" ht="15.75">
       <c r="A458" s="38" t="s">
         <v>484</v>
       </c>
@@ -52594,7 +53750,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="16">
+    <row r="460" spans="1:24" ht="15.75">
       <c r="A460" s="38" t="s">
         <v>561</v>
       </c>
@@ -52641,7 +53797,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="16">
+    <row r="461" spans="1:24" ht="15.75">
       <c r="A461" s="38" t="s">
         <v>561</v>
       </c>
@@ -52688,7 +53844,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="16">
+    <row r="462" spans="1:24" ht="15.75">
       <c r="A462" s="38" t="s">
         <v>561</v>
       </c>
@@ -52732,7 +53888,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="16">
+    <row r="463" spans="1:24" ht="15.75">
       <c r="A463" s="38" t="s">
         <v>561</v>
       </c>
@@ -52776,7 +53932,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="464" spans="1:24" ht="16">
+    <row r="464" spans="1:24" ht="15.75">
       <c r="A464" s="38" t="s">
         <v>561</v>
       </c>
@@ -52814,7 +53970,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="16">
+    <row r="465" spans="1:24" ht="15.75">
       <c r="A465" s="38" t="s">
         <v>561</v>
       </c>
@@ -52858,7 +54014,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="16">
+    <row r="466" spans="1:24" ht="15.75">
       <c r="A466" s="38" t="s">
         <v>561</v>
       </c>
@@ -52902,7 +54058,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="16">
+    <row r="467" spans="1:24" ht="15.75">
       <c r="A467" s="38" t="s">
         <v>561</v>
       </c>
@@ -52946,7 +54102,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="16">
+    <row r="468" spans="1:24" ht="15.75">
       <c r="A468" s="38" t="s">
         <v>561</v>
       </c>
@@ -52981,7 +54137,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="16">
+    <row r="469" spans="1:24" ht="15.75">
       <c r="A469" s="38" t="s">
         <v>561</v>
       </c>
@@ -53016,7 +54172,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="16">
+    <row r="470" spans="1:24" ht="15.75">
       <c r="A470" s="38" t="s">
         <v>561</v>
       </c>
@@ -53054,7 +54210,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="16">
+    <row r="471" spans="1:24" ht="15.75">
       <c r="A471" s="38" t="s">
         <v>561</v>
       </c>
@@ -53089,7 +54245,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="16">
+    <row r="472" spans="1:24" ht="15.75">
       <c r="A472" s="38" t="s">
         <v>561</v>
       </c>
@@ -53124,7 +54280,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="16">
+    <row r="473" spans="1:24" ht="15.75">
       <c r="A473" s="38" t="s">
         <v>561</v>
       </c>
@@ -53159,7 +54315,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="16">
+    <row r="474" spans="1:24" ht="15.75">
       <c r="A474" s="38" t="s">
         <v>561</v>
       </c>
@@ -53197,7 +54353,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="16">
+    <row r="475" spans="1:24" ht="15.75">
       <c r="A475" s="38" t="s">
         <v>613</v>
       </c>
@@ -53250,7 +54406,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="16">
+    <row r="476" spans="1:24" ht="15.75">
       <c r="A476" s="38" t="s">
         <v>613</v>
       </c>
@@ -53297,7 +54453,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="16">
+    <row r="477" spans="1:24" ht="15.75">
       <c r="A477" s="38" t="s">
         <v>613</v>
       </c>
@@ -53338,7 +54494,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="478" spans="1:24" ht="16">
+    <row r="478" spans="1:24" ht="15.75">
       <c r="A478" s="38" t="s">
         <v>613</v>
       </c>
@@ -53379,7 +54535,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="479" spans="1:24" ht="16">
+    <row r="479" spans="1:24" ht="15.75">
       <c r="A479" s="38" t="s">
         <v>613</v>
       </c>
@@ -53429,7 +54585,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="480" spans="1:24" ht="16">
+    <row r="480" spans="1:24" ht="15.75">
       <c r="A480" s="38" t="s">
         <v>613</v>
       </c>
@@ -53464,7 +54620,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="16">
+    <row r="481" spans="1:24" ht="15.75">
       <c r="A481" s="38" t="s">
         <v>613</v>
       </c>
@@ -53505,7 +54661,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="482" spans="1:24" ht="16">
+    <row r="482" spans="1:24" ht="15.75">
       <c r="A482" s="38" t="s">
         <v>2526</v>
       </c>
@@ -53552,7 +54708,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="16">
+    <row r="483" spans="1:24" ht="15.75">
       <c r="A483" s="38" t="s">
         <v>2526</v>
       </c>
@@ -53599,7 +54755,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="484" spans="1:24" ht="16">
+    <row r="484" spans="1:24" ht="15.75">
       <c r="A484" s="38" t="s">
         <v>2526</v>
       </c>
@@ -53646,7 +54802,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="485" spans="1:24" ht="16">
+    <row r="485" spans="1:24" ht="15.75">
       <c r="A485" s="38" t="s">
         <v>2537</v>
       </c>
@@ -53699,7 +54855,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="486" spans="1:24" ht="16">
+    <row r="486" spans="1:24" ht="15.75">
       <c r="A486" s="38" t="s">
         <v>2537</v>
       </c>
@@ -53746,7 +54902,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="16">
+    <row r="487" spans="1:24" ht="15.75">
       <c r="A487" s="38" t="s">
         <v>2537</v>
       </c>
@@ -53887,7 +55043,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="490" spans="1:24" ht="16">
+    <row r="490" spans="1:24" ht="15.75">
       <c r="A490" s="38" t="s">
         <v>810</v>
       </c>
@@ -53922,7 +55078,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="491" spans="1:24" ht="16">
+    <row r="491" spans="1:24" ht="15.75">
       <c r="A491" s="38" t="s">
         <v>810</v>
       </c>
@@ -53960,7 +55116,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="492" spans="1:24" ht="16">
+    <row r="492" spans="1:24" ht="15.75">
       <c r="A492" s="38" t="s">
         <v>810</v>
       </c>
@@ -54145,7 +55301,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="496" spans="1:24" ht="16">
+    <row r="496" spans="1:24" ht="15.75">
       <c r="A496" s="38" t="s">
         <v>820</v>
       </c>
@@ -54227,7 +55383,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="498" spans="1:24" ht="16">
+    <row r="498" spans="1:24" ht="15.75">
       <c r="A498" s="38" t="s">
         <v>862</v>
       </c>
@@ -54321,7 +55477,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="500" spans="1:24" ht="16">
+    <row r="500" spans="1:24" ht="15.75">
       <c r="A500" s="40" t="s">
         <v>2584</v>
       </c>
@@ -54415,7 +55571,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="502" spans="1:24" ht="16">
+    <row r="502" spans="1:24" ht="15.75">
       <c r="A502" s="38" t="s">
         <v>2585</v>
       </c>
@@ -54750,7 +55906,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="509" spans="1:24" ht="16">
+    <row r="509" spans="1:24" ht="15.75">
       <c r="A509" s="38" t="s">
         <v>315</v>
       </c>
@@ -54888,7 +56044,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="512" spans="1:24" ht="16">
+    <row r="512" spans="1:24" ht="15.75">
       <c r="A512" s="38" t="s">
         <v>729</v>
       </c>
@@ -54985,7 +56141,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="514" spans="1:24" ht="16">
+    <row r="514" spans="1:24" ht="15.75">
       <c r="A514" s="38" t="s">
         <v>2526</v>
       </c>
@@ -55026,7 +56182,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="515" spans="1:24" ht="16">
+    <row r="515" spans="1:24" ht="15.75">
       <c r="A515" s="38" t="s">
         <v>2526</v>
       </c>
@@ -55077,7 +56233,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="516" spans="1:24" ht="16">
+    <row r="516" spans="1:24" ht="15.75">
       <c r="A516" s="38" t="s">
         <v>2526</v>
       </c>
@@ -55121,7 +56277,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="517" spans="1:24" ht="16">
+    <row r="517" spans="1:24" ht="15.75">
       <c r="A517" s="38" t="s">
         <v>2526</v>
       </c>
@@ -55162,7 +56318,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="518" spans="1:24" ht="16">
+    <row r="518" spans="1:24" ht="15.75">
       <c r="A518" s="38" t="s">
         <v>2537</v>
       </c>
@@ -55262,7 +56418,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="520" spans="1:24" ht="16">
+    <row r="520" spans="1:24" ht="15.75">
       <c r="A520" s="38" t="s">
         <v>112</v>
       </c>
@@ -55294,7 +56450,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="521" spans="1:24" ht="16">
+    <row r="521" spans="1:24" ht="15.75">
       <c r="A521" s="38" t="s">
         <v>176</v>
       </c>
@@ -55338,7 +56494,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="522" spans="1:24" ht="16">
+    <row r="522" spans="1:24" ht="15.75">
       <c r="A522" s="38" t="s">
         <v>176</v>
       </c>
@@ -55370,7 +56526,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="523" spans="1:24" ht="16">
+    <row r="523" spans="1:24" ht="15.75">
       <c r="A523" s="38" t="s">
         <v>976</v>
       </c>
@@ -55414,7 +56570,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="524" spans="1:24" ht="16">
+    <row r="524" spans="1:24" ht="15.75">
       <c r="A524" s="38" t="s">
         <v>192</v>
       </c>
@@ -55443,7 +56599,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="525" spans="1:24" ht="16">
+    <row r="525" spans="1:24" ht="15.75">
       <c r="A525" s="38" t="s">
         <v>192</v>
       </c>
@@ -55484,29 +56640,41 @@
     <sortCondition ref="A2:A525"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B44" r:id="rId1" display="https://doi.org/10.1016/j.trstmh.2004.02.007" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="W97" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC421731/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="W472" r:id="rId3" display="https://data.mendeley.com/datasets/vch6n3pd8f/1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F83" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F96" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F140" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F209" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F219" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B44" r:id="rId1" display="https://doi.org/10.1016/j.trstmh.2004.02.007"/>
+    <hyperlink ref="W97" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC421731/"/>
+    <hyperlink ref="W472" r:id="rId3" display="https://data.mendeley.com/datasets/vch6n3pd8f/1"/>
+    <hyperlink ref="F83" r:id="rId4"/>
+    <hyperlink ref="F96" r:id="rId5"/>
+    <hyperlink ref="F140" r:id="rId6"/>
+    <hyperlink ref="F209" r:id="rId7"/>
+    <hyperlink ref="F219" r:id="rId8"/>
+    <hyperlink ref="F224" r:id="rId9"/>
+    <hyperlink ref="F270" r:id="rId10"/>
+    <hyperlink ref="F246" r:id="rId11"/>
+    <hyperlink ref="F306" r:id="rId12"/>
+    <hyperlink ref="F319" r:id="rId13"/>
+    <hyperlink ref="F325" r:id="rId14"/>
+    <hyperlink ref="F337" r:id="rId15"/>
+    <hyperlink ref="F344" r:id="rId16"/>
+    <hyperlink ref="F366" r:id="rId17"/>
+    <hyperlink ref="F379" r:id="rId18"/>
+    <hyperlink ref="F384" r:id="rId19"/>
+    <hyperlink ref="F397" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -56731,17 +57899,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D20" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D21" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D22" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D23" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D24" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D25" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D26" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D27" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D32" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D34" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D19" r:id="rId1"/>
+    <hyperlink ref="D20" r:id="rId2"/>
+    <hyperlink ref="D21" r:id="rId3"/>
+    <hyperlink ref="D22" r:id="rId4"/>
+    <hyperlink ref="D23" r:id="rId5"/>
+    <hyperlink ref="D24" r:id="rId6"/>
+    <hyperlink ref="D25" r:id="rId7"/>
+    <hyperlink ref="D26" r:id="rId8"/>
+    <hyperlink ref="D27" r:id="rId9"/>
+    <hyperlink ref="D32" r:id="rId10"/>
+    <hyperlink ref="D34" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -56749,21 +57917,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="19" customWidth="1"/>
+    <col min="2" max="3" width="12.1875" customWidth="1"/>
+    <col min="4" max="4" width="37.3125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -56777,7 +57945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51">
+    <row r="2" spans="1:4" ht="47.25">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -56791,7 +57959,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17">
+    <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
         <v>958</v>
       </c>
@@ -56805,7 +57973,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32">
+    <row r="4" spans="1:4" ht="28.9">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -56819,7 +57987,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -56833,7 +58001,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="68">
+    <row r="6" spans="1:4" ht="63">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -56847,7 +58015,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="85">
+    <row r="7" spans="1:4" ht="78.75">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -56861,7 +58029,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="187">
+    <row r="8" spans="1:4" ht="157.5">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -56875,7 +58043,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="170">
+    <row r="9" spans="1:4" ht="141.75">
       <c r="A9" s="5" t="s">
         <v>79</v>
       </c>
@@ -56889,7 +58057,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34">
+    <row r="10" spans="1:4" ht="31.5">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -56903,7 +58071,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="372">
+    <row r="11" spans="1:4" ht="346.5">
       <c r="A11" s="6" t="s">
         <v>176</v>
       </c>
@@ -56917,7 +58085,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="68">
+    <row r="12" spans="1:4" ht="63">
       <c r="A12" s="6" t="s">
         <v>192</v>
       </c>
@@ -56931,7 +58099,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="409.6">
+    <row r="13" spans="1:4" ht="409.5">
       <c r="A13" s="6" t="s">
         <v>192</v>
       </c>
@@ -56945,7 +58113,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="119">
+    <row r="14" spans="1:4" ht="94.5">
       <c r="A14" s="6" t="s">
         <v>231</v>
       </c>
@@ -56959,7 +58127,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="272">
+    <row r="15" spans="1:4" ht="252">
       <c r="A15" s="5" t="s">
         <v>281</v>
       </c>
@@ -56973,7 +58141,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="409.6">
+    <row r="16" spans="1:4" ht="409.5">
       <c r="A16" s="16" t="s">
         <v>315</v>
       </c>
@@ -56987,7 +58155,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="409.6">
+    <row r="17" spans="1:4" ht="393.75">
       <c r="A17" s="5" t="s">
         <v>1434</v>
       </c>
@@ -57001,7 +58169,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17">
+    <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>343</v>
       </c>
@@ -57015,7 +58183,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17">
+    <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>343</v>
       </c>
@@ -57029,7 +58197,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="323">
+    <row r="20" spans="1:4" ht="283.5">
       <c r="A20" s="6" t="s">
         <v>343</v>
       </c>
@@ -57043,7 +58211,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="102">
+    <row r="21" spans="1:4" ht="94.5">
       <c r="A21" s="5" t="s">
         <v>368</v>
       </c>
@@ -57057,7 +58225,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="323">
+    <row r="22" spans="1:4" ht="283.5">
       <c r="A22" s="5" t="s">
         <v>383</v>
       </c>
@@ -57071,7 +58239,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="102">
+    <row r="23" spans="1:4" ht="94.5">
       <c r="A23" s="6" t="s">
         <v>403</v>
       </c>
@@ -57085,7 +58253,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="170">
+    <row r="24" spans="1:4" ht="141.75">
       <c r="A24" s="6" t="s">
         <v>403</v>
       </c>
@@ -57099,7 +58267,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="289">
+    <row r="25" spans="1:4" ht="267.75">
       <c r="A25" s="6" t="s">
         <v>403</v>
       </c>
@@ -57113,7 +58281,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="204">
+    <row r="26" spans="1:4" ht="189">
       <c r="A26" s="6" t="s">
         <v>403</v>
       </c>
@@ -57127,7 +58295,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="119">
+    <row r="27" spans="1:4" ht="110.25">
       <c r="A27" s="6" t="s">
         <v>403</v>
       </c>
@@ -57141,7 +58309,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17">
+    <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
         <v>403</v>
       </c>
@@ -57155,7 +58323,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17">
+    <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
         <v>403</v>
       </c>
@@ -57169,7 +58337,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="102">
+    <row r="30" spans="1:4" ht="94.5">
       <c r="A30" s="6" t="s">
         <v>403</v>
       </c>
@@ -57183,7 +58351,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="153">
+    <row r="31" spans="1:4" ht="141.75">
       <c r="A31" s="6" t="s">
         <v>484</v>
       </c>
@@ -57197,7 +58365,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="85">
+    <row r="32" spans="1:4" ht="78.75">
       <c r="A32" s="6" t="s">
         <v>484</v>
       </c>
@@ -57211,7 +58379,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="136">
+    <row r="33" spans="1:4" ht="126">
       <c r="A33" s="6" t="s">
         <v>484</v>
       </c>
@@ -57225,7 +58393,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="102">
+    <row r="34" spans="1:4" ht="78.75">
       <c r="A34" s="5" t="s">
         <v>1411</v>
       </c>
@@ -57239,7 +58407,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="51">
+    <row r="35" spans="1:4" ht="47.25">
       <c r="A35" s="6" t="s">
         <v>678</v>
       </c>
@@ -57253,7 +58421,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="409.6">
+    <row r="36" spans="1:4" ht="409.5">
       <c r="A36" s="5" t="s">
         <v>1414</v>
       </c>
@@ -57267,7 +58435,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="68">
+    <row r="37" spans="1:4" ht="47.25">
       <c r="A37" s="5" t="s">
         <v>717</v>
       </c>
@@ -57281,7 +58449,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="204">
+    <row r="38" spans="1:4" ht="173.25">
       <c r="A38" s="5" t="s">
         <v>721</v>
       </c>
@@ -57295,7 +58463,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="187">
+    <row r="39" spans="1:4" ht="173.25">
       <c r="A39" s="5" t="s">
         <v>721</v>
       </c>
@@ -57309,7 +58477,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="68">
+    <row r="40" spans="1:4" ht="47.25">
       <c r="A40" s="6" t="s">
         <v>729</v>
       </c>
@@ -57323,7 +58491,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="85">
+    <row r="41" spans="1:4" ht="78.75">
       <c r="A41" s="5" t="s">
         <v>737</v>
       </c>
@@ -57337,7 +58505,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="85">
+    <row r="42" spans="1:4" ht="63">
       <c r="A42" s="5" t="s">
         <v>737</v>
       </c>
@@ -57351,7 +58519,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="85">
+    <row r="43" spans="1:4" ht="78.75">
       <c r="A43" s="5" t="s">
         <v>737</v>
       </c>
@@ -57365,7 +58533,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="85">
+    <row r="44" spans="1:4" ht="78.75">
       <c r="A44" s="5" t="s">
         <v>737</v>
       </c>
@@ -57379,7 +58547,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="68">
+    <row r="45" spans="1:4" ht="63">
       <c r="A45" s="5" t="s">
         <v>737</v>
       </c>
@@ -57393,7 +58561,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="289">
+    <row r="46" spans="1:4" ht="267.75">
       <c r="A46" s="5" t="s">
         <v>737</v>
       </c>
@@ -57407,7 +58575,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="388">
+    <row r="47" spans="1:4" ht="362.25">
       <c r="A47" s="5" t="s">
         <v>737</v>
       </c>
@@ -57421,7 +58589,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="85">
+    <row r="48" spans="1:4" ht="78.75">
       <c r="A48" s="5" t="s">
         <v>737</v>
       </c>
@@ -57435,7 +58603,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="85">
+    <row r="49" spans="1:4" ht="78.75">
       <c r="A49" s="5" t="s">
         <v>737</v>
       </c>
@@ -57449,7 +58617,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="409.6">
+    <row r="50" spans="1:4" ht="409.5">
       <c r="A50" s="5" t="s">
         <v>767</v>
       </c>
@@ -57463,7 +58631,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="136">
+    <row r="51" spans="1:4" ht="110.25">
       <c r="A51" s="5" t="s">
         <v>770</v>
       </c>
@@ -57477,7 +58645,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17">
+    <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
         <v>1436</v>
       </c>
@@ -57491,7 +58659,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="289">
+    <row r="53" spans="1:4" ht="267.75">
       <c r="A53" s="5" t="s">
         <v>780</v>
       </c>
@@ -57505,7 +58673,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="289">
+    <row r="54" spans="1:4" ht="267.75">
       <c r="A54" s="5" t="s">
         <v>1437</v>
       </c>
@@ -57519,7 +58687,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="119">
+    <row r="55" spans="1:4" ht="110.25">
       <c r="A55" s="5" t="s">
         <v>1422</v>
       </c>
@@ -57533,7 +58701,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="85">
+    <row r="56" spans="1:4" ht="78.75">
       <c r="A56" s="10" t="s">
         <v>862</v>
       </c>
@@ -57547,7 +58715,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="136">
+    <row r="57" spans="1:4" ht="126">
       <c r="A57" s="6" t="s">
         <v>862</v>
       </c>
@@ -57561,7 +58729,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="68">
+    <row r="58" spans="1:4" ht="63">
       <c r="A58" s="6" t="s">
         <v>862</v>
       </c>
@@ -57575,7 +58743,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="68">
+    <row r="59" spans="1:4" ht="47.25">
       <c r="A59" s="6" t="s">
         <v>862</v>
       </c>
@@ -57589,7 +58757,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="153">
+    <row r="60" spans="1:4" ht="141.75">
       <c r="A60" s="6" t="s">
         <v>862</v>
       </c>
@@ -57603,7 +58771,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="85">
+    <row r="61" spans="1:4" ht="78.75">
       <c r="A61" s="6" t="s">
         <v>862</v>
       </c>
@@ -57617,7 +58785,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="68">
+    <row r="62" spans="1:4" ht="63">
       <c r="A62" s="6" t="s">
         <v>862</v>
       </c>
@@ -57631,7 +58799,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="102">
+    <row r="63" spans="1:4" ht="94.5">
       <c r="A63" s="6" t="s">
         <v>862</v>
       </c>
@@ -57645,7 +58813,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="119">
+    <row r="64" spans="1:4" ht="110.25">
       <c r="A64" s="6" t="s">
         <v>862</v>
       </c>
@@ -57659,7 +58827,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="34">
+    <row r="65" spans="1:4" ht="31.5">
       <c r="A65" s="6" t="s">
         <v>862</v>
       </c>
@@ -57673,7 +58841,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="68">
+    <row r="66" spans="1:4" ht="63">
       <c r="A66" s="6" t="s">
         <v>862</v>
       </c>
@@ -57687,7 +58855,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="187">
+    <row r="67" spans="1:4" ht="173.25">
       <c r="A67" s="6" t="s">
         <v>862</v>
       </c>
@@ -57701,7 +58869,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="187">
+    <row r="68" spans="1:4" ht="173.25">
       <c r="A68" s="6" t="s">
         <v>862</v>
       </c>
@@ -57715,7 +58883,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="119">
+    <row r="69" spans="1:4" ht="110.25">
       <c r="A69" s="6" t="s">
         <v>862</v>
       </c>
@@ -57729,7 +58897,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="85">
+    <row r="70" spans="1:4" ht="78.75">
       <c r="A70" s="6" t="s">
         <v>862</v>
       </c>
@@ -57743,7 +58911,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="85">
+    <row r="71" spans="1:4" ht="78.75">
       <c r="A71" s="6" t="s">
         <v>862</v>
       </c>
@@ -57757,7 +58925,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="102">
+    <row r="72" spans="1:4" ht="94.5">
       <c r="A72" s="6" t="s">
         <v>862</v>
       </c>
@@ -57771,7 +58939,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="51">
+    <row r="73" spans="1:4" ht="47.25">
       <c r="A73" s="6" t="s">
         <v>862</v>
       </c>
@@ -57785,7 +58953,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="85">
+    <row r="74" spans="1:4" ht="78.75">
       <c r="A74" s="6" t="s">
         <v>862</v>
       </c>
@@ -57799,7 +58967,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17">
+    <row r="75" spans="1:4">
       <c r="A75" s="6" t="s">
         <v>862</v>
       </c>
@@ -57813,7 +58981,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="85">
+    <row r="76" spans="1:4" ht="78.75">
       <c r="A76" s="6" t="s">
         <v>862</v>
       </c>
@@ -57827,7 +58995,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="68">
+    <row r="77" spans="1:4" ht="63">
       <c r="A77" s="11" t="s">
         <v>862</v>
       </c>
@@ -57841,7 +59009,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="136">
+    <row r="78" spans="1:4" ht="126">
       <c r="A78" s="5" t="s">
         <v>1516</v>
       </c>
@@ -57855,7 +59023,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="51">
+    <row r="79" spans="1:4" ht="31.5">
       <c r="A79" s="11" t="s">
         <v>1263</v>
       </c>
@@ -57871,65 +59039,65 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B43" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B22" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B23" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B59" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B26" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="B2" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="B38" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B37" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="B47" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B75" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="B30" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B27" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="B25" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="B24" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="B60" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="B70" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="B71" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="B72" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="B68" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="B65" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="B61" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="B62" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="B63" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="B64" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="B33" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="B57" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="B49" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="B48" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="B34" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="B46" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="B45" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="B44" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="B42" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="B41" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="B50" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="B32" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="B31" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="B18" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="B3" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="B56" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="B53" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="B78" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="D5" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="B11" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="B12" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="B13" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="B14" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="D18" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="D19" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="D28" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="D29" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="D52" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="D75" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="B76" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="B43" r:id="rId1"/>
+    <hyperlink ref="B22" r:id="rId2"/>
+    <hyperlink ref="B23" r:id="rId3"/>
+    <hyperlink ref="B59" r:id="rId4"/>
+    <hyperlink ref="B29" r:id="rId5"/>
+    <hyperlink ref="B26" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B38" r:id="rId10"/>
+    <hyperlink ref="B37" r:id="rId11"/>
+    <hyperlink ref="B47" r:id="rId12"/>
+    <hyperlink ref="B75" r:id="rId13"/>
+    <hyperlink ref="B30" r:id="rId14"/>
+    <hyperlink ref="B27" r:id="rId15"/>
+    <hyperlink ref="B25" r:id="rId16"/>
+    <hyperlink ref="B24" r:id="rId17"/>
+    <hyperlink ref="B60" r:id="rId18"/>
+    <hyperlink ref="B70" r:id="rId19"/>
+    <hyperlink ref="B71" r:id="rId20"/>
+    <hyperlink ref="B72" r:id="rId21"/>
+    <hyperlink ref="B68" r:id="rId22"/>
+    <hyperlink ref="B65" r:id="rId23"/>
+    <hyperlink ref="B61" r:id="rId24"/>
+    <hyperlink ref="B62" r:id="rId25"/>
+    <hyperlink ref="B63" r:id="rId26"/>
+    <hyperlink ref="B64" r:id="rId27"/>
+    <hyperlink ref="B33" r:id="rId28"/>
+    <hyperlink ref="B57" r:id="rId29"/>
+    <hyperlink ref="B49" r:id="rId30"/>
+    <hyperlink ref="B48" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B46" r:id="rId33"/>
+    <hyperlink ref="B45" r:id="rId34"/>
+    <hyperlink ref="B44" r:id="rId35"/>
+    <hyperlink ref="B40" r:id="rId36"/>
+    <hyperlink ref="B42" r:id="rId37"/>
+    <hyperlink ref="B41" r:id="rId38"/>
+    <hyperlink ref="B50" r:id="rId39"/>
+    <hyperlink ref="B32" r:id="rId40"/>
+    <hyperlink ref="B31" r:id="rId41"/>
+    <hyperlink ref="B18" r:id="rId42"/>
+    <hyperlink ref="B3" r:id="rId43"/>
+    <hyperlink ref="B56" r:id="rId44"/>
+    <hyperlink ref="B53" r:id="rId45"/>
+    <hyperlink ref="B78" r:id="rId46"/>
+    <hyperlink ref="D5" r:id="rId47"/>
+    <hyperlink ref="B11" r:id="rId48"/>
+    <hyperlink ref="B12" r:id="rId49"/>
+    <hyperlink ref="B13" r:id="rId50"/>
+    <hyperlink ref="B14" r:id="rId51"/>
+    <hyperlink ref="D18" r:id="rId52"/>
+    <hyperlink ref="D19" r:id="rId53"/>
+    <hyperlink ref="D28" r:id="rId54"/>
+    <hyperlink ref="D29" r:id="rId55"/>
+    <hyperlink ref="D52" r:id="rId56"/>
+    <hyperlink ref="B66" r:id="rId57"/>
+    <hyperlink ref="D75" r:id="rId58"/>
+    <hyperlink ref="B76" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId60"/>

--- a/Lit review data/lit review master COMBINED.xlsx
+++ b/Lit review data/lit review master COMBINED.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15659" uniqueCount="2611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8651" uniqueCount="2611">
   <si>
     <t>Latin name</t>
   </si>
@@ -28638,9 +28638,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28906,107 +28913,110 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -29326,9 +29336,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="93" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D401" sqref="D401"/>
+      <selection pane="topRight" activeCell="E424" sqref="E424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -50966,6 +50976,12 @@
       <c r="C401" s="24">
         <v>2016</v>
       </c>
+      <c r="D401" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E401" s="44" t="s">
+        <v>2074</v>
+      </c>
       <c r="F401" t="s">
         <v>1094</v>
       </c>
@@ -51013,6 +51029,12 @@
       <c r="C402" s="24">
         <v>2008</v>
       </c>
+      <c r="D402" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E402" s="44" t="s">
+        <v>2490</v>
+      </c>
       <c r="F402" t="s">
         <v>1103</v>
       </c>
@@ -51045,6 +51067,12 @@
       <c r="C403" s="24">
         <v>2012</v>
       </c>
+      <c r="D403" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E403" s="44" t="s">
+        <v>2490</v>
+      </c>
       <c r="F403" t="s">
         <v>1100</v>
       </c>
@@ -51080,6 +51108,12 @@
       <c r="C404" s="24">
         <v>2014</v>
       </c>
+      <c r="D404" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E404" s="44" t="s">
+        <v>2492</v>
+      </c>
       <c r="F404" t="s">
         <v>933</v>
       </c>
@@ -51136,6 +51170,12 @@
       <c r="C405" s="24">
         <v>2011</v>
       </c>
+      <c r="D405" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E405" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F405" t="s">
         <v>897</v>
       </c>
@@ -51195,6 +51235,12 @@
       <c r="C406" s="24">
         <v>2003</v>
       </c>
+      <c r="D406" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E406" s="44" t="s">
+        <v>2074</v>
+      </c>
       <c r="F406" t="s">
         <v>928</v>
       </c>
@@ -51248,6 +51294,12 @@
       <c r="C407" s="24">
         <v>2011</v>
       </c>
+      <c r="D407" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E407" s="44" t="s">
+        <v>2089</v>
+      </c>
       <c r="F407" s="24" t="s">
         <v>863</v>
       </c>
@@ -51301,7 +51353,13 @@
       <c r="C408" s="24">
         <v>2011</v>
       </c>
-      <c r="F408" t="s">
+      <c r="D408" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E408" s="44" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F408" s="4" t="s">
         <v>868</v>
       </c>
       <c r="G408" s="24" t="s">
@@ -51351,6 +51409,12 @@
       <c r="C409" s="24">
         <v>2013</v>
       </c>
+      <c r="D409" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E409" s="44" t="s">
+        <v>2075</v>
+      </c>
       <c r="F409" t="s">
         <v>917</v>
       </c>
@@ -51398,6 +51462,12 @@
       <c r="C410" s="24">
         <v>2013</v>
       </c>
+      <c r="D410" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E410" s="44" t="s">
+        <v>2075</v>
+      </c>
       <c r="F410" t="s">
         <v>918</v>
       </c>
@@ -51448,6 +51518,12 @@
       <c r="C411" s="24">
         <v>2015</v>
       </c>
+      <c r="D411" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E411" s="44" t="s">
+        <v>2074</v>
+      </c>
       <c r="F411" s="24" t="s">
         <v>875</v>
       </c>
@@ -51498,6 +51574,12 @@
       <c r="C412" s="24">
         <v>2015</v>
       </c>
+      <c r="D412" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E412" s="44" t="s">
+        <v>2075</v>
+      </c>
       <c r="F412" t="s">
         <v>911</v>
       </c>
@@ -51548,6 +51630,12 @@
       <c r="C413" s="24">
         <v>2017</v>
       </c>
+      <c r="D413" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E413" s="44" t="s">
+        <v>2089</v>
+      </c>
       <c r="F413" s="24" t="s">
         <v>883</v>
       </c>
@@ -51595,6 +51683,12 @@
       <c r="C414" s="24">
         <v>2017</v>
       </c>
+      <c r="D414" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E414" s="44" t="s">
+        <v>2074</v>
+      </c>
       <c r="F414" t="s">
         <v>902</v>
       </c>
@@ -51648,6 +51742,12 @@
       <c r="C415" s="24">
         <v>2017</v>
       </c>
+      <c r="D415" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E415" s="44" t="s">
+        <v>2075</v>
+      </c>
       <c r="F415" t="s">
         <v>909</v>
       </c>
@@ -51698,6 +51798,12 @@
       <c r="C416" s="24">
         <v>2018</v>
       </c>
+      <c r="D416" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E416" s="44" t="s">
+        <v>2089</v>
+      </c>
       <c r="F416" s="24" t="s">
         <v>891</v>
       </c>
@@ -51748,6 +51854,12 @@
       <c r="C417" s="24">
         <v>2018</v>
       </c>
+      <c r="D417" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E417" s="44" t="s">
+        <v>2596</v>
+      </c>
       <c r="F417" t="s">
         <v>892</v>
       </c>
@@ -51798,6 +51910,12 @@
       <c r="C418" s="24">
         <v>2018</v>
       </c>
+      <c r="D418" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E418" s="44" t="s">
+        <v>2075</v>
+      </c>
       <c r="F418" t="s">
         <v>901</v>
       </c>
@@ -51848,6 +51966,12 @@
       <c r="C419" s="24">
         <v>2007</v>
       </c>
+      <c r="D419" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E419" s="44" t="s">
+        <v>2492</v>
+      </c>
       <c r="F419" t="s">
         <v>926</v>
       </c>
@@ -51898,6 +52022,12 @@
       <c r="C420" s="24">
         <v>2012</v>
       </c>
+      <c r="D420" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E420" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F420" t="s">
         <v>870</v>
       </c>
@@ -51951,6 +52081,12 @@
       <c r="C421" s="24">
         <v>2012</v>
       </c>
+      <c r="D421" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E421" s="44" t="s">
+        <v>2490</v>
+      </c>
       <c r="F421" t="s">
         <v>921</v>
       </c>
@@ -51995,6 +52131,12 @@
       <c r="C422" s="24">
         <v>2013</v>
       </c>
+      <c r="D422" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E422" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F422" s="24" t="s">
         <v>945</v>
       </c>
@@ -52045,6 +52187,12 @@
       <c r="C423" s="24">
         <v>2014</v>
       </c>
+      <c r="D423" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E423" s="44" t="s">
+        <v>2074</v>
+      </c>
       <c r="F423" t="s">
         <v>332</v>
       </c>
@@ -52086,6 +52234,9 @@
       <c r="C424" s="24">
         <v>2014</v>
       </c>
+      <c r="D424" s="36" t="s">
+        <v>2522</v>
+      </c>
       <c r="F424" t="s">
         <v>334</v>
       </c>
@@ -52132,6 +52283,12 @@
       </c>
       <c r="C425" s="24">
         <v>2014</v>
+      </c>
+      <c r="D425" s="44" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E425" s="44" t="s">
+        <v>2129</v>
       </c>
       <c r="F425" s="24" t="s">
         <v>872</v>
@@ -56660,9 +56817,10 @@
     <hyperlink ref="F379" r:id="rId18"/>
     <hyperlink ref="F384" r:id="rId19"/>
     <hyperlink ref="F397" r:id="rId20"/>
+    <hyperlink ref="F408" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/Lit review data/lit review master COMBINED.xlsx
+++ b/Lit review data/lit review master COMBINED.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8651" uniqueCount="2611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8845" uniqueCount="2617">
   <si>
     <t>Latin name</t>
   </si>
@@ -28632,15 +28632,40 @@
   </si>
   <si>
     <t>miscellaneous?</t>
+  </si>
+  <si>
+    <t>cjc flag - no map</t>
+  </si>
+  <si>
+    <t>prevalence mapping, risk mapping, ecological niche modeling</t>
+  </si>
+  <si>
+    <t>cjc flag - no worms</t>
+  </si>
+  <si>
+    <t>cjc flag - priorities</t>
+  </si>
+  <si>
+    <t>cjc flag - no original (but priorities)</t>
+  </si>
+  <si>
+    <t>cjc flag - unavailable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28893,6 +28918,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -28913,110 +28946,116 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -29336,16 +29375,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="93" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E424" sqref="E424"/>
+      <selection pane="topRight" activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="38" style="38" customWidth="1"/>
     <col min="2" max="2" width="11" style="32"/>
-    <col min="3" max="4" width="11" style="24"/>
+    <col min="3" max="3" width="11" style="24"/>
+    <col min="4" max="4" width="44.25" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.6875" style="24" customWidth="1"/>
     <col min="6" max="6" width="11" style="24"/>
     <col min="7" max="7" width="45.6875" style="24" customWidth="1"/>
@@ -31013,6 +31053,12 @@
       <c r="C31" s="24">
         <v>2010</v>
       </c>
+      <c r="D31" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F31" t="s">
         <v>1015</v>
       </c>
@@ -35793,6 +35839,9 @@
       <c r="C118" s="24">
         <v>1996</v>
       </c>
+      <c r="D118" s="36" t="s">
+        <v>2616</v>
+      </c>
       <c r="F118" t="s">
         <v>1079</v>
       </c>
@@ -39077,6 +39126,9 @@
       <c r="C176" s="24">
         <v>2004</v>
       </c>
+      <c r="D176" s="36" t="s">
+        <v>2498</v>
+      </c>
       <c r="F176" t="s">
         <v>1117</v>
       </c>
@@ -39158,6 +39210,9 @@
       </c>
       <c r="C178" s="24">
         <v>2012</v>
+      </c>
+      <c r="D178" s="36" t="s">
+        <v>2498</v>
       </c>
       <c r="F178" t="s">
         <v>1114</v>
@@ -52340,6 +52395,12 @@
       <c r="C426" s="24">
         <v>2015</v>
       </c>
+      <c r="D426" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E426" s="45" t="s">
+        <v>2495</v>
+      </c>
       <c r="F426" s="24" t="s">
         <v>876</v>
       </c>
@@ -52384,6 +52445,12 @@
       <c r="C427" s="24">
         <v>2015</v>
       </c>
+      <c r="D427" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E427" s="45" t="s">
+        <v>2089</v>
+      </c>
       <c r="F427" t="s">
         <v>913</v>
       </c>
@@ -52431,6 +52498,9 @@
       <c r="C428" s="24">
         <v>2016</v>
       </c>
+      <c r="D428" s="36" t="s">
+        <v>2611</v>
+      </c>
       <c r="F428" t="s">
         <v>931</v>
       </c>
@@ -52481,6 +52551,12 @@
       <c r="C429" s="24">
         <v>2016</v>
       </c>
+      <c r="D429" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E429" s="45" t="s">
+        <v>2490</v>
+      </c>
       <c r="F429" t="s">
         <v>934</v>
       </c>
@@ -52531,6 +52607,9 @@
       <c r="C430" s="24">
         <v>2017</v>
       </c>
+      <c r="D430" s="36" t="s">
+        <v>2522</v>
+      </c>
       <c r="F430" s="24" t="s">
         <v>879</v>
       </c>
@@ -52581,6 +52660,12 @@
       <c r="C431" s="24">
         <v>2017</v>
       </c>
+      <c r="D431" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E431" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F431" s="24" t="s">
         <v>885</v>
       </c>
@@ -52634,6 +52719,12 @@
       <c r="C432" s="24">
         <v>2017</v>
       </c>
+      <c r="D432" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E432" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F432" t="s">
         <v>905</v>
       </c>
@@ -52684,6 +52775,9 @@
       <c r="C433" s="24">
         <v>2018</v>
       </c>
+      <c r="D433" s="36" t="s">
+        <v>2611</v>
+      </c>
       <c r="F433" s="24" t="s">
         <v>887</v>
       </c>
@@ -52734,6 +52828,12 @@
       <c r="C434" s="24">
         <v>2018</v>
       </c>
+      <c r="D434" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E434" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F434" s="24" t="s">
         <v>951</v>
       </c>
@@ -52784,7 +52884,13 @@
       <c r="C435" s="24">
         <v>2019</v>
       </c>
-      <c r="F435" t="s">
+      <c r="D435" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E435" s="45" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F435" s="4" t="s">
         <v>1111</v>
       </c>
       <c r="G435" s="24" t="s">
@@ -52831,6 +52937,12 @@
       <c r="C436" s="24">
         <v>2001</v>
       </c>
+      <c r="D436" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E436" s="45" t="s">
+        <v>2492</v>
+      </c>
       <c r="F436" t="s">
         <v>1119</v>
       </c>
@@ -52863,6 +52975,12 @@
       <c r="C437" s="24">
         <v>2005</v>
       </c>
+      <c r="D437" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E437" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F437" t="s">
         <v>1118</v>
       </c>
@@ -52904,6 +53022,12 @@
       <c r="C438" s="24">
         <v>2012</v>
       </c>
+      <c r="D438" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E438" s="45" t="s">
+        <v>2075</v>
+      </c>
       <c r="F438" t="s">
         <v>1112</v>
       </c>
@@ -52945,6 +53069,12 @@
       <c r="C439" s="24">
         <v>2018</v>
       </c>
+      <c r="D439" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E439" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F439" t="s">
         <v>943</v>
       </c>
@@ -52995,6 +53125,12 @@
       <c r="C440" s="24">
         <v>2013</v>
       </c>
+      <c r="D440" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E440" s="45" t="s">
+        <v>2075</v>
+      </c>
       <c r="F440" t="s">
         <v>938</v>
       </c>
@@ -53045,6 +53181,12 @@
       <c r="C441" s="24">
         <v>2014</v>
       </c>
+      <c r="D441" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E441" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F441" t="s">
         <v>968</v>
       </c>
@@ -53097,6 +53239,12 @@
       </c>
       <c r="C442" s="24">
         <v>2017</v>
+      </c>
+      <c r="D442" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E442" s="45" t="s">
+        <v>2490</v>
       </c>
       <c r="F442" s="24" t="s">
         <v>170</v>
@@ -53147,6 +53295,12 @@
       <c r="C443" s="24">
         <v>2017</v>
       </c>
+      <c r="D443" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E443" s="45" t="s">
+        <v>2516</v>
+      </c>
       <c r="F443" s="27" t="s">
         <v>185</v>
       </c>
@@ -53194,6 +53348,12 @@
       <c r="C444" s="24">
         <v>2018</v>
       </c>
+      <c r="D444" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E444" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F444" s="24" t="s">
         <v>189</v>
       </c>
@@ -53242,6 +53402,12 @@
       <c r="C445" s="24">
         <v>2011</v>
       </c>
+      <c r="D445" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E445" s="45" t="s">
+        <v>2082</v>
+      </c>
       <c r="F445" t="s">
         <v>979</v>
       </c>
@@ -53292,6 +53458,12 @@
       <c r="C446" s="24">
         <v>2018</v>
       </c>
+      <c r="D446" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E446" s="45" t="s">
+        <v>2492</v>
+      </c>
       <c r="F446" s="24" t="s">
         <v>212</v>
       </c>
@@ -53339,6 +53511,12 @@
       <c r="C447" s="24">
         <v>2012</v>
       </c>
+      <c r="D447" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E447" s="45" t="s">
+        <v>2503</v>
+      </c>
       <c r="F447" t="s">
         <v>272</v>
       </c>
@@ -53386,6 +53564,12 @@
       <c r="C448" s="24">
         <v>2015</v>
       </c>
+      <c r="D448" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E448" s="45" t="s">
+        <v>2491</v>
+      </c>
       <c r="F448" t="s">
         <v>1004</v>
       </c>
@@ -53436,6 +53620,12 @@
       <c r="C449" s="24">
         <v>2016</v>
       </c>
+      <c r="D449" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E449" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F449" s="24" t="s">
         <v>237</v>
       </c>
@@ -53477,6 +53667,12 @@
       <c r="C450" s="24">
         <v>2016</v>
       </c>
+      <c r="D450" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E450" s="41" t="s">
+        <v>2493</v>
+      </c>
       <c r="F450" t="s">
         <v>997</v>
       </c>
@@ -53521,6 +53717,12 @@
       <c r="C451" s="24">
         <v>2017</v>
       </c>
+      <c r="D451" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E451" s="45" t="s">
+        <v>2503</v>
+      </c>
       <c r="F451" t="s">
         <v>255</v>
       </c>
@@ -53565,6 +53767,12 @@
       <c r="C452" s="24">
         <v>2012</v>
       </c>
+      <c r="D452" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E452" s="45" t="s">
+        <v>2082</v>
+      </c>
       <c r="F452" t="s">
         <v>1009</v>
       </c>
@@ -53600,6 +53808,12 @@
       <c r="C453" s="24">
         <v>2016</v>
       </c>
+      <c r="D453" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E453" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F453" s="24" t="s">
         <v>421</v>
       </c>
@@ -53647,6 +53861,12 @@
       <c r="C454" s="24">
         <v>2018</v>
       </c>
+      <c r="D454" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E454" s="45" t="s">
+        <v>2490</v>
+      </c>
       <c r="F454" t="s">
         <v>432</v>
       </c>
@@ -53697,6 +53917,12 @@
       <c r="C455" s="24">
         <v>2008</v>
       </c>
+      <c r="D455" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E455" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F455" s="24" t="s">
         <v>479</v>
       </c>
@@ -53744,6 +53970,12 @@
       <c r="C456" s="24">
         <v>2006</v>
       </c>
+      <c r="D456" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E456" s="45" t="s">
+        <v>2489</v>
+      </c>
       <c r="F456" t="s">
         <v>538</v>
       </c>
@@ -53788,6 +54020,12 @@
       <c r="C457" s="24">
         <v>2016</v>
       </c>
+      <c r="D457" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E457" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F457" t="s">
         <v>513</v>
       </c>
@@ -53829,6 +54067,12 @@
       <c r="C458" s="24">
         <v>2016</v>
       </c>
+      <c r="D458" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E458" s="45" t="s">
+        <v>2602</v>
+      </c>
       <c r="F458" t="s">
         <v>1042</v>
       </c>
@@ -53873,6 +54117,12 @@
       <c r="C459" s="24">
         <v>2013</v>
       </c>
+      <c r="D459" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E459" s="45" t="s">
+        <v>2493</v>
+      </c>
       <c r="F459" s="24" t="s">
         <v>551</v>
       </c>
@@ -53917,6 +54167,12 @@
       <c r="C460" s="24">
         <v>2013</v>
       </c>
+      <c r="D460" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E460" s="45" t="s">
+        <v>2088</v>
+      </c>
       <c r="F460" t="s">
         <v>588</v>
       </c>
@@ -53961,6 +54217,12 @@
       <c r="C461" s="24">
         <v>2013</v>
       </c>
+      <c r="D461" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E461" s="45" t="s">
+        <v>2489</v>
+      </c>
       <c r="F461" t="s">
         <v>1051</v>
       </c>
@@ -54011,6 +54273,12 @@
       <c r="C462" s="24">
         <v>2014</v>
       </c>
+      <c r="D462" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E462" s="45" t="s">
+        <v>2488</v>
+      </c>
       <c r="F462" t="s">
         <v>571</v>
       </c>
@@ -54055,6 +54323,12 @@
       <c r="C463" s="24">
         <v>2014</v>
       </c>
+      <c r="D463" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E463" s="45" t="s">
+        <v>2503</v>
+      </c>
       <c r="F463" t="s">
         <v>608</v>
       </c>
@@ -54096,6 +54370,12 @@
       <c r="C464" s="24">
         <v>2014</v>
       </c>
+      <c r="D464" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E464" s="45" t="s">
+        <v>2082</v>
+      </c>
       <c r="F464" t="s">
         <v>1057</v>
       </c>
@@ -54137,6 +54417,12 @@
       <c r="C465" s="24">
         <v>2015</v>
       </c>
+      <c r="D465" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E465" s="45" t="s">
+        <v>2488</v>
+      </c>
       <c r="F465" t="s">
         <v>566</v>
       </c>
@@ -54181,6 +54467,12 @@
       <c r="C466" s="24">
         <v>2015</v>
       </c>
+      <c r="D466" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E466" s="45" t="s">
+        <v>2082</v>
+      </c>
       <c r="F466" t="s">
         <v>592</v>
       </c>
@@ -54222,6 +54514,12 @@
       <c r="C467" s="24">
         <v>2016</v>
       </c>
+      <c r="D467" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E467" s="45" t="s">
+        <v>2489</v>
+      </c>
       <c r="F467" t="s">
         <v>1058</v>
       </c>
@@ -54266,6 +54564,12 @@
       <c r="C468" s="24">
         <v>2007</v>
       </c>
+      <c r="D468" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E468" s="45" t="s">
+        <v>2493</v>
+      </c>
       <c r="F468" t="s">
         <v>1060</v>
       </c>
@@ -54301,6 +54605,12 @@
       <c r="C469" s="24">
         <v>2014</v>
       </c>
+      <c r="D469" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E469" s="45" t="s">
+        <v>2488</v>
+      </c>
       <c r="F469" t="s">
         <v>1050</v>
       </c>
@@ -54336,6 +54646,12 @@
       <c r="C470" s="24">
         <v>2014</v>
       </c>
+      <c r="D470" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E470" s="45" t="s">
+        <v>2489</v>
+      </c>
       <c r="F470" t="s">
         <v>1056</v>
       </c>
@@ -54374,6 +54690,12 @@
       <c r="C471" s="24">
         <v>2017</v>
       </c>
+      <c r="D471" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E471" s="45" t="s">
+        <v>2507</v>
+      </c>
       <c r="F471" t="s">
         <v>1047</v>
       </c>
@@ -54409,6 +54731,12 @@
       <c r="C472" s="24">
         <v>2018</v>
       </c>
+      <c r="D472" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E472" s="45" t="s">
+        <v>2488</v>
+      </c>
       <c r="F472" t="s">
         <v>1049</v>
       </c>
@@ -54444,6 +54772,12 @@
       <c r="C473" s="24">
         <v>2018</v>
       </c>
+      <c r="D473" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E473" s="45" t="s">
+        <v>2489</v>
+      </c>
       <c r="F473" t="s">
         <v>1054</v>
       </c>
@@ -54479,6 +54813,12 @@
       <c r="C474" s="24">
         <v>2018</v>
       </c>
+      <c r="D474" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E474" s="45" t="s">
+        <v>2488</v>
+      </c>
       <c r="F474" t="s">
         <v>1061</v>
       </c>
@@ -54520,6 +54860,12 @@
       <c r="C475" s="24">
         <v>2017</v>
       </c>
+      <c r="D475" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E475" s="45" t="s">
+        <v>2495</v>
+      </c>
       <c r="F475" t="s">
         <v>658</v>
       </c>
@@ -54570,6 +54916,12 @@
       <c r="C476" s="24">
         <v>2004</v>
       </c>
+      <c r="D476" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E476" s="45" t="s">
+        <v>2082</v>
+      </c>
       <c r="F476" t="s">
         <v>1076</v>
       </c>
@@ -54617,6 +54969,12 @@
       <c r="C477" s="24">
         <v>2010</v>
       </c>
+      <c r="D477" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E477" s="45" t="s">
+        <v>2493</v>
+      </c>
       <c r="F477" t="s">
         <v>1078</v>
       </c>
@@ -54658,6 +55016,12 @@
       <c r="C478" s="24">
         <v>2014</v>
       </c>
+      <c r="D478" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E478" s="45" t="s">
+        <v>2493</v>
+      </c>
       <c r="F478" t="s">
         <v>1071</v>
       </c>
@@ -54702,6 +55066,12 @@
       <c r="C479" s="24">
         <v>2017</v>
       </c>
+      <c r="D479" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E479" s="45" t="s">
+        <v>2495</v>
+      </c>
       <c r="F479" t="s">
         <v>664</v>
       </c>
@@ -54749,6 +55119,12 @@
       <c r="C480" s="24">
         <v>1997</v>
       </c>
+      <c r="D480" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E480" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F480" t="s">
         <v>1074</v>
       </c>
@@ -54784,6 +55160,12 @@
       <c r="C481" s="24">
         <v>2009</v>
       </c>
+      <c r="D481" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E481" s="45" t="s">
+        <v>2493</v>
+      </c>
       <c r="F481" t="s">
         <v>1077</v>
       </c>
@@ -54828,6 +55210,12 @@
       <c r="C482" s="24">
         <v>2015</v>
       </c>
+      <c r="D482" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E482" s="45" t="s">
+        <v>2612</v>
+      </c>
       <c r="F482" t="s">
         <v>755</v>
       </c>
@@ -54875,6 +55263,12 @@
       <c r="C483" s="24">
         <v>2015</v>
       </c>
+      <c r="D483" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E483" s="45" t="s">
+        <v>2488</v>
+      </c>
       <c r="F483" t="s">
         <v>757</v>
       </c>
@@ -54922,6 +55316,12 @@
       <c r="C484" s="24">
         <v>2017</v>
       </c>
+      <c r="D484" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E484" s="45" t="s">
+        <v>2082</v>
+      </c>
       <c r="F484" t="s">
         <v>747</v>
       </c>
@@ -54969,6 +55369,12 @@
       <c r="C485" s="24">
         <v>2015</v>
       </c>
+      <c r="D485" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E485" s="45" t="s">
+        <v>2492</v>
+      </c>
       <c r="F485" t="s">
         <v>790</v>
       </c>
@@ -55022,6 +55428,12 @@
       <c r="C486" s="24">
         <v>2015</v>
       </c>
+      <c r="D486" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E486" s="45" t="s">
+        <v>2082</v>
+      </c>
       <c r="F486" t="s">
         <v>793</v>
       </c>
@@ -55069,6 +55481,12 @@
       <c r="C487" s="24">
         <v>2019</v>
       </c>
+      <c r="D487" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E487" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F487" t="s">
         <v>796</v>
       </c>
@@ -55113,6 +55531,12 @@
       <c r="C488" s="24">
         <v>2018</v>
       </c>
+      <c r="D488" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E488" s="45" t="s">
+        <v>2491</v>
+      </c>
       <c r="F488" s="24" t="s">
         <v>818</v>
       </c>
@@ -55163,6 +55587,12 @@
       <c r="C489" s="24">
         <v>2016</v>
       </c>
+      <c r="D489" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E489" s="45" t="s">
+        <v>2082</v>
+      </c>
       <c r="F489" s="24" t="s">
         <v>814</v>
       </c>
@@ -55207,6 +55637,12 @@
       <c r="C490" s="24">
         <v>2016</v>
       </c>
+      <c r="D490" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E490" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F490" t="s">
         <v>1089</v>
       </c>
@@ -55242,6 +55678,12 @@
       <c r="C491" s="24">
         <v>2017</v>
       </c>
+      <c r="D491" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E491" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F491" t="s">
         <v>1087</v>
       </c>
@@ -55280,6 +55722,12 @@
       <c r="C492" s="24">
         <v>2017</v>
       </c>
+      <c r="D492" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E492" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F492" t="s">
         <v>1088</v>
       </c>
@@ -55321,6 +55769,12 @@
       <c r="C493" s="24">
         <v>2008</v>
       </c>
+      <c r="D493" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E493" s="45" t="s">
+        <v>2490</v>
+      </c>
       <c r="F493" s="24" t="s">
         <v>821</v>
       </c>
@@ -55371,6 +55825,9 @@
       <c r="C494" s="24">
         <v>2016</v>
       </c>
+      <c r="D494" s="36" t="s">
+        <v>2613</v>
+      </c>
       <c r="F494" s="24" t="s">
         <v>836</v>
       </c>
@@ -55421,6 +55878,12 @@
       <c r="C495" s="24">
         <v>2016</v>
       </c>
+      <c r="D495" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E495" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F495" s="24" t="s">
         <v>839</v>
       </c>
@@ -55465,6 +55928,12 @@
       <c r="C496" s="24">
         <v>2010</v>
       </c>
+      <c r="D496" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E496" s="45" t="s">
+        <v>2488</v>
+      </c>
       <c r="F496" t="s">
         <v>1090</v>
       </c>
@@ -55503,6 +55972,12 @@
       <c r="C497" s="24">
         <v>2014</v>
       </c>
+      <c r="D497" s="45" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E497" s="45" t="s">
+        <v>2596</v>
+      </c>
       <c r="F497" s="24" t="s">
         <v>1096</v>
       </c>
@@ -55550,6 +56025,12 @@
       <c r="C498" s="24">
         <v>2017</v>
       </c>
+      <c r="D498" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E498" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F498" t="s">
         <v>907</v>
       </c>
@@ -55594,6 +56075,12 @@
       <c r="C499" s="24">
         <v>2017</v>
       </c>
+      <c r="D499" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E499" s="45" t="s">
+        <v>2495</v>
+      </c>
       <c r="F499" s="24" t="s">
         <v>953</v>
       </c>
@@ -55644,6 +56131,9 @@
       <c r="C500" s="24">
         <v>2001</v>
       </c>
+      <c r="D500" s="36" t="s">
+        <v>2522</v>
+      </c>
       <c r="F500" t="s">
         <v>12</v>
       </c>
@@ -55691,6 +56181,12 @@
       <c r="C501" s="24">
         <v>2014</v>
       </c>
+      <c r="D501" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E501" s="45" t="s">
+        <v>2596</v>
+      </c>
       <c r="F501" s="24" t="s">
         <v>17</v>
       </c>
@@ -55738,6 +56234,12 @@
       <c r="C502" s="24">
         <v>2016</v>
       </c>
+      <c r="D502" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E502" s="45" t="s">
+        <v>2596</v>
+      </c>
       <c r="F502" t="s">
         <v>25</v>
       </c>
@@ -55779,6 +56281,12 @@
       <c r="C503" s="24">
         <v>2012</v>
       </c>
+      <c r="D503" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E503" s="45" t="s">
+        <v>2516</v>
+      </c>
       <c r="F503" s="24" t="s">
         <v>56</v>
       </c>
@@ -55832,6 +56340,12 @@
       <c r="C504" s="24">
         <v>2014</v>
       </c>
+      <c r="D504" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E504" s="45" t="s">
+        <v>2089</v>
+      </c>
       <c r="F504" s="24" t="s">
         <v>69</v>
       </c>
@@ -55885,6 +56399,12 @@
       <c r="C505" s="24">
         <v>2012</v>
       </c>
+      <c r="D505" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E505" s="45" t="s">
+        <v>2089</v>
+      </c>
       <c r="F505" s="24" t="s">
         <v>136</v>
       </c>
@@ -55935,6 +56455,12 @@
       <c r="C506" s="24">
         <v>2017</v>
       </c>
+      <c r="D506" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E506" s="45" t="s">
+        <v>2089</v>
+      </c>
       <c r="F506" s="24" t="s">
         <v>141</v>
       </c>
@@ -55979,6 +56505,12 @@
       <c r="C507" s="24">
         <v>2018</v>
       </c>
+      <c r="D507" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E507" s="45" t="s">
+        <v>2089</v>
+      </c>
       <c r="F507" s="24" t="s">
         <v>279</v>
       </c>
@@ -56026,6 +56558,12 @@
       <c r="C508" s="24">
         <v>2008</v>
       </c>
+      <c r="D508" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E508" s="45" t="s">
+        <v>2075</v>
+      </c>
       <c r="F508" s="24" t="s">
         <v>286</v>
       </c>
@@ -56073,6 +56611,12 @@
       <c r="C509" s="24">
         <v>2014</v>
       </c>
+      <c r="D509" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E509" s="45" t="s">
+        <v>2089</v>
+      </c>
       <c r="F509" t="s">
         <v>329</v>
       </c>
@@ -56114,6 +56658,12 @@
       <c r="C510" s="24">
         <v>2012</v>
       </c>
+      <c r="D510" s="46" t="s">
+        <v>2614</v>
+      </c>
+      <c r="E510" s="45" t="s">
+        <v>2089</v>
+      </c>
       <c r="F510" s="24" t="s">
         <v>340</v>
       </c>
@@ -56161,6 +56711,9 @@
       <c r="C511" s="24">
         <v>2007</v>
       </c>
+      <c r="D511" s="43" t="s">
+        <v>2615</v>
+      </c>
       <c r="F511" s="24" t="s">
         <v>553</v>
       </c>
@@ -56211,6 +56764,9 @@
       <c r="C512" s="24">
         <v>2015</v>
       </c>
+      <c r="D512" s="36" t="s">
+        <v>2591</v>
+      </c>
       <c r="F512" t="s">
         <v>732</v>
       </c>
@@ -56258,6 +56814,9 @@
       <c r="C513" s="24">
         <v>2015</v>
       </c>
+      <c r="D513" s="36" t="s">
+        <v>2591</v>
+      </c>
       <c r="F513" s="24" t="s">
         <v>730</v>
       </c>
@@ -56308,6 +56867,9 @@
       <c r="C514" s="24">
         <v>2010</v>
       </c>
+      <c r="D514" s="36" t="s">
+        <v>2591</v>
+      </c>
       <c r="F514" t="s">
         <v>761</v>
       </c>
@@ -56349,6 +56911,12 @@
       <c r="C515" s="24">
         <v>2016</v>
       </c>
+      <c r="D515" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E515" s="45" t="s">
+        <v>2089</v>
+      </c>
       <c r="F515" t="s">
         <v>754</v>
       </c>
@@ -56400,6 +56968,9 @@
       <c r="C516" s="24">
         <v>2019</v>
       </c>
+      <c r="D516" s="36" t="s">
+        <v>2591</v>
+      </c>
       <c r="F516" t="s">
         <v>744</v>
       </c>
@@ -56444,6 +57015,9 @@
       <c r="C517" s="24">
         <v>2014</v>
       </c>
+      <c r="D517" s="36" t="s">
+        <v>2591</v>
+      </c>
       <c r="F517" t="s">
         <v>742</v>
       </c>
@@ -56485,6 +57059,12 @@
       <c r="C518" s="24">
         <v>2017</v>
       </c>
+      <c r="D518" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E518" s="45" t="s">
+        <v>2089</v>
+      </c>
       <c r="F518" t="s">
         <v>795</v>
       </c>
@@ -56538,6 +57118,12 @@
       <c r="C519" s="24">
         <v>2018</v>
       </c>
+      <c r="D519" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E519" s="45" t="s">
+        <v>2089</v>
+      </c>
       <c r="F519" s="24" t="s">
         <v>787</v>
       </c>
@@ -56582,6 +57168,12 @@
       <c r="C520" s="24">
         <v>2015</v>
       </c>
+      <c r="D520" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E520" s="45" t="s">
+        <v>2082</v>
+      </c>
       <c r="F520" t="s">
         <v>969</v>
       </c>
@@ -56614,6 +57206,12 @@
       <c r="C521" s="24">
         <v>2014</v>
       </c>
+      <c r="D521" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E521" s="45" t="s">
+        <v>2491</v>
+      </c>
       <c r="F521" t="s">
         <v>974</v>
       </c>
@@ -56658,6 +57256,12 @@
       <c r="C522" s="24">
         <v>2016</v>
       </c>
+      <c r="D522" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E522" s="45" t="s">
+        <v>2074</v>
+      </c>
       <c r="F522" t="s">
         <v>973</v>
       </c>
@@ -56690,6 +57294,12 @@
       <c r="C523" s="24">
         <v>2018</v>
       </c>
+      <c r="D523" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E523" s="45" t="s">
+        <v>2493</v>
+      </c>
       <c r="F523" t="s">
         <v>977</v>
       </c>
@@ -56734,6 +57344,12 @@
       <c r="C524" s="24">
         <v>2003</v>
       </c>
+      <c r="D524" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E524" s="45" t="s">
+        <v>2509</v>
+      </c>
       <c r="F524" t="s">
         <v>982</v>
       </c>
@@ -56762,6 +57378,12 @@
       </c>
       <c r="C525" s="24">
         <v>2004</v>
+      </c>
+      <c r="D525" s="45" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E525" s="45" t="s">
+        <v>2505</v>
       </c>
       <c r="F525" t="s">
         <v>981</v>
@@ -56818,9 +57440,10 @@
     <hyperlink ref="F384" r:id="rId19"/>
     <hyperlink ref="F397" r:id="rId20"/>
     <hyperlink ref="F408" r:id="rId21"/>
+    <hyperlink ref="F435" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/Lit review data/lit review master COMBINED.xlsx
+++ b/Lit review data/lit review master COMBINED.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1523" yWindow="458" windowWidth="26640" windowHeight="16043"/>
+    <workbookView xWindow="1523" yWindow="458" windowWidth="12863" windowHeight="3713"/>
   </bookViews>
   <sheets>
     <sheet name="Lit review" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8845" uniqueCount="2617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8850" uniqueCount="2606">
   <si>
     <t>Latin name</t>
   </si>
@@ -28304,9 +28304,6 @@
     <t>cjc flag - add coendemicity</t>
   </si>
   <si>
-    <t>cjc flag - crabs?</t>
-  </si>
-  <si>
     <t>cjc flag - wrong link?</t>
   </si>
   <si>
@@ -28340,12 +28337,6 @@
     <t>cjc flag - nice summary of WHO guidelines for intervention</t>
   </si>
   <si>
-    <t>cjc flag - not a primary source</t>
-  </si>
-  <si>
-    <t>cjc flag - not a primary source?</t>
-  </si>
-  <si>
     <t>grey data, prevalence modelling, risk mapping</t>
   </si>
   <si>
@@ -28355,21 +28346,6 @@
     <t>grey data, endemicity mapping, ecological niche modelling</t>
   </si>
   <si>
-    <t>cjc flag - this is an erratum</t>
-  </si>
-  <si>
-    <t>cjc flag - maybe drop</t>
-  </si>
-  <si>
-    <t>cjc flag - maybe misc</t>
-  </si>
-  <si>
-    <t>cjc flag - no actual mapping</t>
-  </si>
-  <si>
-    <t>cjc flag - no original</t>
-  </si>
-  <si>
     <t>prevalence mapping, risk mapping, endemicity mapping</t>
   </si>
   <si>
@@ -28571,24 +28547,12 @@
     <t>prevalence mapping, grey data</t>
   </si>
   <si>
-    <t>cjc flag - no original (ish)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cjc flag - no original </t>
-  </si>
-  <si>
     <t>cjc flag - this is relevant to syndemic mapping</t>
   </si>
   <si>
     <t>prevalence mapping, prevalence modelling, risk mapping, cluster analysis</t>
   </si>
   <si>
-    <t>cjc flag - this is similar to ours but also not really original</t>
-  </si>
-  <si>
-    <t>cjc flag - vector, not parasite</t>
-  </si>
-  <si>
     <t>grey data, ecological niche modeling</t>
   </si>
   <si>
@@ -28628,12 +28592,6 @@
     <t>prevalence modelling, endemicity mapping</t>
   </si>
   <si>
-    <t>cjc flag - not relevant</t>
-  </si>
-  <si>
-    <t>miscellaneous?</t>
-  </si>
-  <si>
     <t>cjc flag - no map</t>
   </si>
   <si>
@@ -28649,16 +28607,32 @@
     <t>cjc flag - no original (but priorities)</t>
   </si>
   <si>
-    <t>cjc flag - unavailable</t>
+    <t>cjc flag - unavailable - exclude?</t>
+  </si>
+  <si>
+    <t>cjc flag - exclude not a primary source</t>
+  </si>
+  <si>
+    <t>cjc flag - no maps</t>
+  </si>
+  <si>
+    <t>cjc flag - exclude not a primary source (but relevant)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28946,116 +28920,119 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -29375,9 +29352,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X525"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" topLeftCell="A502" zoomScale="93" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D517" sqref="D517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -29645,7 +29622,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="38" t="s">
-        <v>2535</v>
+        <v>2527</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>1704</v>
@@ -29701,7 +29678,7 @@
     </row>
     <row r="6" spans="1:24" ht="15.75">
       <c r="A6" s="38" t="s">
-        <v>2559</v>
+        <v>2551</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>1705</v>
@@ -30087,7 +30064,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="38" t="s">
-        <v>2543</v>
+        <v>2535</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>1728</v>
@@ -30508,7 +30485,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="38" t="s">
-        <v>2544</v>
+        <v>2536</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>1747</v>
@@ -31186,7 +31163,7 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="38" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>1768</v>
@@ -31245,7 +31222,7 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="38" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>1769</v>
@@ -31301,7 +31278,7 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="38" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>1770</v>
@@ -31357,7 +31334,7 @@
     </row>
     <row r="37" spans="1:24" ht="15.75">
       <c r="A37" s="38" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>1771</v>
@@ -31413,7 +31390,7 @@
     </row>
     <row r="38" spans="1:24" ht="15.75">
       <c r="A38" s="38" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>1772</v>
@@ -31469,7 +31446,7 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="38" t="s">
-        <v>2561</v>
+        <v>2553</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>1773</v>
@@ -31531,7 +31508,7 @@
     </row>
     <row r="40" spans="1:24" ht="15.75">
       <c r="A40" s="38" t="s">
-        <v>2573</v>
+        <v>2565</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>1777</v>
@@ -31746,7 +31723,7 @@
       <c r="C44" s="24">
         <v>2005</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="42" t="s">
         <v>2500</v>
       </c>
       <c r="E44" s="35" t="s">
@@ -32017,8 +31994,8 @@
       <c r="C49" s="24">
         <v>2013</v>
       </c>
-      <c r="D49" s="36" t="s">
-        <v>2501</v>
+      <c r="D49" s="35" t="s">
+        <v>2487</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>2074</v>
@@ -32307,7 +32284,7 @@
         <v>2018</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>2490</v>
@@ -32581,7 +32558,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="38" t="s">
-        <v>2545</v>
+        <v>2537</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>1823</v>
@@ -32746,7 +32723,7 @@
         <v>2487</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="F62" s="24" t="s">
         <v>487</v>
@@ -33137,8 +33114,11 @@
       <c r="C69" s="24">
         <v>2015</v>
       </c>
-      <c r="D69" s="36" t="s">
-        <v>2498</v>
+      <c r="D69" s="35" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>2074</v>
       </c>
       <c r="F69" t="s">
         <v>494</v>
@@ -33194,7 +33174,7 @@
         <v>2016</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="E70" s="35" t="s">
         <v>2074</v>
@@ -33253,7 +33233,7 @@
         <v>2487</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="F71" t="s">
         <v>518</v>
@@ -33309,7 +33289,7 @@
         <v>2487</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="F72" t="s">
         <v>512</v>
@@ -33612,7 +33592,7 @@
     </row>
     <row r="78" spans="1:24" ht="15.75">
       <c r="A78" s="38" t="s">
-        <v>2546</v>
+        <v>2538</v>
       </c>
       <c r="B78" s="31" t="s">
         <v>1848</v>
@@ -33668,7 +33648,7 @@
     </row>
     <row r="79" spans="1:24">
       <c r="A79" s="38" t="s">
-        <v>2546</v>
+        <v>2538</v>
       </c>
       <c r="B79" s="31" t="s">
         <v>1850</v>
@@ -33680,7 +33660,7 @@
         <v>2487</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="F79" s="24" t="s">
         <v>549</v>
@@ -33736,7 +33716,7 @@
         <v>2487</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="F80" t="s">
         <v>599</v>
@@ -33904,7 +33884,7 @@
         <v>2487</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>576</v>
@@ -33960,7 +33940,7 @@
         <v>2487</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="F84" t="s">
         <v>594</v>
@@ -34075,7 +34055,7 @@
         <v>2487</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="F86" t="s">
         <v>569</v>
@@ -34181,7 +34161,7 @@
         <v>2487</v>
       </c>
       <c r="E88" s="35" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="F88" t="s">
         <v>598</v>
@@ -34487,7 +34467,7 @@
     </row>
     <row r="94" spans="1:24" ht="15.75">
       <c r="A94" s="38" t="s">
-        <v>2562</v>
+        <v>2554</v>
       </c>
       <c r="C94" s="24">
         <v>2017</v>
@@ -35177,7 +35157,7 @@
         <v>2487</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="F106" t="s">
         <v>654</v>
@@ -35840,7 +35820,7 @@
         <v>1996</v>
       </c>
       <c r="D118" s="36" t="s">
-        <v>2616</v>
+        <v>2602</v>
       </c>
       <c r="F118" t="s">
         <v>1079</v>
@@ -35966,7 +35946,7 @@
     </row>
     <row r="121" spans="1:24" ht="15.75">
       <c r="A121" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B121" s="31" t="s">
         <v>1918</v>
@@ -36022,7 +36002,7 @@
     </row>
     <row r="122" spans="1:24" ht="15.75">
       <c r="A122" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>1919</v>
@@ -36081,7 +36061,7 @@
     </row>
     <row r="123" spans="1:24" ht="15.75">
       <c r="A123" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>1920</v>
@@ -36146,7 +36126,7 @@
     </row>
     <row r="124" spans="1:24" ht="15.75">
       <c r="A124" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B124" s="31" t="s">
         <v>1922</v>
@@ -36205,7 +36185,7 @@
     </row>
     <row r="125" spans="1:24" ht="15.75">
       <c r="A125" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B125" s="31" t="s">
         <v>1924</v>
@@ -36264,7 +36244,7 @@
     </row>
     <row r="126" spans="1:24" ht="15.75">
       <c r="A126" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B126" s="31" t="s">
         <v>1914</v>
@@ -36320,7 +36300,7 @@
     </row>
     <row r="127" spans="1:24">
       <c r="A127" s="38" t="s">
-        <v>2563</v>
+        <v>2555</v>
       </c>
       <c r="B127" s="31" t="s">
         <v>1926</v>
@@ -36376,7 +36356,7 @@
     </row>
     <row r="128" spans="1:24" ht="15.75">
       <c r="A128" s="38" t="s">
-        <v>2563</v>
+        <v>2555</v>
       </c>
       <c r="C128" s="24">
         <v>2009</v>
@@ -36423,7 +36403,7 @@
     </row>
     <row r="129" spans="1:24">
       <c r="A129" s="38" t="s">
-        <v>2564</v>
+        <v>2556</v>
       </c>
       <c r="B129" s="31" t="s">
         <v>1927</v>
@@ -36435,7 +36415,7 @@
         <v>2487</v>
       </c>
       <c r="E129" s="37" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="F129" s="24" t="s">
         <v>697</v>
@@ -36479,7 +36459,7 @@
     </row>
     <row r="130" spans="1:24" ht="15.75">
       <c r="A130" s="38" t="s">
-        <v>2551</v>
+        <v>2543</v>
       </c>
       <c r="B130" s="31" t="s">
         <v>1928</v>
@@ -36544,7 +36524,7 @@
     </row>
     <row r="131" spans="1:24" ht="15.75">
       <c r="A131" s="38" t="s">
-        <v>2551</v>
+        <v>2543</v>
       </c>
       <c r="B131" s="31" t="s">
         <v>1929</v>
@@ -36600,7 +36580,7 @@
     </row>
     <row r="132" spans="1:24">
       <c r="A132" s="38" t="s">
-        <v>2575</v>
+        <v>2567</v>
       </c>
       <c r="B132" s="31" t="s">
         <v>1930</v>
@@ -36721,7 +36701,7 @@
     </row>
     <row r="134" spans="1:24">
       <c r="A134" s="38" t="s">
-        <v>2576</v>
+        <v>2568</v>
       </c>
       <c r="B134" s="31" t="s">
         <v>1655</v>
@@ -36783,7 +36763,7 @@
     </row>
     <row r="135" spans="1:24">
       <c r="A135" s="38" t="s">
-        <v>2536</v>
+        <v>2528</v>
       </c>
       <c r="B135" s="31" t="s">
         <v>1940</v>
@@ -36842,7 +36822,7 @@
     </row>
     <row r="136" spans="1:24" ht="15.75">
       <c r="A136" s="38" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="B136" s="31" t="s">
         <v>1660</v>
@@ -36854,7 +36834,7 @@
         <v>2487</v>
       </c>
       <c r="E136" s="37" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="F136" t="s">
         <v>738</v>
@@ -36898,7 +36878,7 @@
     </row>
     <row r="137" spans="1:24" ht="15.75">
       <c r="A137" s="38" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="B137" s="31" t="s">
         <v>1947</v>
@@ -36907,7 +36887,7 @@
         <v>2018</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="E137" s="37" t="s">
         <v>2074</v>
@@ -36951,7 +36931,7 @@
     </row>
     <row r="138" spans="1:24" ht="15.75">
       <c r="A138" s="38" t="s">
-        <v>2527</v>
+        <v>2519</v>
       </c>
       <c r="B138" s="31" t="s">
         <v>1951</v>
@@ -36959,8 +36939,8 @@
       <c r="C138" s="24">
         <v>2011</v>
       </c>
-      <c r="D138" s="36" t="s">
-        <v>2512</v>
+      <c r="D138" s="42" t="s">
+        <v>2511</v>
       </c>
       <c r="E138" s="37" t="s">
         <v>2074</v>
@@ -37010,7 +36990,7 @@
     </row>
     <row r="139" spans="1:24">
       <c r="A139" s="38" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B139" s="31" t="s">
         <v>1954</v>
@@ -37069,7 +37049,7 @@
     </row>
     <row r="140" spans="1:24" ht="15.75">
       <c r="A140" s="38" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B140" s="31" t="s">
         <v>1955</v>
@@ -37128,7 +37108,7 @@
     </row>
     <row r="141" spans="1:24">
       <c r="A141" s="38" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B141" s="31" t="s">
         <v>1959</v>
@@ -37199,7 +37179,7 @@
         <v>2487</v>
       </c>
       <c r="E142" s="37" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="F142" s="24" t="s">
         <v>803</v>
@@ -37317,7 +37297,7 @@
         <v>2487</v>
       </c>
       <c r="E144" s="37" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="F144" s="24" t="s">
         <v>823</v>
@@ -37700,7 +37680,7 @@
     </row>
     <row r="151" spans="1:24" ht="15.75">
       <c r="A151" s="38" t="s">
-        <v>2574</v>
+        <v>2566</v>
       </c>
       <c r="B151" s="31" t="s">
         <v>1984</v>
@@ -37709,7 +37689,7 @@
         <v>2016</v>
       </c>
       <c r="D151" s="37" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="E151" s="37" t="s">
         <v>2074</v>
@@ -37818,7 +37798,7 @@
     </row>
     <row r="153" spans="1:24">
       <c r="A153" s="38" t="s">
-        <v>2548</v>
+        <v>2540</v>
       </c>
       <c r="B153" s="31" t="s">
         <v>1986</v>
@@ -37830,7 +37810,7 @@
         <v>2487</v>
       </c>
       <c r="E153" s="37" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="F153" s="24" t="s">
         <v>859</v>
@@ -39347,7 +39327,7 @@
     </row>
     <row r="181" spans="1:24">
       <c r="A181" s="38" t="s">
-        <v>2549</v>
+        <v>2541</v>
       </c>
       <c r="B181" s="33" t="s">
         <v>2087</v>
@@ -39447,7 +39427,7 @@
     </row>
     <row r="183" spans="1:24" ht="15.75">
       <c r="A183" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="C183" s="24">
         <v>2015</v>
@@ -39497,7 +39477,7 @@
     </row>
     <row r="184" spans="1:24">
       <c r="A184" s="38" t="s">
-        <v>2566</v>
+        <v>2558</v>
       </c>
       <c r="B184" s="31" t="s">
         <v>1714</v>
@@ -39556,7 +39536,7 @@
     </row>
     <row r="185" spans="1:24">
       <c r="A185" s="38" t="s">
-        <v>2567</v>
+        <v>2559</v>
       </c>
       <c r="B185" s="31" t="s">
         <v>1717</v>
@@ -39609,7 +39589,7 @@
     </row>
     <row r="186" spans="1:24">
       <c r="A186" s="38" t="s">
-        <v>2543</v>
+        <v>2535</v>
       </c>
       <c r="B186" s="31" t="s">
         <v>1730</v>
@@ -39617,11 +39597,11 @@
       <c r="C186" s="24">
         <v>2013</v>
       </c>
-      <c r="D186" s="36" t="s">
-        <v>2514</v>
-      </c>
-      <c r="E186" s="38" t="s">
-        <v>2089</v>
+      <c r="D186" s="47" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E186" s="47" t="s">
+        <v>2490</v>
       </c>
       <c r="F186" s="24" t="s">
         <v>138</v>
@@ -39665,7 +39645,7 @@
     </row>
     <row r="187" spans="1:24">
       <c r="A187" s="38" t="s">
-        <v>2543</v>
+        <v>2535</v>
       </c>
       <c r="B187" s="31" t="s">
         <v>1731</v>
@@ -39674,7 +39654,7 @@
         <v>2013</v>
       </c>
       <c r="D187" s="36" t="s">
-        <v>2513</v>
+        <v>2603</v>
       </c>
       <c r="F187" s="24" t="s">
         <v>150</v>
@@ -39771,7 +39751,7 @@
     </row>
     <row r="189" spans="1:24">
       <c r="A189" s="38" t="s">
-        <v>2586</v>
+        <v>2578</v>
       </c>
       <c r="B189" s="31" t="s">
         <v>1735</v>
@@ -39780,7 +39760,7 @@
         <v>2014</v>
       </c>
       <c r="D189" s="38" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="E189" s="38" t="s">
         <v>2117</v>
@@ -39838,8 +39818,8 @@
       <c r="C190" s="24">
         <v>2002</v>
       </c>
-      <c r="D190" s="36" t="s">
-        <v>2514</v>
+      <c r="D190" s="38" t="s">
+        <v>2505</v>
       </c>
       <c r="E190" s="38" t="s">
         <v>2089</v>
@@ -39892,7 +39872,7 @@
         <v>2016</v>
       </c>
       <c r="D191" s="36" t="s">
-        <v>2514</v>
+        <v>2603</v>
       </c>
       <c r="E191" s="38" t="s">
         <v>2089</v>
@@ -39995,7 +39975,7 @@
         <v>2487</v>
       </c>
       <c r="E193" s="38" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="F193" t="s">
         <v>998</v>
@@ -40095,7 +40075,7 @@
         <v>2487</v>
       </c>
       <c r="E195" s="38" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="F195" t="s">
         <v>1003</v>
@@ -40201,7 +40181,7 @@
         <v>2487</v>
       </c>
       <c r="E197" s="38" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="F197" t="s">
         <v>1014</v>
@@ -40236,7 +40216,7 @@
     </row>
     <row r="198" spans="1:24">
       <c r="A198" s="38" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="B198" s="31" t="s">
         <v>1631</v>
@@ -40363,7 +40343,7 @@
         <v>2487</v>
       </c>
       <c r="E200" s="38" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="F200" s="24" t="s">
         <v>947</v>
@@ -40412,8 +40392,11 @@
       <c r="C201" s="24">
         <v>2000</v>
       </c>
-      <c r="D201" s="36" t="s">
-        <v>2518</v>
+      <c r="D201" s="38" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E201" s="38" t="s">
+        <v>2493</v>
       </c>
       <c r="F201" t="s">
         <v>1024</v>
@@ -40617,7 +40600,7 @@
         <v>2018</v>
       </c>
       <c r="D205" s="36" t="s">
-        <v>2519</v>
+        <v>2603</v>
       </c>
       <c r="E205" s="38" t="s">
         <v>2089</v>
@@ -40664,7 +40647,7 @@
     </row>
     <row r="206" spans="1:24">
       <c r="A206" s="38" t="s">
-        <v>2550</v>
+        <v>2542</v>
       </c>
       <c r="B206" s="31" t="s">
         <v>1791</v>
@@ -40720,7 +40703,7 @@
     </row>
     <row r="207" spans="1:24">
       <c r="A207" s="38" t="s">
-        <v>2550</v>
+        <v>2542</v>
       </c>
       <c r="B207" s="31" t="s">
         <v>1793</v>
@@ -40779,7 +40762,7 @@
     </row>
     <row r="208" spans="1:24">
       <c r="A208" s="38" t="s">
-        <v>2577</v>
+        <v>2569</v>
       </c>
       <c r="B208" s="31" t="s">
         <v>1635</v>
@@ -40787,8 +40770,8 @@
       <c r="C208" s="24">
         <v>2013</v>
       </c>
-      <c r="D208" s="36" t="s">
-        <v>2520</v>
+      <c r="D208" s="38" t="s">
+        <v>2487</v>
       </c>
       <c r="E208" s="38" t="s">
         <v>2089</v>
@@ -40835,7 +40818,7 @@
     </row>
     <row r="209" spans="1:24" ht="15.75">
       <c r="A209" s="38" t="s">
-        <v>2577</v>
+        <v>2569</v>
       </c>
       <c r="B209" s="31" t="s">
         <v>1636</v>
@@ -40844,7 +40827,7 @@
         <v>2017</v>
       </c>
       <c r="D209" s="36" t="s">
-        <v>2521</v>
+        <v>2604</v>
       </c>
       <c r="F209" s="39" t="s">
         <v>354</v>
@@ -40941,7 +40924,7 @@
     </row>
     <row r="211" spans="1:24" ht="15.75">
       <c r="A211" s="38" t="s">
-        <v>2578</v>
+        <v>2570</v>
       </c>
       <c r="B211" s="31" t="s">
         <v>1798</v>
@@ -40991,7 +40974,7 @@
     </row>
     <row r="212" spans="1:24">
       <c r="A212" s="38" t="s">
-        <v>2579</v>
+        <v>2571</v>
       </c>
       <c r="B212" s="31" t="s">
         <v>1799</v>
@@ -41065,7 +41048,7 @@
         <v>2011</v>
       </c>
       <c r="D213" s="36" t="s">
-        <v>2522</v>
+        <v>2603</v>
       </c>
       <c r="E213" s="38" t="s">
         <v>2089</v>
@@ -41115,7 +41098,7 @@
         <v>2011</v>
       </c>
       <c r="D214" s="38" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="E214" s="38" t="s">
         <v>2089</v>
@@ -41165,7 +41148,7 @@
         <v>2487</v>
       </c>
       <c r="E215" s="38" t="s">
-        <v>2523</v>
+        <v>2515</v>
       </c>
       <c r="F215" t="s">
         <v>412</v>
@@ -41318,7 +41301,7 @@
         <v>2487</v>
       </c>
       <c r="E218" s="38" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
       <c r="F218" t="s">
         <v>424</v>
@@ -41414,11 +41397,11 @@
       <c r="C220" s="24">
         <v>2018</v>
       </c>
-      <c r="D220" s="36" t="s">
-        <v>2522</v>
-      </c>
-      <c r="E220" s="41" t="s">
-        <v>2074</v>
+      <c r="D220" s="38" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E220" s="47" t="s">
+        <v>2596</v>
       </c>
       <c r="F220" t="s">
         <v>438</v>
@@ -41471,7 +41454,7 @@
         <v>2487</v>
       </c>
       <c r="E221" s="41" t="s">
-        <v>2589</v>
+        <v>2581</v>
       </c>
       <c r="F221" t="s">
         <v>440</v>
@@ -41518,7 +41501,7 @@
         <v>2017</v>
       </c>
       <c r="D222" s="36" t="s">
-        <v>2522</v>
+        <v>2603</v>
       </c>
       <c r="E222" s="41" t="s">
         <v>2492</v>
@@ -41733,7 +41716,7 @@
         <v>2011</v>
       </c>
       <c r="D226" s="36" t="s">
-        <v>2590</v>
+        <v>2603</v>
       </c>
       <c r="E226" s="41" t="s">
         <v>2089</v>
@@ -41895,7 +41878,7 @@
         <v>2007</v>
       </c>
       <c r="D229" s="36" t="s">
-        <v>2591</v>
+        <v>2603</v>
       </c>
       <c r="E229" s="41" t="s">
         <v>2493</v>
@@ -42043,7 +42026,7 @@
     </row>
     <row r="232" spans="1:24">
       <c r="A232" s="38" t="s">
-        <v>2551</v>
+        <v>2543</v>
       </c>
       <c r="B232" s="31" t="s">
         <v>1913</v>
@@ -42052,7 +42035,7 @@
         <v>2009</v>
       </c>
       <c r="D232" s="42" t="s">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="E232" s="41" t="s">
         <v>2493</v>
@@ -42105,7 +42088,7 @@
     </row>
     <row r="233" spans="1:24">
       <c r="A233" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B233" s="31" t="s">
         <v>1921</v>
@@ -42161,7 +42144,7 @@
     </row>
     <row r="234" spans="1:24" ht="15.75">
       <c r="A234" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B234" s="31" t="s">
         <v>1916</v>
@@ -42169,8 +42152,11 @@
       <c r="C234" s="24">
         <v>2011</v>
       </c>
-      <c r="D234" s="36" t="s">
-        <v>2591</v>
+      <c r="D234" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E234" s="47" t="s">
+        <v>2495</v>
       </c>
       <c r="F234" t="s">
         <v>691</v>
@@ -42214,7 +42200,7 @@
     </row>
     <row r="235" spans="1:24" ht="15.75">
       <c r="A235" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B235" s="31" t="s">
         <v>1925</v>
@@ -42226,7 +42212,7 @@
         <v>2487</v>
       </c>
       <c r="E235" s="41" t="s">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="F235" t="s">
         <v>685</v>
@@ -42273,7 +42259,7 @@
     </row>
     <row r="236" spans="1:24">
       <c r="A236" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B236" s="31" t="s">
         <v>1651</v>
@@ -42329,7 +42315,7 @@
     </row>
     <row r="237" spans="1:24" ht="15.75">
       <c r="A237" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B237" s="31" t="s">
         <v>1917</v>
@@ -42379,7 +42365,7 @@
     </row>
     <row r="238" spans="1:24" ht="15.75">
       <c r="A238" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="C238" s="24">
         <v>2013</v>
@@ -42431,11 +42417,11 @@
       <c r="C239" s="24">
         <v>2011</v>
       </c>
-      <c r="D239" s="43" t="s">
-        <v>2594</v>
+      <c r="D239" s="36" t="s">
+        <v>2605</v>
       </c>
       <c r="E239" s="41" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
       <c r="F239" s="24" t="s">
         <v>714</v>
@@ -42488,7 +42474,7 @@
         <v>2487</v>
       </c>
       <c r="E240" s="41" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="F240" t="s">
         <v>716</v>
@@ -42535,7 +42521,7 @@
         <v>2018</v>
       </c>
       <c r="D241" s="36" t="s">
-        <v>2591</v>
+        <v>2603</v>
       </c>
       <c r="F241" t="s">
         <v>728</v>
@@ -42573,7 +42559,7 @@
     </row>
     <row r="242" spans="1:24" ht="15.75">
       <c r="A242" s="38" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="B242" s="31" t="s">
         <v>1665</v>
@@ -42626,7 +42612,7 @@
     </row>
     <row r="243" spans="1:24" ht="15.75">
       <c r="A243" s="38" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="B243" s="31" t="s">
         <v>1659</v>
@@ -42676,7 +42662,7 @@
     </row>
     <row r="244" spans="1:24">
       <c r="A244" s="38" t="s">
-        <v>2528</v>
+        <v>2520</v>
       </c>
       <c r="B244" s="31" t="s">
         <v>1949</v>
@@ -42735,7 +42721,7 @@
     </row>
     <row r="245" spans="1:24" ht="15.75">
       <c r="A245" s="38" t="s">
-        <v>2529</v>
+        <v>2521</v>
       </c>
       <c r="B245" s="31" t="s">
         <v>1667</v>
@@ -42743,8 +42729,11 @@
       <c r="C245" s="24">
         <v>2009</v>
       </c>
-      <c r="D245" s="36" t="s">
-        <v>2522</v>
+      <c r="D245" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E245" s="47" t="s">
+        <v>2516</v>
       </c>
       <c r="F245" t="s">
         <v>768</v>
@@ -42785,7 +42774,7 @@
     </row>
     <row r="246" spans="1:24" ht="15.75">
       <c r="A246" s="38" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B246" s="31" t="s">
         <v>1953</v>
@@ -42844,7 +42833,7 @@
     </row>
     <row r="247" spans="1:24">
       <c r="A247" s="38" t="s">
-        <v>2538</v>
+        <v>2530</v>
       </c>
       <c r="B247" s="31" t="s">
         <v>1671</v>
@@ -42900,7 +42889,7 @@
     </row>
     <row r="248" spans="1:24">
       <c r="A248" s="38" t="s">
-        <v>2539</v>
+        <v>2531</v>
       </c>
       <c r="B248" s="31" t="s">
         <v>1962</v>
@@ -42909,7 +42898,7 @@
         <v>2012</v>
       </c>
       <c r="D248" s="36" t="s">
-        <v>2522</v>
+        <v>2603</v>
       </c>
       <c r="F248" s="24" t="s">
         <v>800</v>
@@ -43008,7 +42997,7 @@
     </row>
     <row r="250" spans="1:24" ht="15.75">
       <c r="A250" s="38" t="s">
-        <v>2552</v>
+        <v>2544</v>
       </c>
       <c r="B250" s="31" t="s">
         <v>1965</v>
@@ -43234,13 +43223,13 @@
       <c r="C254" s="24">
         <v>2006</v>
       </c>
-      <c r="D254" s="36" t="s">
-        <v>2595</v>
-      </c>
-      <c r="E254" s="41" t="s">
-        <v>2088</v>
-      </c>
-      <c r="F254" t="s">
+      <c r="D254" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E254" s="47" t="s">
+        <v>2584</v>
+      </c>
+      <c r="F254" s="4" t="s">
         <v>1092</v>
       </c>
       <c r="G254" s="24" t="s">
@@ -43273,7 +43262,7 @@
     </row>
     <row r="255" spans="1:24" ht="15.75">
       <c r="A255" s="38" t="s">
-        <v>2580</v>
+        <v>2572</v>
       </c>
       <c r="B255" s="31" t="s">
         <v>1730</v>
@@ -43385,7 +43374,7 @@
         <v>2487</v>
       </c>
       <c r="E257" s="41" t="s">
-        <v>2596</v>
+        <v>2584</v>
       </c>
       <c r="F257" t="s">
         <v>924</v>
@@ -43485,7 +43474,7 @@
         <v>2487</v>
       </c>
       <c r="E259" s="41" t="s">
-        <v>2597</v>
+        <v>2585</v>
       </c>
       <c r="F259" t="s">
         <v>877</v>
@@ -43644,7 +43633,7 @@
         <v>2487</v>
       </c>
       <c r="E262" s="41" t="s">
-        <v>2598</v>
+        <v>2586</v>
       </c>
       <c r="F262" t="s">
         <v>929</v>
@@ -43820,7 +43809,7 @@
     </row>
     <row r="266" spans="1:24">
       <c r="A266" s="38" t="s">
-        <v>2553</v>
+        <v>2545</v>
       </c>
       <c r="B266" s="31" t="s">
         <v>1703</v>
@@ -43832,7 +43821,7 @@
         <v>2487</v>
       </c>
       <c r="E266" s="41" t="s">
-        <v>2596</v>
+        <v>2584</v>
       </c>
       <c r="F266" s="24" t="s">
         <v>36</v>
@@ -43888,7 +43877,7 @@
         <v>2487</v>
       </c>
       <c r="E267" s="41" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="F267" t="s">
         <v>39</v>
@@ -43938,7 +43927,7 @@
     </row>
     <row r="268" spans="1:24" ht="15.75">
       <c r="A268" s="38" t="s">
-        <v>2568</v>
+        <v>2560</v>
       </c>
       <c r="C268" s="24">
         <v>2018</v>
@@ -43947,7 +43936,7 @@
         <v>2487</v>
       </c>
       <c r="E268" s="41" t="s">
-        <v>2596</v>
+        <v>2584</v>
       </c>
       <c r="F268" t="s">
         <v>956</v>
@@ -43976,7 +43965,7 @@
     </row>
     <row r="269" spans="1:24">
       <c r="A269" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B269" s="31" t="s">
         <v>1620</v>
@@ -44038,7 +44027,7 @@
     </row>
     <row r="270" spans="1:24" ht="15.75">
       <c r="A270" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B270" s="31" t="s">
         <v>1625</v>
@@ -44050,7 +44039,7 @@
         <v>2487</v>
       </c>
       <c r="E270" s="41" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>789</v>
@@ -44097,7 +44086,7 @@
     </row>
     <row r="271" spans="1:24">
       <c r="A271" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B271" s="31" t="s">
         <v>1709</v>
@@ -44156,7 +44145,7 @@
     </row>
     <row r="272" spans="1:24" ht="15.75">
       <c r="A272" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B272" s="31" t="s">
         <v>1711</v>
@@ -44215,7 +44204,7 @@
     </row>
     <row r="273" spans="1:24">
       <c r="A273" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B273" s="31" t="s">
         <v>1622</v>
@@ -44227,7 +44216,7 @@
         <v>2487</v>
       </c>
       <c r="E273" s="41" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
       <c r="F273" s="24" t="s">
         <v>65</v>
@@ -44271,7 +44260,7 @@
     </row>
     <row r="274" spans="1:24">
       <c r="A274" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B274" s="31" t="s">
         <v>1624</v>
@@ -44327,7 +44316,7 @@
     </row>
     <row r="275" spans="1:24" ht="15.75">
       <c r="A275" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B275" s="31" t="s">
         <v>1626</v>
@@ -44339,7 +44328,7 @@
         <v>2487</v>
       </c>
       <c r="E275" s="41" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="F275" t="s">
         <v>80</v>
@@ -44386,7 +44375,7 @@
     </row>
     <row r="276" spans="1:24">
       <c r="A276" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B276" s="31" t="s">
         <v>1706</v>
@@ -44442,7 +44431,7 @@
     </row>
     <row r="277" spans="1:24" ht="15.75">
       <c r="A277" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B277" s="31" t="s">
         <v>1707</v>
@@ -44498,7 +44487,7 @@
     </row>
     <row r="278" spans="1:24" ht="15.75">
       <c r="A278" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B278" s="31" t="s">
         <v>1708</v>
@@ -44551,7 +44540,7 @@
     </row>
     <row r="279" spans="1:24" ht="15.75">
       <c r="A279" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="C279" s="24">
         <v>2013</v>
@@ -44604,7 +44593,7 @@
     </row>
     <row r="280" spans="1:24">
       <c r="A280" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B280" s="31" t="s">
         <v>1710</v>
@@ -44660,7 +44649,7 @@
     </row>
     <row r="281" spans="1:24">
       <c r="A281" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B281" s="31" t="s">
         <v>1712</v>
@@ -44713,7 +44702,7 @@
     </row>
     <row r="282" spans="1:24" ht="15.75">
       <c r="A282" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B282" s="31" t="s">
         <v>1713</v>
@@ -44772,7 +44761,7 @@
     </row>
     <row r="283" spans="1:24" ht="15.75">
       <c r="A283" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="C283" s="24">
         <v>2015</v>
@@ -44822,7 +44811,7 @@
     </row>
     <row r="284" spans="1:24">
       <c r="A284" s="38" t="s">
-        <v>2566</v>
+        <v>2558</v>
       </c>
       <c r="B284" s="31" t="s">
         <v>1715</v>
@@ -44878,7 +44867,7 @@
     </row>
     <row r="285" spans="1:24" ht="15.75">
       <c r="A285" s="38" t="s">
-        <v>2567</v>
+        <v>2559</v>
       </c>
       <c r="B285" s="31" t="s">
         <v>1718</v>
@@ -45264,7 +45253,7 @@
     </row>
     <row r="292" spans="1:24">
       <c r="A292" s="41" t="s">
-        <v>2599</v>
+        <v>2587</v>
       </c>
       <c r="B292" s="31" t="s">
         <v>1737</v>
@@ -45635,7 +45624,7 @@
         <v>2487</v>
       </c>
       <c r="E299" s="41" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="F299" t="s">
         <v>222</v>
@@ -45723,7 +45712,7 @@
     </row>
     <row r="301" spans="1:24">
       <c r="A301" s="38" t="s">
-        <v>2587</v>
+        <v>2579</v>
       </c>
       <c r="B301" s="31" t="s">
         <v>1752</v>
@@ -45847,10 +45836,10 @@
         <v>2014</v>
       </c>
       <c r="D303" s="41" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="E303" s="41" t="s">
-        <v>2600</v>
+        <v>2588</v>
       </c>
       <c r="F303" t="s">
         <v>269</v>
@@ -46003,7 +45992,7 @@
         <v>2487</v>
       </c>
       <c r="E306" s="41" t="s">
-        <v>2601</v>
+        <v>2589</v>
       </c>
       <c r="F306" s="4" t="s">
         <v>262</v>
@@ -46062,7 +46051,7 @@
         <v>2487</v>
       </c>
       <c r="E307" s="41" t="s">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="F307" t="s">
         <v>265</v>
@@ -46212,7 +46201,7 @@
         <v>2487</v>
       </c>
       <c r="E310" s="41" t="s">
-        <v>2602</v>
+        <v>2590</v>
       </c>
       <c r="F310" t="s">
         <v>992</v>
@@ -46306,7 +46295,7 @@
         <v>2487</v>
       </c>
       <c r="E312" s="41" t="s">
-        <v>2603</v>
+        <v>2591</v>
       </c>
       <c r="F312" t="s">
         <v>1010</v>
@@ -46397,7 +46386,7 @@
         <v>2487</v>
       </c>
       <c r="E314" s="41" t="s">
-        <v>2604</v>
+        <v>2592</v>
       </c>
       <c r="F314" t="s">
         <v>1006</v>
@@ -46488,7 +46477,7 @@
         <v>2487</v>
       </c>
       <c r="E316" s="41" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="F316" t="s">
         <v>994</v>
@@ -46567,7 +46556,7 @@
     </row>
     <row r="318" spans="1:24">
       <c r="A318" s="38" t="s">
-        <v>2569</v>
+        <v>2561</v>
       </c>
       <c r="B318" s="31" t="s">
         <v>1774</v>
@@ -46623,7 +46612,7 @@
     </row>
     <row r="319" spans="1:24" ht="15.75">
       <c r="A319" s="38" t="s">
-        <v>2573</v>
+        <v>2565</v>
       </c>
       <c r="B319" s="31" t="s">
         <v>1775</v>
@@ -46685,7 +46674,7 @@
     </row>
     <row r="320" spans="1:24">
       <c r="A320" s="38" t="s">
-        <v>2573</v>
+        <v>2565</v>
       </c>
       <c r="B320" s="31" t="s">
         <v>1776</v>
@@ -46697,7 +46686,7 @@
         <v>2487</v>
       </c>
       <c r="E320" s="41" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="F320" s="24" t="s">
         <v>307</v>
@@ -46738,7 +46727,7 @@
     </row>
     <row r="321" spans="1:24" ht="15.75">
       <c r="A321" s="38" t="s">
-        <v>2573</v>
+        <v>2565</v>
       </c>
       <c r="B321" s="31" t="s">
         <v>1778</v>
@@ -47130,7 +47119,7 @@
         <v>2487</v>
       </c>
       <c r="E328" s="41" t="s">
-        <v>2605</v>
+        <v>2593</v>
       </c>
       <c r="F328" s="24" t="s">
         <v>344</v>
@@ -47218,7 +47207,7 @@
     </row>
     <row r="330" spans="1:24" ht="15.75">
       <c r="A330" s="38" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="B330" s="31" t="s">
         <v>1790</v>
@@ -47277,7 +47266,7 @@
     </row>
     <row r="331" spans="1:24">
       <c r="A331" s="38" t="s">
-        <v>2550</v>
+        <v>2542</v>
       </c>
       <c r="B331" s="31" t="s">
         <v>1637</v>
@@ -47339,7 +47328,7 @@
     </row>
     <row r="332" spans="1:24">
       <c r="A332" s="38" t="s">
-        <v>2550</v>
+        <v>2542</v>
       </c>
       <c r="B332" s="31" t="s">
         <v>1792</v>
@@ -47407,7 +47396,7 @@
         <v>2487</v>
       </c>
       <c r="E333" s="41" t="s">
-        <v>2606</v>
+        <v>2594</v>
       </c>
       <c r="F333" s="24" t="s">
         <v>384</v>
@@ -47454,7 +47443,7 @@
     </row>
     <row r="334" spans="1:24" ht="15.75">
       <c r="A334" s="38" t="s">
-        <v>2581</v>
+        <v>2573</v>
       </c>
       <c r="B334" s="31" t="s">
         <v>1797</v>
@@ -47466,7 +47455,7 @@
         <v>2487</v>
       </c>
       <c r="E334" s="41" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
       <c r="F334" t="s">
         <v>394</v>
@@ -47619,7 +47608,7 @@
         <v>2017</v>
       </c>
       <c r="D337" s="41" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="E337" s="41" t="s">
         <v>2089</v>
@@ -47884,7 +47873,7 @@
         <v>2487</v>
       </c>
       <c r="E342" s="41" t="s">
-        <v>2596</v>
+        <v>2584</v>
       </c>
       <c r="F342" t="s">
         <v>1039</v>
@@ -47922,7 +47911,7 @@
         <v>2487</v>
       </c>
       <c r="E343" s="41" t="s">
-        <v>2596</v>
+        <v>2584</v>
       </c>
       <c r="F343" t="s">
         <v>1037</v>
@@ -47969,7 +47958,7 @@
         <v>2487</v>
       </c>
       <c r="E344" s="41" t="s">
-        <v>2607</v>
+        <v>2595</v>
       </c>
       <c r="F344" s="4" t="s">
         <v>543</v>
@@ -48075,7 +48064,7 @@
         <v>2487</v>
       </c>
       <c r="E346" s="41" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="F346" t="s">
         <v>530</v>
@@ -48284,7 +48273,7 @@
     </row>
     <row r="350" spans="1:24" ht="15.75">
       <c r="A350" s="38" t="s">
-        <v>2546</v>
+        <v>2538</v>
       </c>
       <c r="B350" s="31" t="s">
         <v>1849</v>
@@ -48346,7 +48335,7 @@
     </row>
     <row r="351" spans="1:24" ht="15.75">
       <c r="A351" s="38" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="B351" s="31" t="s">
         <v>1650</v>
@@ -48358,7 +48347,7 @@
         <v>2487</v>
       </c>
       <c r="E351" s="41" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="F351" t="s">
         <v>748</v>
@@ -48399,7 +48388,7 @@
     </row>
     <row r="352" spans="1:24">
       <c r="A352" s="38" t="s">
-        <v>2546</v>
+        <v>2538</v>
       </c>
       <c r="B352" s="31" t="s">
         <v>1852</v>
@@ -48458,7 +48447,7 @@
     </row>
     <row r="353" spans="1:24" ht="15.75">
       <c r="A353" s="38" t="s">
-        <v>2525</v>
+        <v>2517</v>
       </c>
       <c r="B353" s="31" t="s">
         <v>1854</v>
@@ -48617,7 +48606,7 @@
         <v>2487</v>
       </c>
       <c r="E356" s="41" t="s">
-        <v>2608</v>
+        <v>2596</v>
       </c>
       <c r="F356" t="s">
         <v>605</v>
@@ -48823,7 +48812,7 @@
         <v>2487</v>
       </c>
       <c r="E360" s="41" t="s">
-        <v>2596</v>
+        <v>2584</v>
       </c>
       <c r="F360" t="s">
         <v>583</v>
@@ -48870,7 +48859,7 @@
         <v>2010</v>
       </c>
       <c r="D361" s="36" t="s">
-        <v>2591</v>
+        <v>2603</v>
       </c>
       <c r="F361" t="s">
         <v>635</v>
@@ -49029,7 +49018,7 @@
         <v>2017</v>
       </c>
       <c r="D364" s="36" t="s">
-        <v>2609</v>
+        <v>2604</v>
       </c>
       <c r="F364" t="s">
         <v>662</v>
@@ -49185,7 +49174,7 @@
         <v>2018</v>
       </c>
       <c r="D367" s="36" t="s">
-        <v>2609</v>
+        <v>2604</v>
       </c>
       <c r="F367" t="s">
         <v>639</v>
@@ -49376,7 +49365,7 @@
     </row>
     <row r="371" spans="1:24" ht="15.75">
       <c r="A371" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B371" s="31" t="s">
         <v>1923</v>
@@ -49432,7 +49421,7 @@
     </row>
     <row r="372" spans="1:24" ht="15.75">
       <c r="A372" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B372" s="31" t="s">
         <v>1915</v>
@@ -49488,7 +49477,7 @@
     </row>
     <row r="373" spans="1:24" ht="15.75">
       <c r="A373" s="38" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="C373" s="24">
         <v>2019</v>
@@ -49532,7 +49521,7 @@
     </row>
     <row r="374" spans="1:24">
       <c r="A374" s="38" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="B374" s="31" t="s">
         <v>1652</v>
@@ -49588,7 +49577,7 @@
     </row>
     <row r="375" spans="1:24" ht="15.75">
       <c r="A375" s="38" t="s">
-        <v>2540</v>
+        <v>2532</v>
       </c>
       <c r="B375" s="31" t="s">
         <v>1931</v>
@@ -49641,7 +49630,7 @@
     </row>
     <row r="376" spans="1:24">
       <c r="A376" s="38" t="s">
-        <v>2571</v>
+        <v>2563</v>
       </c>
       <c r="B376" s="31" t="s">
         <v>1932</v>
@@ -49756,7 +49745,7 @@
     </row>
     <row r="378" spans="1:24" ht="15.75">
       <c r="A378" s="38" t="s">
-        <v>2541</v>
+        <v>2533</v>
       </c>
       <c r="B378" s="31" t="s">
         <v>1653</v>
@@ -49815,7 +49804,7 @@
     </row>
     <row r="379" spans="1:24" ht="15.75">
       <c r="A379" s="38" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
       <c r="B379" s="31" t="s">
         <v>1937</v>
@@ -49874,7 +49863,7 @@
     </row>
     <row r="380" spans="1:24" ht="15.75">
       <c r="A380" s="38" t="s">
-        <v>2576</v>
+        <v>2568</v>
       </c>
       <c r="B380" s="31" t="s">
         <v>1654</v>
@@ -50004,7 +49993,7 @@
         <v>2487</v>
       </c>
       <c r="E382" s="41" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="F382" t="s">
         <v>1084</v>
@@ -50048,7 +50037,7 @@
     </row>
     <row r="383" spans="1:24" ht="15.75">
       <c r="A383" s="38" t="s">
-        <v>2536</v>
+        <v>2528</v>
       </c>
       <c r="B383" s="31" t="s">
         <v>1941</v>
@@ -50057,7 +50046,7 @@
         <v>2018</v>
       </c>
       <c r="D383" s="36" t="s">
-        <v>2522</v>
+        <v>2604</v>
       </c>
       <c r="F383" t="s">
         <v>734</v>
@@ -50101,7 +50090,7 @@
     </row>
     <row r="384" spans="1:24" ht="15.75">
       <c r="A384" s="38" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="B384" s="31" t="s">
         <v>1942</v>
@@ -50207,7 +50196,7 @@
     </row>
     <row r="386" spans="1:24" ht="15.75">
       <c r="A386" s="38" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="B386" s="31" t="s">
         <v>1663</v>
@@ -50257,7 +50246,7 @@
     </row>
     <row r="387" spans="1:24" ht="15.75">
       <c r="A387" s="38" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="B387" s="31" t="s">
         <v>1664</v>
@@ -50310,7 +50299,7 @@
     </row>
     <row r="388" spans="1:24">
       <c r="A388" s="38" t="s">
-        <v>2530</v>
+        <v>2522</v>
       </c>
       <c r="B388" s="31" t="s">
         <v>1948</v>
@@ -50366,7 +50355,7 @@
     </row>
     <row r="389" spans="1:24" ht="15.75">
       <c r="A389" s="38" t="s">
-        <v>2529</v>
+        <v>2521</v>
       </c>
       <c r="B389" s="31" t="s">
         <v>2085</v>
@@ -50378,7 +50367,7 @@
         <v>2487</v>
       </c>
       <c r="E389" s="41" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
       <c r="F389" t="s">
         <v>769</v>
@@ -50431,7 +50420,7 @@
     </row>
     <row r="390" spans="1:24">
       <c r="A390" s="38" t="s">
-        <v>2531</v>
+        <v>2523</v>
       </c>
       <c r="B390" s="31" t="s">
         <v>1668</v>
@@ -50439,8 +50428,11 @@
       <c r="C390" s="24">
         <v>2017</v>
       </c>
-      <c r="D390" s="36" t="s">
-        <v>2522</v>
+      <c r="D390" s="41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E390" s="47" t="s">
+        <v>2089</v>
       </c>
       <c r="F390" s="24" t="s">
         <v>771</v>
@@ -50481,7 +50473,7 @@
     </row>
     <row r="391" spans="1:24" ht="15.75">
       <c r="A391" s="38" t="s">
-        <v>2531</v>
+        <v>2523</v>
       </c>
       <c r="B391" s="31" t="s">
         <v>1950</v>
@@ -50492,8 +50484,8 @@
       <c r="D391" s="41" t="s">
         <v>2487</v>
       </c>
-      <c r="E391" s="36" t="s">
-        <v>2610</v>
+      <c r="E391" s="47" t="s">
+        <v>2089</v>
       </c>
       <c r="F391" t="s">
         <v>774</v>
@@ -50534,7 +50526,7 @@
     </row>
     <row r="392" spans="1:24">
       <c r="A392" s="38" t="s">
-        <v>2532</v>
+        <v>2524</v>
       </c>
       <c r="B392" s="31" t="s">
         <v>1669</v>
@@ -50593,7 +50585,7 @@
     </row>
     <row r="393" spans="1:24" ht="15.75">
       <c r="A393" s="38" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="B393" s="31" t="s">
         <v>1952</v>
@@ -50643,7 +50635,7 @@
     </row>
     <row r="394" spans="1:24" ht="15.75">
       <c r="A394" s="38" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B394" s="31" t="s">
         <v>1670</v>
@@ -50705,7 +50697,7 @@
     </row>
     <row r="395" spans="1:24">
       <c r="A395" s="38" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B395" s="31" t="s">
         <v>1958</v>
@@ -51913,7 +51905,7 @@
         <v>2487</v>
       </c>
       <c r="E417" s="44" t="s">
-        <v>2596</v>
+        <v>2584</v>
       </c>
       <c r="F417" t="s">
         <v>892</v>
@@ -52290,7 +52282,7 @@
         <v>2014</v>
       </c>
       <c r="D424" s="36" t="s">
-        <v>2522</v>
+        <v>2597</v>
       </c>
       <c r="F424" t="s">
         <v>334</v>
@@ -52499,7 +52491,7 @@
         <v>2016</v>
       </c>
       <c r="D428" s="36" t="s">
-        <v>2611</v>
+        <v>2597</v>
       </c>
       <c r="F428" t="s">
         <v>931</v>
@@ -52608,7 +52600,7 @@
         <v>2017</v>
       </c>
       <c r="D430" s="36" t="s">
-        <v>2522</v>
+        <v>2603</v>
       </c>
       <c r="F430" s="24" t="s">
         <v>879</v>
@@ -52776,7 +52768,7 @@
         <v>2018</v>
       </c>
       <c r="D433" s="36" t="s">
-        <v>2611</v>
+        <v>2597</v>
       </c>
       <c r="F433" s="24" t="s">
         <v>887</v>
@@ -53117,7 +53109,7 @@
     </row>
     <row r="440" spans="1:24" ht="15.75">
       <c r="A440" s="38" t="s">
-        <v>2588</v>
+        <v>2580</v>
       </c>
       <c r="B440" s="31" t="s">
         <v>1696</v>
@@ -53176,7 +53168,7 @@
     </row>
     <row r="441" spans="1:24" ht="15.75">
       <c r="A441" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="C441" s="24">
         <v>2014</v>
@@ -53299,7 +53291,7 @@
         <v>2487</v>
       </c>
       <c r="E443" s="45" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="F443" s="27" t="s">
         <v>185</v>
@@ -53450,7 +53442,7 @@
     </row>
     <row r="446" spans="1:24">
       <c r="A446" s="38" t="s">
-        <v>2544</v>
+        <v>2536</v>
       </c>
       <c r="B446" s="31" t="s">
         <v>1748</v>
@@ -53515,7 +53507,7 @@
         <v>2487</v>
       </c>
       <c r="E447" s="45" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="F447" t="s">
         <v>272</v>
@@ -53721,7 +53713,7 @@
         <v>2487</v>
       </c>
       <c r="E451" s="45" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="F451" t="s">
         <v>255</v>
@@ -53909,7 +53901,7 @@
     </row>
     <row r="455" spans="1:24">
       <c r="A455" s="38" t="s">
-        <v>2556</v>
+        <v>2548</v>
       </c>
       <c r="B455" s="31" t="s">
         <v>1822</v>
@@ -54071,7 +54063,7 @@
         <v>2487</v>
       </c>
       <c r="E458" s="45" t="s">
-        <v>2602</v>
+        <v>2590</v>
       </c>
       <c r="F458" t="s">
         <v>1042</v>
@@ -54109,7 +54101,7 @@
     </row>
     <row r="459" spans="1:24">
       <c r="A459" s="38" t="s">
-        <v>2557</v>
+        <v>2549</v>
       </c>
       <c r="B459" s="31" t="s">
         <v>1851</v>
@@ -54327,7 +54319,7 @@
         <v>2487</v>
       </c>
       <c r="E463" s="45" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="F463" t="s">
         <v>608</v>
@@ -54694,7 +54686,7 @@
         <v>2487</v>
       </c>
       <c r="E471" s="45" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="F471" t="s">
         <v>1047</v>
@@ -55202,7 +55194,7 @@
     </row>
     <row r="482" spans="1:24" ht="15.75">
       <c r="A482" s="38" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="B482" s="31" t="s">
         <v>1661</v>
@@ -55214,7 +55206,7 @@
         <v>2487</v>
       </c>
       <c r="E482" s="45" t="s">
-        <v>2612</v>
+        <v>2598</v>
       </c>
       <c r="F482" t="s">
         <v>755</v>
@@ -55255,7 +55247,7 @@
     </row>
     <row r="483" spans="1:24" ht="15.75">
       <c r="A483" s="38" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="B483" s="31" t="s">
         <v>1945</v>
@@ -55308,7 +55300,7 @@
     </row>
     <row r="484" spans="1:24" ht="15.75">
       <c r="A484" s="38" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="B484" s="31" t="s">
         <v>1946</v>
@@ -55361,7 +55353,7 @@
     </row>
     <row r="485" spans="1:24" ht="15.75">
       <c r="A485" s="38" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B485" s="31" t="s">
         <v>1956</v>
@@ -55420,7 +55412,7 @@
     </row>
     <row r="486" spans="1:24" ht="15.75">
       <c r="A486" s="38" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B486" s="31" t="s">
         <v>1957</v>
@@ -55473,7 +55465,7 @@
     </row>
     <row r="487" spans="1:24" ht="15.75">
       <c r="A487" s="38" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B487" s="31" t="s">
         <v>1961</v>
@@ -55826,7 +55818,7 @@
         <v>2016</v>
       </c>
       <c r="D494" s="36" t="s">
-        <v>2613</v>
+        <v>2599</v>
       </c>
       <c r="F494" s="24" t="s">
         <v>836</v>
@@ -55973,10 +55965,10 @@
         <v>2014</v>
       </c>
       <c r="D497" s="45" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="E497" s="45" t="s">
-        <v>2596</v>
+        <v>2584</v>
       </c>
       <c r="F497" s="24" t="s">
         <v>1096</v>
@@ -56123,7 +56115,7 @@
     </row>
     <row r="500" spans="1:24" ht="15.75">
       <c r="A500" s="40" t="s">
-        <v>2584</v>
+        <v>2576</v>
       </c>
       <c r="B500" s="31" t="s">
         <v>1697</v>
@@ -56132,7 +56124,7 @@
         <v>2001</v>
       </c>
       <c r="D500" s="36" t="s">
-        <v>2522</v>
+        <v>2603</v>
       </c>
       <c r="F500" t="s">
         <v>12</v>
@@ -56185,7 +56177,7 @@
         <v>2487</v>
       </c>
       <c r="E501" s="45" t="s">
-        <v>2596</v>
+        <v>2584</v>
       </c>
       <c r="F501" s="24" t="s">
         <v>17</v>
@@ -56226,7 +56218,7 @@
     </row>
     <row r="502" spans="1:24" ht="15.75">
       <c r="A502" s="38" t="s">
-        <v>2585</v>
+        <v>2577</v>
       </c>
       <c r="B502" s="31" t="s">
         <v>1700</v>
@@ -56238,7 +56230,7 @@
         <v>2487</v>
       </c>
       <c r="E502" s="45" t="s">
-        <v>2596</v>
+        <v>2584</v>
       </c>
       <c r="F502" t="s">
         <v>25</v>
@@ -56273,7 +56265,7 @@
     </row>
     <row r="503" spans="1:24">
       <c r="A503" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B503" s="31" t="s">
         <v>1621</v>
@@ -56285,7 +56277,7 @@
         <v>2487</v>
       </c>
       <c r="E503" s="45" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="F503" s="24" t="s">
         <v>56</v>
@@ -56332,7 +56324,7 @@
     </row>
     <row r="504" spans="1:24">
       <c r="A504" s="38" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B504" s="31" t="s">
         <v>1623</v>
@@ -56391,7 +56383,7 @@
     </row>
     <row r="505" spans="1:24">
       <c r="A505" s="38" t="s">
-        <v>2543</v>
+        <v>2535</v>
       </c>
       <c r="B505" s="31" t="s">
         <v>1729</v>
@@ -56447,7 +56439,7 @@
     </row>
     <row r="506" spans="1:24">
       <c r="A506" s="38" t="s">
-        <v>2543</v>
+        <v>2535</v>
       </c>
       <c r="B506" s="31" t="s">
         <v>1732</v>
@@ -56497,7 +56489,7 @@
     </row>
     <row r="507" spans="1:24">
       <c r="A507" s="38" t="s">
-        <v>2534</v>
+        <v>2526</v>
       </c>
       <c r="B507" s="31" t="s">
         <v>1766</v>
@@ -56550,7 +56542,7 @@
     </row>
     <row r="508" spans="1:24">
       <c r="A508" s="38" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="B508" s="31" t="s">
         <v>1767</v>
@@ -56650,7 +56642,7 @@
     </row>
     <row r="510" spans="1:24">
       <c r="A510" s="38" t="s">
-        <v>2558</v>
+        <v>2550</v>
       </c>
       <c r="B510" s="31" t="s">
         <v>1633</v>
@@ -56659,7 +56651,7 @@
         <v>2012</v>
       </c>
       <c r="D510" s="46" t="s">
-        <v>2614</v>
+        <v>2600</v>
       </c>
       <c r="E510" s="45" t="s">
         <v>2089</v>
@@ -56703,7 +56695,7 @@
     </row>
     <row r="511" spans="1:24">
       <c r="A511" s="38" t="s">
-        <v>2572</v>
+        <v>2564</v>
       </c>
       <c r="B511" s="31" t="s">
         <v>1853</v>
@@ -56712,7 +56704,7 @@
         <v>2007</v>
       </c>
       <c r="D511" s="43" t="s">
-        <v>2615</v>
+        <v>2601</v>
       </c>
       <c r="F511" s="24" t="s">
         <v>553</v>
@@ -56765,7 +56757,7 @@
         <v>2015</v>
       </c>
       <c r="D512" s="36" t="s">
-        <v>2591</v>
+        <v>2603</v>
       </c>
       <c r="F512" t="s">
         <v>732</v>
@@ -56815,7 +56807,7 @@
         <v>2015</v>
       </c>
       <c r="D513" s="36" t="s">
-        <v>2591</v>
+        <v>2603</v>
       </c>
       <c r="F513" s="24" t="s">
         <v>730</v>
@@ -56859,7 +56851,7 @@
     </row>
     <row r="514" spans="1:24" ht="15.75">
       <c r="A514" s="38" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="B514" s="31" t="s">
         <v>1658</v>
@@ -56868,7 +56860,7 @@
         <v>2010</v>
       </c>
       <c r="D514" s="36" t="s">
-        <v>2591</v>
+        <v>2603</v>
       </c>
       <c r="F514" t="s">
         <v>761</v>
@@ -56903,7 +56895,7 @@
     </row>
     <row r="515" spans="1:24" ht="15.75">
       <c r="A515" s="38" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="B515" s="31" t="s">
         <v>1662</v>
@@ -56960,7 +56952,7 @@
     </row>
     <row r="516" spans="1:24" ht="15.75">
       <c r="A516" s="38" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="B516" s="31" t="s">
         <v>1666</v>
@@ -56969,7 +56961,7 @@
         <v>2019</v>
       </c>
       <c r="D516" s="36" t="s">
-        <v>2591</v>
+        <v>2603</v>
       </c>
       <c r="F516" t="s">
         <v>744</v>
@@ -57007,7 +56999,7 @@
     </row>
     <row r="517" spans="1:24" ht="15.75">
       <c r="A517" s="38" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="B517" s="31" t="s">
         <v>1944</v>
@@ -57016,7 +57008,7 @@
         <v>2014</v>
       </c>
       <c r="D517" s="36" t="s">
-        <v>2591</v>
+        <v>2603</v>
       </c>
       <c r="F517" t="s">
         <v>742</v>
@@ -57051,7 +57043,7 @@
     </row>
     <row r="518" spans="1:24" ht="15.75">
       <c r="A518" s="38" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B518" s="31" t="s">
         <v>1960</v>
@@ -57110,7 +57102,7 @@
     </row>
     <row r="519" spans="1:24">
       <c r="A519" s="38" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
       <c r="B519" s="31" t="s">
         <v>1672</v>
@@ -57348,7 +57340,7 @@
         <v>2487</v>
       </c>
       <c r="E524" s="45" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="F524" t="s">
         <v>982</v>
@@ -57383,7 +57375,7 @@
         <v>2487</v>
       </c>
       <c r="E525" s="45" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="F525" t="s">
         <v>981</v>
@@ -57441,9 +57433,10 @@
     <hyperlink ref="F397" r:id="rId20"/>
     <hyperlink ref="F408" r:id="rId21"/>
     <hyperlink ref="F435" r:id="rId22"/>
+    <hyperlink ref="F254" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
